--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -809,37 +809,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一時間</t>
-    <rPh sb="0" eb="1">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二時間</t>
-    <rPh sb="0" eb="3">
-      <t>ニジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二時間</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二時間</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>爆発</t>
     <rPh sb="0" eb="2">
       <t>バクハツ</t>
@@ -847,69 +816,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>三時間</t>
-    <rPh sb="0" eb="1">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>三時間</t>
-    <rPh sb="0" eb="1">
-      <t>３</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>三時間</t>
-    <rPh sb="0" eb="3">
-      <t>サンジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>八時間</t>
-    <rPh sb="0" eb="1">
-      <t>ハチ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>八時間</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二時間</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一時間</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一時間</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二十七時間</t>
-    <rPh sb="0" eb="3">
-      <t>ニジュウナナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>必殺技(継続)　炎</t>
     <rPh sb="0" eb="3">
       <t>ヒッサツワザ</t>
@@ -937,16 +843,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>十五時間</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウゴ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
@@ -1052,6 +948,25 @@
     <rPh sb="1" eb="3">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>27時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8時間</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2時間</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1時間</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1603,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1736,78 +1651,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1907,9 +1750,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1937,12 +1777,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1953,12 +1787,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
@@ -1972,6 +1800,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2263,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2335,7 +2247,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="44" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="13"/>
@@ -2414,19 +2326,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="60"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2635,9 +2547,9 @@
     </row>
     <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="113"/>
+        <v>129</v>
+      </c>
+      <c r="B13" s="86"/>
       <c r="C13" s="30" t="s">
         <v>73</v>
       </c>
@@ -2646,7 +2558,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="116"/>
+      <c r="I13" s="89"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2663,15 +2575,15 @@
         <v>101</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="115" t="s">
+      <c r="C14" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="116"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2685,19 +2597,19 @@
     </row>
     <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="115" t="s">
-        <v>144</v>
+      <c r="C15" s="93"/>
+      <c r="D15" s="88" t="s">
+        <v>130</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2710,19 +2622,19 @@
     </row>
     <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="115" t="s">
-        <v>144</v>
+      <c r="C16" s="91"/>
+      <c r="D16" s="88" t="s">
+        <v>130</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2735,19 +2647,19 @@
     </row>
     <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="121"/>
+        <v>131</v>
+      </c>
+      <c r="D17" s="92"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2764,15 +2676,15 @@
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="32" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2788,16 +2700,16 @@
         <v>102</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2813,10 +2725,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="112"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2867,10 +2779,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="61"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2894,10 +2806,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="69" t="s">
+      <c r="G23" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="69"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -2921,10 +2833,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="64" t="s">
+      <c r="I24" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="102"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -2947,7 +2859,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="114"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3093,10 +3005,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="62" t="s">
+      <c r="J31" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="63"/>
+      <c r="K31" s="100"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3352,7 +3264,7 @@
       <c r="Q42" s="35"/>
     </row>
     <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.15">
-      <c r="A43" s="70" t="s" ph="1">
+      <c r="A43" s="46" t="s" ph="1">
         <v>58</v>
       </c>
       <c r="B43" s="11">
@@ -3405,22 +3317,22 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="46" t="s">
-        <v>131</v>
+      <c r="C44" s="111" t="s">
+        <v>117</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -3434,16 +3346,16 @@
         <v>52</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="47"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="73" t="s">
+      <c r="F45" s="49" t="s">
         <v>106</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
-      <c r="J45" s="74"/>
+      <c r="J45" s="50"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -3457,11 +3369,11 @@
         <v>54</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="47"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="73" t="s">
-        <v>137</v>
+      <c r="F46" s="49" t="s">
+        <v>123</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
@@ -3480,16 +3392,16 @@
         <v>53</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="47"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="75" t="s">
+      <c r="G47" s="51" t="s">
         <v>106</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="76"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -3499,24 +3411,24 @@
       <c r="Q47" s="14"/>
     </row>
     <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="74"/>
-      <c r="C48" s="47"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="77"/>
+      <c r="G48" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="53"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
@@ -3525,23 +3437,23 @@
       <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="74"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="40" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="77"/>
+        <v>120</v>
+      </c>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="53"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
@@ -3550,8 +3462,8 @@
       <c r="A50" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="112"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3559,124 +3471,124 @@
       <c r="H50" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="77"/>
-      <c r="O50" s="77"/>
-      <c r="P50" s="77"/>
-      <c r="Q50" s="77"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="53"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
     </row>
     <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="112"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="43"/>
-      <c r="H51" s="74"/>
+      <c r="H51" s="50"/>
       <c r="I51" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="77"/>
-      <c r="O51" s="77"/>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="77"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
     </row>
     <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="74"/>
-      <c r="C52" s="47"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="43"/>
-      <c r="H52" s="74"/>
+      <c r="H52" s="50"/>
       <c r="I52" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="53"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="53"/>
+      <c r="Q52" s="53"/>
     </row>
     <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="44" t="s">
+      <c r="H53" s="50"/>
+      <c r="I53" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="77"/>
-      <c r="O53" s="77"/>
-      <c r="P53" s="77"/>
-      <c r="Q53" s="77"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="50"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="53"/>
     </row>
     <row r="54" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="78" t="s">
+      <c r="A54" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="74"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="112"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="43"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
     </row>
     <row r="55" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="79"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="74"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
       <c r="I55" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="50"/>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
@@ -3684,29 +3596,29 @@
       <c r="S55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="57" t="s">
+      <c r="T55" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="57"/>
+      <c r="U55" s="94"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
       <c r="I56" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="74"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3714,29 +3626,29 @@
       <c r="S56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T56" s="57" t="s">
+      <c r="T56" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="U56" s="57"/>
+      <c r="U56" s="94"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="74"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="74"/>
-      <c r="H57" s="74"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
       <c r="I57" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
@@ -3744,207 +3656,207 @@
       <c r="S57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="57"/>
-      <c r="U57" s="57"/>
+      <c r="T57" s="94"/>
+      <c r="U57" s="94"/>
     </row>
     <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="74"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-      <c r="Q58" s="80"/>
+      <c r="J58" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
     </row>
     <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="81" t="s">
+      <c r="J59" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="K59" s="81" t="s">
+      <c r="K59" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="L59" s="82"/>
-      <c r="M59" s="82"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
     </row>
     <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="74"/>
+      <c r="J60" s="50"/>
       <c r="K60" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
-      <c r="Q60" s="83"/>
+        <v>73</v>
+      </c>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
     </row>
     <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="74"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="74"/>
+      <c r="J61" s="50"/>
       <c r="K61" s="40" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="L61" s="43"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
     </row>
     <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="74"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="74"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="74"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="40" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="L62" s="43"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="59"/>
+      <c r="O62" s="59"/>
+      <c r="P62" s="59"/>
+      <c r="Q62" s="59"/>
     </row>
     <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="74"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="M63" s="74"/>
-      <c r="N63" s="83"/>
-      <c r="O63" s="83"/>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="83"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="M63" s="50"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="59"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
     </row>
     <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="74"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="74"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="74"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="83"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
     </row>
     <row r="65" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="74"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
+        <v>113</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
       <c r="L65" s="43"/>
       <c r="M65" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="83"/>
+        <v>94</v>
+      </c>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
     </row>
     <row r="66" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A66" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="46" t="s">
-        <v>132</v>
+      <c r="C66" s="111" t="s">
+        <v>118</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="84" t="s">
-        <v>134</v>
+      <c r="E66" s="60" t="s">
+        <v>120</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="85"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="43"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
@@ -3961,9 +3873,9 @@
         <v>59</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="47"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="86" t="s">
+      <c r="E67" s="62" t="s">
         <v>73</v>
       </c>
       <c r="F67" s="43"/>
@@ -3984,9 +3896,9 @@
         <v>60</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="47"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="86" t="s">
+      <c r="E68" s="62" t="s">
         <v>73</v>
       </c>
       <c r="F68" s="43"/>
@@ -4007,9 +3919,9 @@
         <v>61</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="47"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="86" t="s">
+      <c r="E69" s="62" t="s">
         <v>73</v>
       </c>
       <c r="F69" s="43"/>
@@ -4030,9 +3942,9 @@
         <v>62</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="47"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="86" t="s">
+      <c r="E70" s="62" t="s">
         <v>73</v>
       </c>
       <c r="F70" s="43"/>
@@ -4053,9 +3965,9 @@
         <v>63</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="47"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="86" t="s">
+      <c r="E71" s="62" t="s">
         <v>73</v>
       </c>
       <c r="F71" s="43"/>
@@ -4075,66 +3987,66 @@
       <c r="A72" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="74"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="87" t="s">
+      <c r="B72" s="50"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="72"/>
-      <c r="L72" s="74"/>
-      <c r="M72" s="74"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
     <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="86" t="s">
+      <c r="B73" s="50"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="50"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
     <row r="74" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="74"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="86" t="s">
+      <c r="B74" s="50"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
       <c r="K74" s="9"/>
-      <c r="L74" s="74"/>
-      <c r="M74" s="74"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
@@ -4145,8 +4057,8 @@
         <v>112</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="90" t="s">
+      <c r="C75" s="112"/>
+      <c r="D75" s="66" t="s">
         <v>73</v>
       </c>
       <c r="E75" s="43"/>
@@ -4164,195 +4076,195 @@
       <c r="Q75" s="14"/>
     </row>
     <row r="76" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="74"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="74"/>
-      <c r="F76" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="88"/>
-      <c r="L76" s="88"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="91"/>
-      <c r="O76" s="91"/>
-      <c r="P76" s="91"/>
-      <c r="Q76" s="91"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="119" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="119"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="119"/>
+      <c r="J76" s="119"/>
+      <c r="K76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="64"/>
+      <c r="N76" s="67"/>
+      <c r="O76" s="67"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="67"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="92" t="s">
+      <c r="B77" s="50"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="90" t="s">
-        <v>134</v>
+      <c r="G77" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="H77" s="43"/>
-      <c r="I77" s="74"/>
+      <c r="I77" s="50"/>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
-      <c r="L77" s="79" t="s">
+      <c r="L77" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="74" t="s">
+      <c r="M77" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="N77" s="93"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="93"/>
+      <c r="N77" s="69"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="69"/>
+      <c r="Q77" s="69"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="74"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="74"/>
-      <c r="E78" s="74"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
       <c r="F78" s="43"/>
-      <c r="G78" s="90" t="s">
+      <c r="G78" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="74"/>
+      <c r="H78" s="50"/>
       <c r="I78" s="43"/>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
       <c r="L78" s="43"/>
-      <c r="M78" s="74" t="s">
+      <c r="M78" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="N78" s="83"/>
-      <c r="O78" s="93"/>
-      <c r="P78" s="93"/>
-      <c r="Q78" s="93"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="74"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="74"/>
-      <c r="E79" s="74"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
       <c r="F79" s="43"/>
-      <c r="G79" s="79"/>
-      <c r="H79" s="90" t="s">
+      <c r="G79" s="55"/>
+      <c r="H79" s="66" t="s">
         <v>73</v>
       </c>
       <c r="I79" s="43"/>
       <c r="J79" s="43"/>
       <c r="K79" s="43"/>
       <c r="L79" s="43"/>
-      <c r="M79" s="79"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="93"/>
-      <c r="P79" s="93"/>
-      <c r="Q79" s="93"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="69"/>
+      <c r="P79" s="69"/>
+      <c r="Q79" s="69"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="74"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
       <c r="F80" s="43"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="90" t="s">
+      <c r="G80" s="55"/>
+      <c r="H80" s="66" t="s">
         <v>94</v>
       </c>
       <c r="I80" s="43"/>
       <c r="J80" s="43"/>
       <c r="K80" s="43"/>
       <c r="L80" s="43"/>
-      <c r="M80" s="79"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="93"/>
-      <c r="P80" s="93"/>
-      <c r="Q80" s="93"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="59"/>
+      <c r="O80" s="69"/>
+      <c r="P80" s="69"/>
+      <c r="Q80" s="69"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="74"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
       <c r="F81" s="43"/>
-      <c r="G81" s="79"/>
-      <c r="H81" s="90" t="s">
+      <c r="G81" s="55"/>
+      <c r="H81" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="I81" s="90" t="s">
+      <c r="I81" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="J81" s="94" t="s">
+      <c r="J81" s="70" t="s">
         <v>106</v>
       </c>
       <c r="K81" s="43"/>
       <c r="L81" s="43"/>
-      <c r="M81" s="79"/>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
-      <c r="P81" s="95"/>
-      <c r="Q81" s="93"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="59"/>
+      <c r="P81" s="71"/>
+      <c r="Q81" s="69"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="74"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
       <c r="F82" s="43"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="74"/>
-      <c r="I82" s="74"/>
-      <c r="J82" s="94" t="s">
-        <v>136</v>
+      <c r="G82" s="55"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="70" t="s">
+        <v>122</v>
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
-      <c r="M82" s="79"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="95"/>
-      <c r="Q82" s="96"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="59"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="72"/>
     </row>
     <row r="83" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="47"/>
+      <c r="C83" s="112"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="43"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="117" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" s="117"/>
+      <c r="L83" s="117"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
@@ -4364,17 +4276,17 @@
         <v>45</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="47"/>
+      <c r="C84" s="112"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="76"/>
+      <c r="F84" s="52"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
       <c r="J84" s="6"/>
       <c r="K84" s="43"/>
-      <c r="L84" s="94" t="s">
-        <v>39</v>
+      <c r="L84" s="70" t="s">
+        <v>73</v>
       </c>
       <c r="M84" s="9"/>
       <c r="N84" s="14"/>
@@ -4387,18 +4299,18 @@
         <v>50</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="47"/>
+      <c r="C85" s="112"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
       <c r="G85" s="43"/>
       <c r="H85" s="43"/>
       <c r="I85" s="43"/>
-      <c r="J85" s="94" t="s">
+      <c r="J85" s="70" t="s">
         <v>73</v>
       </c>
       <c r="K85" s="43"/>
-      <c r="L85" s="98"/>
+      <c r="L85" s="74"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
@@ -4410,16 +4322,16 @@
         <v>55</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="47"/>
+      <c r="C86" s="112"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
       <c r="H86" s="43"/>
-      <c r="I86" s="76"/>
+      <c r="I86" s="52"/>
       <c r="J86" s="43"/>
-      <c r="K86" s="94" t="s">
-        <v>39</v>
+      <c r="K86" s="70" t="s">
+        <v>73</v>
       </c>
       <c r="L86" s="43"/>
       <c r="M86" s="9"/>
@@ -4433,18 +4345,18 @@
         <v>56</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="47"/>
+      <c r="C87" s="112"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
       <c r="G87" s="43"/>
       <c r="H87" s="43"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="94" t="s">
+      <c r="I87" s="52"/>
+      <c r="J87" s="70" t="s">
         <v>106</v>
       </c>
       <c r="K87" s="43"/>
-      <c r="L87" s="98"/>
+      <c r="L87" s="74"/>
       <c r="M87" s="9"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
@@ -4456,14 +4368,14 @@
         <v>57</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="48"/>
+      <c r="C88" s="113"/>
       <c r="D88" s="9"/>
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
       <c r="G88" s="43"/>
       <c r="H88" s="43"/>
       <c r="I88" s="43"/>
-      <c r="J88" s="94" t="s">
+      <c r="J88" s="70" t="s">
         <v>73</v>
       </c>
       <c r="K88" s="43"/>
@@ -4479,35 +4391,35 @@
         <v>10</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="49" t="s">
-        <v>133</v>
+      <c r="C89" s="114" t="s">
+        <v>119</v>
       </c>
       <c r="D89" s="43"/>
-      <c r="E89" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F89" s="52"/>
-      <c r="G89" s="52"/>
-      <c r="H89" s="52"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="97"/>
+      <c r="E89" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="117"/>
+      <c r="I89" s="117"/>
+      <c r="J89" s="73"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="77"/>
-      <c r="O89" s="77"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="53"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="53"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A90" s="99" t="s">
+      <c r="A90" s="75" t="s">
         <v>40</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="50"/>
+      <c r="C90" s="115"/>
       <c r="D90" s="6"/>
       <c r="E90" s="42" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F90" s="43"/>
       <c r="G90" s="43"/>
@@ -4527,11 +4439,11 @@
         <v>28</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="50"/>
+      <c r="C91" s="115"/>
       <c r="D91" s="6"/>
       <c r="E91" s="43"/>
       <c r="F91" s="42" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G91" s="43"/>
       <c r="H91" s="43"/>
@@ -4550,11 +4462,11 @@
         <v>29</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="50"/>
+      <c r="C92" s="115"/>
       <c r="D92" s="6"/>
       <c r="E92" s="43"/>
       <c r="F92" s="42" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
@@ -4573,14 +4485,14 @@
         <v>37</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="50"/>
+      <c r="C93" s="115"/>
       <c r="D93" s="6"/>
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
       <c r="G93" s="43"/>
       <c r="H93" s="43"/>
-      <c r="I93" s="100" t="s">
-        <v>120</v>
+      <c r="I93" s="76" t="s">
+        <v>94</v>
       </c>
       <c r="J93" s="43"/>
       <c r="K93" s="9"/>
@@ -4596,11 +4508,11 @@
         <v>30</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="50"/>
+      <c r="C94" s="115"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="42" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G94" s="43"/>
       <c r="H94" s="43"/>
@@ -4619,13 +4531,13 @@
         <v>31</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="50"/>
+      <c r="C95" s="115"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="43"/>
       <c r="G95" s="43"/>
-      <c r="H95" s="100" t="s">
-        <v>116</v>
+      <c r="H95" s="76" t="s">
+        <v>106</v>
       </c>
       <c r="I95" s="43"/>
       <c r="J95" s="43"/>
@@ -4642,13 +4554,13 @@
         <v>32</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="50"/>
+      <c r="C96" s="115"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="43"/>
       <c r="G96" s="43"/>
       <c r="H96" s="42" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I96" s="43"/>
       <c r="J96" s="43"/>
@@ -4665,14 +4577,14 @@
         <v>33</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="50"/>
+      <c r="C97" s="115"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="42" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G97" s="43"/>
-      <c r="H97" s="101"/>
+      <c r="H97" s="43"/>
       <c r="I97" s="43"/>
       <c r="J97" s="43"/>
       <c r="K97" s="9"/>
@@ -4688,13 +4600,13 @@
         <v>17</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="50"/>
+      <c r="C98" s="115"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="43"/>
       <c r="G98" s="43"/>
       <c r="H98" s="42" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I98" s="43"/>
       <c r="J98" s="43"/>
@@ -4708,16 +4620,16 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="28" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="50"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="43"/>
       <c r="G99" s="9"/>
       <c r="H99" s="42" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I99" s="43"/>
       <c r="J99" s="43"/>
@@ -4730,18 +4642,18 @@
       <c r="Q99" s="14"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A100" s="102" t="s">
-        <v>129</v>
+      <c r="A100" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="50"/>
+      <c r="C100" s="115"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="43"/>
       <c r="G100" s="9"/>
-      <c r="H100" s="76"/>
+      <c r="H100" s="52"/>
       <c r="I100" s="42" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J100" s="43"/>
       <c r="K100" s="9"/>
@@ -4753,18 +4665,18 @@
       <c r="Q100" s="14"/>
     </row>
     <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="103" t="s">
-        <v>128</v>
+      <c r="A101" s="78" t="s">
+        <v>115</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="50"/>
+      <c r="C101" s="115"/>
       <c r="D101" s="43"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="74"/>
+      <c r="G101" s="50"/>
       <c r="H101" s="43"/>
       <c r="I101" s="42" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J101" s="43"/>
       <c r="K101" s="9"/>
@@ -4776,23 +4688,23 @@
       <c r="Q101" s="14"/>
     </row>
     <row r="102" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="71" t="s">
+      <c r="A102" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="74"/>
-      <c r="C102" s="50"/>
-      <c r="D102" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="104"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="115"/>
+      <c r="D102" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E102" s="120"/>
+      <c r="F102" s="120"/>
+      <c r="G102" s="120"/>
+      <c r="H102" s="120"/>
+      <c r="I102" s="120"/>
+      <c r="J102" s="79"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="50"/>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
@@ -4802,24 +4714,24 @@
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="105"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="106" t="s">
-        <v>121</v>
-      </c>
-      <c r="E103" s="107"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="108"/>
-      <c r="I103" s="108"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="76"/>
-      <c r="L103" s="76"/>
-      <c r="M103" s="105"/>
-      <c r="N103" s="109"/>
-      <c r="O103" s="109"/>
-      <c r="P103" s="109"/>
-      <c r="Q103" s="109"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="115"/>
+      <c r="D103" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E103" s="82"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="83"/>
+      <c r="H103" s="83"/>
+      <c r="I103" s="83"/>
+      <c r="J103" s="80"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="80"/>
+      <c r="N103" s="84"/>
+      <c r="O103" s="84"/>
+      <c r="P103" s="84"/>
+      <c r="Q103" s="84"/>
       <c r="S103" s="8" t="s">
         <v>46</v>
       </c>
@@ -4828,131 +4740,122 @@
       <c r="A104" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="105"/>
-      <c r="C104" s="50"/>
-      <c r="D104" s="108"/>
-      <c r="E104" s="108"/>
-      <c r="F104" s="105"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="115"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="80"/>
       <c r="G104" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="H104" s="108"/>
-      <c r="I104" s="108"/>
-      <c r="J104" s="105"/>
-      <c r="K104" s="76"/>
-      <c r="L104" s="76"/>
-      <c r="M104" s="105"/>
-      <c r="N104" s="109"/>
-      <c r="O104" s="109"/>
-      <c r="P104" s="109"/>
-      <c r="Q104" s="109"/>
+        <v>122</v>
+      </c>
+      <c r="H104" s="83"/>
+      <c r="I104" s="83"/>
+      <c r="J104" s="80"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="80"/>
+      <c r="N104" s="84"/>
+      <c r="O104" s="84"/>
+      <c r="P104" s="84"/>
+      <c r="Q104" s="84"/>
       <c r="S104" s="8"/>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="105"/>
-      <c r="C105" s="50"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="110"/>
-      <c r="H105" s="105"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="115"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="80"/>
       <c r="I105" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J105" s="105"/>
-      <c r="K105" s="76"/>
-      <c r="L105" s="76"/>
-      <c r="M105" s="105"/>
-      <c r="N105" s="109"/>
-      <c r="O105" s="109"/>
-      <c r="P105" s="109"/>
-      <c r="Q105" s="109"/>
+        <v>135</v>
+      </c>
+      <c r="J105" s="80"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="80"/>
+      <c r="N105" s="84"/>
+      <c r="O105" s="84"/>
+      <c r="P105" s="84"/>
+      <c r="Q105" s="84"/>
       <c r="S105" s="8"/>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B106" s="105"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="108"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="106" t="s">
-        <v>116</v>
-      </c>
-      <c r="H106" s="108"/>
-      <c r="I106" s="108"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="76"/>
-      <c r="L106" s="76"/>
-      <c r="M106" s="105"/>
-      <c r="N106" s="109"/>
-      <c r="O106" s="109"/>
-      <c r="P106" s="109"/>
-      <c r="Q106" s="109"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="115"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="80"/>
+      <c r="G106" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="H106" s="83"/>
+      <c r="I106" s="83"/>
+      <c r="J106" s="80"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="80"/>
+      <c r="N106" s="84"/>
+      <c r="O106" s="84"/>
+      <c r="P106" s="84"/>
+      <c r="Q106" s="84"/>
       <c r="S106" s="8"/>
     </row>
     <row r="107" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B107" s="105"/>
-      <c r="C107" s="50"/>
-      <c r="D107" s="108"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="H107" s="108"/>
-      <c r="I107" s="108"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="76"/>
-      <c r="L107" s="76"/>
-      <c r="M107" s="105"/>
-      <c r="N107" s="109"/>
-      <c r="O107" s="109"/>
-      <c r="P107" s="109"/>
-      <c r="Q107" s="109"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="115"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="118" t="s">
+        <v>94</v>
+      </c>
+      <c r="H107" s="83"/>
+      <c r="I107" s="83"/>
+      <c r="J107" s="80"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="80"/>
+      <c r="N107" s="84"/>
+      <c r="O107" s="84"/>
+      <c r="P107" s="84"/>
+      <c r="Q107" s="84"/>
       <c r="S107" s="8"/>
     </row>
     <row r="108" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B108" s="105"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="105"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
-      <c r="J108" s="105"/>
-      <c r="K108" s="76"/>
-      <c r="L108" s="76"/>
-      <c r="M108" s="105"/>
-      <c r="N108" s="109"/>
-      <c r="O108" s="109"/>
-      <c r="P108" s="109"/>
-      <c r="Q108" s="109"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="116"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="80"/>
+      <c r="G108" s="118"/>
+      <c r="H108" s="83"/>
+      <c r="I108" s="83"/>
+      <c r="J108" s="80"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="80"/>
+      <c r="N108" s="84"/>
+      <c r="O108" s="84"/>
+      <c r="P108" s="84"/>
+      <c r="Q108" s="84"/>
       <c r="S108" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="L63:L64"/>
     <mergeCell ref="C44:C65"/>
     <mergeCell ref="C66:C88"/>
@@ -4966,6 +4869,15 @@
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="I53:I54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1436,17 +1436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1459,15 +1448,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1484,6 +1464,32 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1786,21 +1792,60 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1828,12 +1873,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="17" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="19" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,43 +1885,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2175,8 +2181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2326,19 +2332,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="97"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2583,7 +2589,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="89"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -2608,8 +2614,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -2633,8 +2639,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -2658,8 +2664,8 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -2675,16 +2681,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -2700,17 +2706,17 @@
         <v>102</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="14"/>
@@ -2725,10 +2731,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2779,10 +2785,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2833,10 +2839,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="101" t="s">
+      <c r="I24" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="102"/>
+      <c r="J24" s="115"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3005,10 +3011,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="99" t="s">
+      <c r="J31" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="100"/>
+      <c r="K31" s="113"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3321,15 +3327,15 @@
         <v>51</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="96" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="120" t="s">
+      <c r="F44" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="120"/>
+      <c r="G44" s="105"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3346,7 +3352,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="112"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
       <c r="F45" s="49" t="s">
@@ -3369,7 +3375,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="112"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
       <c r="F46" s="49" t="s">
@@ -3392,7 +3398,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="112"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3415,15 +3421,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="112"/>
+      <c r="C48" s="97"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="120" t="s">
+      <c r="G48" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
@@ -3438,7 +3444,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="112"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3463,7 +3469,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="112"/>
+      <c r="C50" s="97"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3486,7 +3492,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="112"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3509,7 +3515,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="112"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3532,13 +3538,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="50"/>
-      <c r="C53" s="112"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="50"/>
-      <c r="I53" s="109" t="s">
+      <c r="I53" s="94" t="s">
         <v>106</v>
       </c>
       <c r="J53" s="50"/>
@@ -3555,13 +3561,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="50"/>
-      <c r="C54" s="112"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="43"/>
       <c r="H54" s="50"/>
-      <c r="I54" s="110"/>
+      <c r="I54" s="95"/>
       <c r="J54" s="50"/>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
@@ -3576,7 +3582,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="55"/>
-      <c r="C55" s="112"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="9"/>
@@ -3596,17 +3602,17 @@
       <c r="S55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="94" t="s">
+      <c r="T55" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="94"/>
+      <c r="U55" s="107"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="55"/>
-      <c r="C56" s="112"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="9"/>
@@ -3626,17 +3632,17 @@
       <c r="S56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T56" s="94" t="s">
+      <c r="T56" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="U56" s="94"/>
+      <c r="U56" s="107"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="112"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
       <c r="F57" s="9"/>
@@ -3656,27 +3662,27 @@
       <c r="S57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="94"/>
-      <c r="U57" s="94"/>
+      <c r="T57" s="107"/>
+      <c r="U57" s="107"/>
     </row>
     <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="112"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="121" t="s">
+      <c r="J58" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
       <c r="N58" s="56"/>
       <c r="O58" s="56"/>
       <c r="P58" s="56"/>
@@ -3687,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="112"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
@@ -3712,7 +3718,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="112"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
@@ -3735,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="112"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -3758,7 +3764,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="50"/>
-      <c r="C62" s="112"/>
+      <c r="C62" s="97"/>
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
@@ -3781,7 +3787,7 @@
         <v>109</v>
       </c>
       <c r="B63" s="50"/>
-      <c r="C63" s="112"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
@@ -3790,7 +3796,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="50"/>
       <c r="K63" s="50"/>
-      <c r="L63" s="109" t="s">
+      <c r="L63" s="94" t="s">
         <v>94</v>
       </c>
       <c r="M63" s="50"/>
@@ -3804,7 +3810,7 @@
         <v>108</v>
       </c>
       <c r="B64" s="50"/>
-      <c r="C64" s="112"/>
+      <c r="C64" s="97"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
@@ -3813,7 +3819,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
-      <c r="L64" s="110"/>
+      <c r="L64" s="95"/>
       <c r="M64" s="50"/>
       <c r="N64" s="59"/>
       <c r="O64" s="59"/>
@@ -3825,7 +3831,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="50"/>
-      <c r="C65" s="113"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
@@ -3848,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="111" t="s">
+      <c r="C66" s="96" t="s">
         <v>118</v>
       </c>
       <c r="D66" s="9"/>
@@ -3873,7 +3879,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="112"/>
+      <c r="C67" s="97"/>
       <c r="D67" s="9"/>
       <c r="E67" s="62" t="s">
         <v>73</v>
@@ -3896,7 +3902,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="112"/>
+      <c r="C68" s="97"/>
       <c r="D68" s="9"/>
       <c r="E68" s="62" t="s">
         <v>73</v>
@@ -3919,7 +3925,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="112"/>
+      <c r="C69" s="97"/>
       <c r="D69" s="9"/>
       <c r="E69" s="62" t="s">
         <v>73</v>
@@ -3942,7 +3948,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="112"/>
+      <c r="C70" s="97"/>
       <c r="D70" s="9"/>
       <c r="E70" s="62" t="s">
         <v>73</v>
@@ -3965,7 +3971,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="112"/>
+      <c r="C71" s="97"/>
       <c r="D71" s="43"/>
       <c r="E71" s="62" t="s">
         <v>73</v>
@@ -3988,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="50"/>
-      <c r="C72" s="112"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="63" t="s">
         <v>94</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="50"/>
-      <c r="C73" s="112"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="62" t="s">
         <v>73</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="50"/>
-      <c r="C74" s="112"/>
+      <c r="C74" s="97"/>
       <c r="D74" s="62" t="s">
         <v>73</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="112"/>
+      <c r="C75" s="97"/>
       <c r="D75" s="66" t="s">
         <v>73</v>
       </c>
@@ -4080,16 +4086,16 @@
         <v>21</v>
       </c>
       <c r="B76" s="50"/>
-      <c r="C76" s="112"/>
+      <c r="C76" s="97"/>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
-      <c r="F76" s="119" t="s">
+      <c r="F76" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="119"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104"/>
       <c r="K76" s="64"/>
       <c r="L76" s="64"/>
       <c r="M76" s="64"/>
@@ -4103,7 +4109,7 @@
         <v>40</v>
       </c>
       <c r="B77" s="50"/>
-      <c r="C77" s="112"/>
+      <c r="C77" s="97"/>
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
       <c r="F77" s="68" t="s">
@@ -4132,7 +4138,7 @@
         <v>41</v>
       </c>
       <c r="B78" s="50"/>
-      <c r="C78" s="112"/>
+      <c r="C78" s="97"/>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
       <c r="F78" s="43"/>
@@ -4157,7 +4163,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="50"/>
-      <c r="C79" s="112"/>
+      <c r="C79" s="97"/>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
       <c r="F79" s="43"/>
@@ -4180,7 +4186,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="112"/>
+      <c r="C80" s="97"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
       <c r="F80" s="43"/>
@@ -4203,7 +4209,7 @@
         <v>110</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="112"/>
+      <c r="C81" s="97"/>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="43"/>
@@ -4230,7 +4236,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="112"/>
+      <c r="C82" s="97"/>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
       <c r="F82" s="43"/>
@@ -4253,18 +4259,18 @@
         <v>38</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="112"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="43"/>
       <c r="G83" s="73"/>
       <c r="H83" s="73"/>
       <c r="I83" s="73"/>
-      <c r="J83" s="117" t="s">
+      <c r="J83" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="117"/>
-      <c r="L83" s="117"/>
+      <c r="K83" s="102"/>
+      <c r="L83" s="102"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
@@ -4276,7 +4282,7 @@
         <v>45</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="112"/>
+      <c r="C84" s="97"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
       <c r="F84" s="52"/>
@@ -4299,7 +4305,7 @@
         <v>50</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="112"/>
+      <c r="C85" s="97"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
@@ -4322,7 +4328,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="112"/>
+      <c r="C86" s="97"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
@@ -4345,7 +4351,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="112"/>
+      <c r="C87" s="97"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
@@ -4368,7 +4374,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="113"/>
+      <c r="C88" s="98"/>
       <c r="D88" s="9"/>
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
@@ -4391,17 +4397,17 @@
         <v>10</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="99" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="43"/>
-      <c r="E89" s="117" t="s">
+      <c r="E89" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
+      <c r="F89" s="102"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="102"/>
       <c r="J89" s="73"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -4416,7 +4422,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="115"/>
+      <c r="C90" s="100"/>
       <c r="D90" s="6"/>
       <c r="E90" s="42" t="s">
         <v>133</v>
@@ -4439,7 +4445,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="115"/>
+      <c r="C91" s="100"/>
       <c r="D91" s="6"/>
       <c r="E91" s="43"/>
       <c r="F91" s="42" t="s">
@@ -4462,7 +4468,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="115"/>
+      <c r="C92" s="100"/>
       <c r="D92" s="6"/>
       <c r="E92" s="43"/>
       <c r="F92" s="42" t="s">
@@ -4485,7 +4491,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="115"/>
+      <c r="C93" s="100"/>
       <c r="D93" s="6"/>
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
@@ -4508,7 +4514,7 @@
         <v>30</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="115"/>
+      <c r="C94" s="100"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="42" t="s">
@@ -4531,7 +4537,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="115"/>
+      <c r="C95" s="100"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="43"/>
@@ -4554,7 +4560,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="115"/>
+      <c r="C96" s="100"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="43"/>
@@ -4577,7 +4583,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="115"/>
+      <c r="C97" s="100"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="42" t="s">
@@ -4600,7 +4606,7 @@
         <v>17</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="115"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="43"/>
@@ -4623,7 +4629,7 @@
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="115"/>
+      <c r="C99" s="100"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="43"/>
@@ -4646,7 +4652,7 @@
         <v>116</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="115"/>
+      <c r="C100" s="100"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="43"/>
@@ -4669,7 +4675,7 @@
         <v>115</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="115"/>
+      <c r="C101" s="100"/>
       <c r="D101" s="43"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -4692,15 +4698,15 @@
         <v>18</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="120" t="s">
+      <c r="C102" s="100"/>
+      <c r="D102" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="120"/>
-      <c r="F102" s="120"/>
-      <c r="G102" s="120"/>
-      <c r="H102" s="120"/>
-      <c r="I102" s="120"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="105"/>
+      <c r="G102" s="105"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="105"/>
       <c r="J102" s="79"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
@@ -4715,7 +4721,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="80"/>
-      <c r="C103" s="115"/>
+      <c r="C103" s="100"/>
       <c r="D103" s="81" t="s">
         <v>88</v>
       </c>
@@ -4741,7 +4747,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="80"/>
-      <c r="C104" s="115"/>
+      <c r="C104" s="100"/>
       <c r="D104" s="83"/>
       <c r="E104" s="83"/>
       <c r="F104" s="80"/>
@@ -4765,7 +4771,7 @@
         <v>70</v>
       </c>
       <c r="B105" s="80"/>
-      <c r="C105" s="115"/>
+      <c r="C105" s="100"/>
       <c r="D105" s="83"/>
       <c r="E105" s="83"/>
       <c r="F105" s="83"/>
@@ -4789,7 +4795,7 @@
         <v>68</v>
       </c>
       <c r="B106" s="80"/>
-      <c r="C106" s="115"/>
+      <c r="C106" s="100"/>
       <c r="D106" s="83"/>
       <c r="E106" s="83"/>
       <c r="F106" s="80"/>
@@ -4813,11 +4819,11 @@
         <v>48</v>
       </c>
       <c r="B107" s="80"/>
-      <c r="C107" s="115"/>
+      <c r="C107" s="100"/>
       <c r="D107" s="83"/>
       <c r="E107" s="83"/>
       <c r="F107" s="80"/>
-      <c r="G107" s="118" t="s">
+      <c r="G107" s="103" t="s">
         <v>94</v>
       </c>
       <c r="H107" s="83"/>
@@ -4837,11 +4843,11 @@
         <v>49</v>
       </c>
       <c r="B108" s="80"/>
-      <c r="C108" s="116"/>
+      <c r="C108" s="101"/>
       <c r="D108" s="83"/>
       <c r="E108" s="83"/>
       <c r="F108" s="80"/>
-      <c r="G108" s="118"/>
+      <c r="G108" s="103"/>
       <c r="H108" s="83"/>
       <c r="I108" s="83"/>
       <c r="J108" s="80"/>
@@ -4856,6 +4862,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="L63:L64"/>
     <mergeCell ref="C44:C65"/>
     <mergeCell ref="C66:C88"/>
@@ -4869,15 +4884,6 @@
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="I53:I54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1110,7 +1110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,6 +1214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -1524,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1807,6 +1813,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1846,49 +1897,7 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2181,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2332,19 +2341,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="110"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="98"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2656,7 +2665,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="122" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="92"/>
@@ -2681,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="94" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="89"/>
@@ -2706,16 +2715,16 @@
         <v>102</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2731,10 +2740,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2785,10 +2794,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="111"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2839,10 +2848,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="114" t="s">
+      <c r="I24" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="115"/>
+      <c r="J24" s="103"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3011,10 +3020,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="112" t="s">
+      <c r="J31" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="113"/>
+      <c r="K31" s="101"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3327,15 +3336,15 @@
         <v>51</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="111" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="105" t="s">
+      <c r="F44" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="105"/>
+      <c r="G44" s="120"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3352,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="97"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
       <c r="F45" s="49" t="s">
@@ -3375,7 +3384,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="97"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
       <c r="F46" s="49" t="s">
@@ -3398,7 +3407,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="97"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3421,15 +3430,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="97"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="105" t="s">
+      <c r="G48" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
@@ -3444,7 +3453,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="97"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3469,7 +3478,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="97"/>
+      <c r="C50" s="112"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3492,7 +3501,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="97"/>
+      <c r="C51" s="112"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3515,7 +3524,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="97"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3538,13 +3547,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="50"/>
-      <c r="C53" s="97"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="50"/>
-      <c r="I53" s="94" t="s">
+      <c r="I53" s="109" t="s">
         <v>106</v>
       </c>
       <c r="J53" s="50"/>
@@ -3561,13 +3570,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="50"/>
-      <c r="C54" s="97"/>
+      <c r="C54" s="112"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="43"/>
       <c r="H54" s="50"/>
-      <c r="I54" s="95"/>
+      <c r="I54" s="110"/>
       <c r="J54" s="50"/>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
@@ -3582,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="55"/>
-      <c r="C55" s="97"/>
+      <c r="C55" s="112"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="9"/>
@@ -3602,17 +3611,17 @@
       <c r="S55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="107" t="s">
+      <c r="T55" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="107"/>
+      <c r="U55" s="95"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="55"/>
-      <c r="C56" s="97"/>
+      <c r="C56" s="112"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="9"/>
@@ -3632,17 +3641,17 @@
       <c r="S56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T56" s="107" t="s">
+      <c r="T56" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="U56" s="107"/>
+      <c r="U56" s="95"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="97"/>
+      <c r="C57" s="112"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
       <c r="F57" s="9"/>
@@ -3662,27 +3671,27 @@
       <c r="S57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="107"/>
-      <c r="U57" s="107"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="95"/>
     </row>
     <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="97"/>
+      <c r="C58" s="112"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="106" t="s">
+      <c r="J58" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="106"/>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
+      <c r="K58" s="121"/>
+      <c r="L58" s="121"/>
+      <c r="M58" s="121"/>
       <c r="N58" s="56"/>
       <c r="O58" s="56"/>
       <c r="P58" s="56"/>
@@ -3693,7 +3702,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="97"/>
+      <c r="C59" s="112"/>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
@@ -3718,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="97"/>
+      <c r="C60" s="112"/>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
@@ -3741,7 +3750,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="97"/>
+      <c r="C61" s="112"/>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -3764,7 +3773,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="50"/>
-      <c r="C62" s="97"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
@@ -3787,7 +3796,7 @@
         <v>109</v>
       </c>
       <c r="B63" s="50"/>
-      <c r="C63" s="97"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
@@ -3796,7 +3805,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="50"/>
       <c r="K63" s="50"/>
-      <c r="L63" s="94" t="s">
+      <c r="L63" s="109" t="s">
         <v>94</v>
       </c>
       <c r="M63" s="50"/>
@@ -3810,7 +3819,7 @@
         <v>108</v>
       </c>
       <c r="B64" s="50"/>
-      <c r="C64" s="97"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
@@ -3819,7 +3828,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
-      <c r="L64" s="95"/>
+      <c r="L64" s="110"/>
       <c r="M64" s="50"/>
       <c r="N64" s="59"/>
       <c r="O64" s="59"/>
@@ -3831,7 +3840,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="50"/>
-      <c r="C65" s="98"/>
+      <c r="C65" s="113"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
@@ -3854,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="111" t="s">
         <v>118</v>
       </c>
       <c r="D66" s="9"/>
@@ -3879,7 +3888,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="97"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="9"/>
       <c r="E67" s="62" t="s">
         <v>73</v>
@@ -3902,7 +3911,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="97"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="9"/>
       <c r="E68" s="62" t="s">
         <v>73</v>
@@ -3925,7 +3934,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="97"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="9"/>
       <c r="E69" s="62" t="s">
         <v>73</v>
@@ -3948,7 +3957,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="97"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="9"/>
       <c r="E70" s="62" t="s">
         <v>73</v>
@@ -3971,7 +3980,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="97"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="43"/>
       <c r="E71" s="62" t="s">
         <v>73</v>
@@ -3994,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="50"/>
-      <c r="C72" s="97"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="63" t="s">
         <v>94</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="50"/>
-      <c r="C73" s="97"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="62" t="s">
         <v>73</v>
       </c>
@@ -4040,7 +4049,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="50"/>
-      <c r="C74" s="97"/>
+      <c r="C74" s="112"/>
       <c r="D74" s="62" t="s">
         <v>73</v>
       </c>
@@ -4063,7 +4072,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="97"/>
+      <c r="C75" s="112"/>
       <c r="D75" s="66" t="s">
         <v>73</v>
       </c>
@@ -4086,16 +4095,16 @@
         <v>21</v>
       </c>
       <c r="B76" s="50"/>
-      <c r="C76" s="97"/>
+      <c r="C76" s="112"/>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
-      <c r="F76" s="104" t="s">
+      <c r="F76" s="119" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="104"/>
+      <c r="G76" s="119"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="119"/>
+      <c r="J76" s="119"/>
       <c r="K76" s="64"/>
       <c r="L76" s="64"/>
       <c r="M76" s="64"/>
@@ -4109,7 +4118,7 @@
         <v>40</v>
       </c>
       <c r="B77" s="50"/>
-      <c r="C77" s="97"/>
+      <c r="C77" s="112"/>
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
       <c r="F77" s="68" t="s">
@@ -4138,7 +4147,7 @@
         <v>41</v>
       </c>
       <c r="B78" s="50"/>
-      <c r="C78" s="97"/>
+      <c r="C78" s="112"/>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
       <c r="F78" s="43"/>
@@ -4163,7 +4172,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="50"/>
-      <c r="C79" s="97"/>
+      <c r="C79" s="112"/>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
       <c r="F79" s="43"/>
@@ -4186,7 +4195,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="97"/>
+      <c r="C80" s="112"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
       <c r="F80" s="43"/>
@@ -4209,7 +4218,7 @@
         <v>110</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="97"/>
+      <c r="C81" s="112"/>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="43"/>
@@ -4236,7 +4245,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="97"/>
+      <c r="C82" s="112"/>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
       <c r="F82" s="43"/>
@@ -4259,18 +4268,18 @@
         <v>38</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="97"/>
+      <c r="C83" s="112"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="43"/>
       <c r="G83" s="73"/>
       <c r="H83" s="73"/>
       <c r="I83" s="73"/>
-      <c r="J83" s="102" t="s">
+      <c r="J83" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="102"/>
-      <c r="L83" s="102"/>
+      <c r="K83" s="117"/>
+      <c r="L83" s="117"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
@@ -4282,7 +4291,7 @@
         <v>45</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="97"/>
+      <c r="C84" s="112"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
       <c r="F84" s="52"/>
@@ -4305,7 +4314,7 @@
         <v>50</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="97"/>
+      <c r="C85" s="112"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
@@ -4328,7 +4337,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="97"/>
+      <c r="C86" s="112"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
@@ -4351,7 +4360,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="97"/>
+      <c r="C87" s="112"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
@@ -4374,7 +4383,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="98"/>
+      <c r="C88" s="113"/>
       <c r="D88" s="9"/>
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
@@ -4397,17 +4406,17 @@
         <v>10</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="99" t="s">
+      <c r="C89" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="43"/>
-      <c r="E89" s="102" t="s">
+      <c r="E89" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="102"/>
-      <c r="G89" s="102"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="102"/>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="117"/>
+      <c r="I89" s="117"/>
       <c r="J89" s="73"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -4422,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="100"/>
+      <c r="C90" s="115"/>
       <c r="D90" s="6"/>
       <c r="E90" s="42" t="s">
         <v>133</v>
@@ -4445,7 +4454,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="100"/>
+      <c r="C91" s="115"/>
       <c r="D91" s="6"/>
       <c r="E91" s="43"/>
       <c r="F91" s="42" t="s">
@@ -4468,7 +4477,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="100"/>
+      <c r="C92" s="115"/>
       <c r="D92" s="6"/>
       <c r="E92" s="43"/>
       <c r="F92" s="42" t="s">
@@ -4491,7 +4500,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="100"/>
+      <c r="C93" s="115"/>
       <c r="D93" s="6"/>
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
@@ -4514,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="100"/>
+      <c r="C94" s="115"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="42" t="s">
@@ -4537,7 +4546,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="100"/>
+      <c r="C95" s="115"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="43"/>
@@ -4560,7 +4569,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="100"/>
+      <c r="C96" s="115"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="43"/>
@@ -4583,7 +4592,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="100"/>
+      <c r="C97" s="115"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="42" t="s">
@@ -4606,7 +4615,7 @@
         <v>17</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="100"/>
+      <c r="C98" s="115"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="43"/>
@@ -4629,7 +4638,7 @@
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="100"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="43"/>
@@ -4652,7 +4661,7 @@
         <v>116</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="100"/>
+      <c r="C100" s="115"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="43"/>
@@ -4675,7 +4684,7 @@
         <v>115</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="100"/>
+      <c r="C101" s="115"/>
       <c r="D101" s="43"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -4698,15 +4707,15 @@
         <v>18</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="105" t="s">
+      <c r="C102" s="115"/>
+      <c r="D102" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="105"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="105"/>
-      <c r="I102" s="105"/>
+      <c r="E102" s="120"/>
+      <c r="F102" s="120"/>
+      <c r="G102" s="120"/>
+      <c r="H102" s="120"/>
+      <c r="I102" s="120"/>
       <c r="J102" s="79"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
@@ -4721,7 +4730,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="80"/>
-      <c r="C103" s="100"/>
+      <c r="C103" s="115"/>
       <c r="D103" s="81" t="s">
         <v>88</v>
       </c>
@@ -4747,7 +4756,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="80"/>
-      <c r="C104" s="100"/>
+      <c r="C104" s="115"/>
       <c r="D104" s="83"/>
       <c r="E104" s="83"/>
       <c r="F104" s="80"/>
@@ -4771,7 +4780,7 @@
         <v>70</v>
       </c>
       <c r="B105" s="80"/>
-      <c r="C105" s="100"/>
+      <c r="C105" s="115"/>
       <c r="D105" s="83"/>
       <c r="E105" s="83"/>
       <c r="F105" s="83"/>
@@ -4795,7 +4804,7 @@
         <v>68</v>
       </c>
       <c r="B106" s="80"/>
-      <c r="C106" s="100"/>
+      <c r="C106" s="115"/>
       <c r="D106" s="83"/>
       <c r="E106" s="83"/>
       <c r="F106" s="80"/>
@@ -4819,11 +4828,11 @@
         <v>48</v>
       </c>
       <c r="B107" s="80"/>
-      <c r="C107" s="100"/>
+      <c r="C107" s="115"/>
       <c r="D107" s="83"/>
       <c r="E107" s="83"/>
       <c r="F107" s="80"/>
-      <c r="G107" s="103" t="s">
+      <c r="G107" s="118" t="s">
         <v>94</v>
       </c>
       <c r="H107" s="83"/>
@@ -4843,11 +4852,11 @@
         <v>49</v>
       </c>
       <c r="B108" s="80"/>
-      <c r="C108" s="101"/>
+      <c r="C108" s="116"/>
       <c r="D108" s="83"/>
       <c r="E108" s="83"/>
       <c r="F108" s="80"/>
-      <c r="G108" s="103"/>
+      <c r="G108" s="118"/>
       <c r="H108" s="83"/>
       <c r="I108" s="83"/>
       <c r="J108" s="80"/>
@@ -4862,15 +4871,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="L63:L64"/>
     <mergeCell ref="C44:C65"/>
     <mergeCell ref="C66:C88"/>
@@ -4884,6 +4884,15 @@
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="I53:I54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1813,7 +1813,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1852,52 +1891,13 @@
     <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2191,7 +2191,7 @@
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2341,19 +2341,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="98"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2665,7 +2665,7 @@
         <v>126</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="94" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="92"/>
@@ -2690,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="120" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="89"/>
@@ -2715,16 +2715,16 @@
         <v>102</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="104" t="s">
+      <c r="C19" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="119"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2740,10 +2740,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="108"/>
+      <c r="D20" s="122"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2794,10 +2794,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="99" t="s">
+      <c r="E22" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2848,10 +2848,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="102" t="s">
+      <c r="I24" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="103"/>
+      <c r="J24" s="116"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3020,10 +3020,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="100" t="s">
+      <c r="J31" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="101"/>
+      <c r="K31" s="114"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3336,15 +3336,15 @@
         <v>51</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="97" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="120" t="s">
+      <c r="F44" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="120"/>
+      <c r="G44" s="106"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3361,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="112"/>
+      <c r="C45" s="98"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
       <c r="F45" s="49" t="s">
@@ -3384,7 +3384,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="112"/>
+      <c r="C46" s="98"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
       <c r="F46" s="49" t="s">
@@ -3407,7 +3407,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="112"/>
+      <c r="C47" s="98"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3430,15 +3430,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="112"/>
+      <c r="C48" s="98"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="120" t="s">
+      <c r="G48" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
@@ -3453,7 +3453,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="112"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3478,7 +3478,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="112"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3501,7 +3501,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="112"/>
+      <c r="C51" s="98"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3524,7 +3524,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="112"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3547,13 +3547,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="50"/>
-      <c r="C53" s="112"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="50"/>
-      <c r="I53" s="109" t="s">
+      <c r="I53" s="95" t="s">
         <v>106</v>
       </c>
       <c r="J53" s="50"/>
@@ -3570,13 +3570,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="50"/>
-      <c r="C54" s="112"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="43"/>
       <c r="H54" s="50"/>
-      <c r="I54" s="110"/>
+      <c r="I54" s="96"/>
       <c r="J54" s="50"/>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
@@ -3591,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="55"/>
-      <c r="C55" s="112"/>
+      <c r="C55" s="98"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="9"/>
@@ -3611,17 +3611,17 @@
       <c r="S55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="95" t="s">
+      <c r="T55" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="95"/>
+      <c r="U55" s="108"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="55"/>
-      <c r="C56" s="112"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="9"/>
@@ -3641,17 +3641,17 @@
       <c r="S56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T56" s="95" t="s">
+      <c r="T56" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="U56" s="95"/>
+      <c r="U56" s="108"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="112"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
       <c r="F57" s="9"/>
@@ -3671,27 +3671,27 @@
       <c r="S57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="95"/>
-      <c r="U57" s="95"/>
+      <c r="T57" s="108"/>
+      <c r="U57" s="108"/>
     </row>
     <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="112"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="121" t="s">
+      <c r="J58" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="121"/>
+      <c r="K58" s="107"/>
+      <c r="L58" s="107"/>
+      <c r="M58" s="107"/>
       <c r="N58" s="56"/>
       <c r="O58" s="56"/>
       <c r="P58" s="56"/>
@@ -3702,7 +3702,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="112"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
@@ -3727,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="112"/>
+      <c r="C60" s="98"/>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
@@ -3750,7 +3750,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="112"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -3773,7 +3773,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="50"/>
-      <c r="C62" s="112"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
@@ -3796,7 +3796,7 @@
         <v>109</v>
       </c>
       <c r="B63" s="50"/>
-      <c r="C63" s="112"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
@@ -3805,7 +3805,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="50"/>
       <c r="K63" s="50"/>
-      <c r="L63" s="109" t="s">
+      <c r="L63" s="95" t="s">
         <v>94</v>
       </c>
       <c r="M63" s="50"/>
@@ -3819,7 +3819,7 @@
         <v>108</v>
       </c>
       <c r="B64" s="50"/>
-      <c r="C64" s="112"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
@@ -3828,7 +3828,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
-      <c r="L64" s="110"/>
+      <c r="L64" s="96"/>
       <c r="M64" s="50"/>
       <c r="N64" s="59"/>
       <c r="O64" s="59"/>
@@ -3840,7 +3840,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="50"/>
-      <c r="C65" s="113"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="111" t="s">
+      <c r="C66" s="97" t="s">
         <v>118</v>
       </c>
       <c r="D66" s="9"/>
@@ -3888,7 +3888,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="112"/>
+      <c r="C67" s="98"/>
       <c r="D67" s="9"/>
       <c r="E67" s="62" t="s">
         <v>73</v>
@@ -3911,7 +3911,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="112"/>
+      <c r="C68" s="98"/>
       <c r="D68" s="9"/>
       <c r="E68" s="62" t="s">
         <v>73</v>
@@ -3934,7 +3934,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="112"/>
+      <c r="C69" s="98"/>
       <c r="D69" s="9"/>
       <c r="E69" s="62" t="s">
         <v>73</v>
@@ -3957,7 +3957,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="112"/>
+      <c r="C70" s="98"/>
       <c r="D70" s="9"/>
       <c r="E70" s="62" t="s">
         <v>73</v>
@@ -3980,7 +3980,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="112"/>
+      <c r="C71" s="98"/>
       <c r="D71" s="43"/>
       <c r="E71" s="62" t="s">
         <v>73</v>
@@ -4003,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="50"/>
-      <c r="C72" s="112"/>
+      <c r="C72" s="98"/>
       <c r="D72" s="63" t="s">
         <v>94</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="50"/>
-      <c r="C73" s="112"/>
+      <c r="C73" s="98"/>
       <c r="D73" s="62" t="s">
         <v>73</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="50"/>
-      <c r="C74" s="112"/>
+      <c r="C74" s="98"/>
       <c r="D74" s="62" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="112"/>
+      <c r="C75" s="98"/>
       <c r="D75" s="66" t="s">
         <v>73</v>
       </c>
@@ -4095,16 +4095,16 @@
         <v>21</v>
       </c>
       <c r="B76" s="50"/>
-      <c r="C76" s="112"/>
+      <c r="C76" s="98"/>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
-      <c r="F76" s="119" t="s">
+      <c r="F76" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="119"/>
-      <c r="H76" s="119"/>
-      <c r="I76" s="119"/>
-      <c r="J76" s="119"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
       <c r="K76" s="64"/>
       <c r="L76" s="64"/>
       <c r="M76" s="64"/>
@@ -4118,7 +4118,7 @@
         <v>40</v>
       </c>
       <c r="B77" s="50"/>
-      <c r="C77" s="112"/>
+      <c r="C77" s="98"/>
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
       <c r="F77" s="68" t="s">
@@ -4147,7 +4147,7 @@
         <v>41</v>
       </c>
       <c r="B78" s="50"/>
-      <c r="C78" s="112"/>
+      <c r="C78" s="98"/>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
       <c r="F78" s="43"/>
@@ -4172,7 +4172,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="50"/>
-      <c r="C79" s="112"/>
+      <c r="C79" s="98"/>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
       <c r="F79" s="43"/>
@@ -4195,7 +4195,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="112"/>
+      <c r="C80" s="98"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
       <c r="F80" s="43"/>
@@ -4218,7 +4218,7 @@
         <v>110</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="112"/>
+      <c r="C81" s="98"/>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="43"/>
@@ -4245,7 +4245,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="112"/>
+      <c r="C82" s="98"/>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
       <c r="F82" s="43"/>
@@ -4268,18 +4268,18 @@
         <v>38</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="112"/>
+      <c r="C83" s="98"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="43"/>
       <c r="G83" s="73"/>
       <c r="H83" s="73"/>
       <c r="I83" s="73"/>
-      <c r="J83" s="117" t="s">
+      <c r="J83" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="117"/>
-      <c r="L83" s="117"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="103"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
@@ -4291,7 +4291,7 @@
         <v>45</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="112"/>
+      <c r="C84" s="98"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
       <c r="F84" s="52"/>
@@ -4314,7 +4314,7 @@
         <v>50</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="112"/>
+      <c r="C85" s="98"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
@@ -4337,7 +4337,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="112"/>
+      <c r="C86" s="98"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
@@ -4360,7 +4360,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="112"/>
+      <c r="C87" s="98"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
@@ -4383,7 +4383,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="113"/>
+      <c r="C88" s="99"/>
       <c r="D88" s="9"/>
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
@@ -4406,17 +4406,17 @@
         <v>10</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="100" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="43"/>
-      <c r="E89" s="117" t="s">
+      <c r="E89" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="117"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
-      <c r="I89" s="117"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="103"/>
+      <c r="H89" s="103"/>
+      <c r="I89" s="103"/>
       <c r="J89" s="73"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -4431,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="115"/>
+      <c r="C90" s="101"/>
       <c r="D90" s="6"/>
       <c r="E90" s="42" t="s">
         <v>133</v>
@@ -4454,7 +4454,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="115"/>
+      <c r="C91" s="101"/>
       <c r="D91" s="6"/>
       <c r="E91" s="43"/>
       <c r="F91" s="42" t="s">
@@ -4477,7 +4477,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="115"/>
+      <c r="C92" s="101"/>
       <c r="D92" s="6"/>
       <c r="E92" s="43"/>
       <c r="F92" s="42" t="s">
@@ -4500,7 +4500,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="115"/>
+      <c r="C93" s="101"/>
       <c r="D93" s="6"/>
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
@@ -4523,7 +4523,7 @@
         <v>30</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="115"/>
+      <c r="C94" s="101"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="42" t="s">
@@ -4546,7 +4546,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="115"/>
+      <c r="C95" s="101"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="43"/>
@@ -4569,7 +4569,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="115"/>
+      <c r="C96" s="101"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="43"/>
@@ -4592,7 +4592,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="115"/>
+      <c r="C97" s="101"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="42" t="s">
@@ -4615,7 +4615,7 @@
         <v>17</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="115"/>
+      <c r="C98" s="101"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="43"/>
@@ -4638,7 +4638,7 @@
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="115"/>
+      <c r="C99" s="101"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="43"/>
@@ -4661,7 +4661,7 @@
         <v>116</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="115"/>
+      <c r="C100" s="101"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="43"/>
@@ -4684,7 +4684,7 @@
         <v>115</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="115"/>
+      <c r="C101" s="101"/>
       <c r="D101" s="43"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -4707,15 +4707,15 @@
         <v>18</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="120" t="s">
+      <c r="C102" s="101"/>
+      <c r="D102" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="120"/>
-      <c r="F102" s="120"/>
-      <c r="G102" s="120"/>
-      <c r="H102" s="120"/>
-      <c r="I102" s="120"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="106"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
+      <c r="I102" s="106"/>
       <c r="J102" s="79"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
@@ -4730,7 +4730,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="80"/>
-      <c r="C103" s="115"/>
+      <c r="C103" s="101"/>
       <c r="D103" s="81" t="s">
         <v>88</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="80"/>
-      <c r="C104" s="115"/>
+      <c r="C104" s="101"/>
       <c r="D104" s="83"/>
       <c r="E104" s="83"/>
       <c r="F104" s="80"/>
@@ -4780,7 +4780,7 @@
         <v>70</v>
       </c>
       <c r="B105" s="80"/>
-      <c r="C105" s="115"/>
+      <c r="C105" s="101"/>
       <c r="D105" s="83"/>
       <c r="E105" s="83"/>
       <c r="F105" s="83"/>
@@ -4804,7 +4804,7 @@
         <v>68</v>
       </c>
       <c r="B106" s="80"/>
-      <c r="C106" s="115"/>
+      <c r="C106" s="101"/>
       <c r="D106" s="83"/>
       <c r="E106" s="83"/>
       <c r="F106" s="80"/>
@@ -4828,11 +4828,11 @@
         <v>48</v>
       </c>
       <c r="B107" s="80"/>
-      <c r="C107" s="115"/>
+      <c r="C107" s="101"/>
       <c r="D107" s="83"/>
       <c r="E107" s="83"/>
       <c r="F107" s="80"/>
-      <c r="G107" s="118" t="s">
+      <c r="G107" s="104" t="s">
         <v>94</v>
       </c>
       <c r="H107" s="83"/>
@@ -4852,11 +4852,11 @@
         <v>49</v>
       </c>
       <c r="B108" s="80"/>
-      <c r="C108" s="116"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="83"/>
       <c r="E108" s="83"/>
       <c r="F108" s="80"/>
-      <c r="G108" s="118"/>
+      <c r="G108" s="104"/>
       <c r="H108" s="83"/>
       <c r="I108" s="83"/>
       <c r="J108" s="80"/>
@@ -4871,6 +4871,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="L63:L64"/>
     <mergeCell ref="C44:C65"/>
     <mergeCell ref="C66:C88"/>
@@ -4884,15 +4893,6 @@
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="I53:I54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\GameProject\福山\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemon\Desktop\zeen\GameProject\福山\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -969,12 +969,26 @@
     <t>1時間</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,14 +1078,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1221,7 +1227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1500,6 +1506,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1514,23 +1531,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1621,13 +1638,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1648,7 +1665,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="15" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="14" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1663,7 +1680,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1684,16 +1701,13 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,9 +1731,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,7 +1764,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1784,9 +1795,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1813,7 +1821,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,30 +1878,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,49 +1890,52 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2188,23 +2226,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s" ph="1">
         <v>105</v>
       </c>
@@ -2257,7 +2295,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -2284,7 +2322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2336,24 +2374,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2363,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>75</v>
       </c>
@@ -2394,7 +2432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>79</v>
       </c>
@@ -2423,7 +2461,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>81</v>
       </c>
@@ -2454,7 +2492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>99</v>
       </c>
@@ -2485,7 +2523,7 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
     </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>100</v>
       </c>
@@ -2510,7 +2548,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
@@ -2535,7 +2573,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
@@ -2560,11 +2598,11 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="30" t="s">
         <v>73</v>
       </c>
@@ -2573,7 +2611,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="89"/>
+      <c r="I13" s="86"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2585,15 +2623,15 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2610,13 +2648,13 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="88" t="s">
+      <c r="C15" s="90"/>
+      <c r="D15" s="85" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="13"/>
@@ -2635,13 +2673,13 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="88"/>
+      <c r="D16" s="85" t="s">
         <v>130</v>
       </c>
       <c r="E16" s="13"/>
@@ -2660,15 +2698,15 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2685,15 +2723,15 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -2710,21 +2748,21 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="119"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2735,15 +2773,15 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="122"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2760,7 +2798,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
@@ -2787,17 +2825,17 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="112" t="s">
+      <c r="E22" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2812,7 +2850,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
@@ -2837,7 +2875,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
@@ -2848,10 +2886,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="115" t="s">
+      <c r="I24" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="116"/>
+      <c r="J24" s="102"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -2862,7 +2900,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2874,7 +2912,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="87"/>
+      <c r="L25" s="84"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -2883,7 +2921,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>103</v>
       </c>
@@ -2908,7 +2946,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -2933,7 +2971,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -2958,7 +2996,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -2983,7 +3021,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3046,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>95</v>
       </c>
@@ -3020,10 +3058,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="113" t="s">
+      <c r="J31" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="114"/>
+      <c r="K31" s="100"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3033,7 +3071,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>96</v>
       </c>
@@ -3058,7 +3096,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>97</v>
       </c>
@@ -3083,7 +3121,7 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
@@ -3108,7 +3146,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>98</v>
       </c>
@@ -3133,7 +3171,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3196,7 @@
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -3183,7 +3221,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -3202,7 +3240,7 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -3221,7 +3259,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -3240,7 +3278,7 @@
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -3259,7 +3297,7 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -3278,7 +3316,7 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s" ph="1">
         <v>58</v>
       </c>
@@ -3331,20 +3369,20 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="123" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="106" t="s">
+      <c r="F44" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="106"/>
+      <c r="G44" s="112"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3356,15 +3394,15 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="98"/>
+      <c r="C45" s="124"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="128" t="s">
         <v>106</v>
       </c>
       <c r="G45" s="43"/>
@@ -3379,12 +3417,12 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="98"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
       <c r="F46" s="49" t="s">
@@ -3402,21 +3440,21 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="98"/>
+      <c r="C47" s="124"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="51" t="s">
+      <c r="G47" s="122" t="s">
         <v>106</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="52"/>
+      <c r="J47" s="51"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -3425,35 +3463,35 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="98"/>
+      <c r="C48" s="124"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="106" t="s">
+      <c r="G48" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
       <c r="M48" s="50"/>
-      <c r="N48" s="53"/>
+      <c r="N48" s="52"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="98"/>
+      <c r="C49" s="124"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3468,17 +3506,17 @@
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
       <c r="M49" s="50"/>
-      <c r="N49" s="53"/>
+      <c r="N49" s="52"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="98"/>
+      <c r="C50" s="124"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3491,17 +3529,17 @@
       <c r="K50" s="50"/>
       <c r="L50" s="50"/>
       <c r="M50" s="50"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+    </row>
+    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="98"/>
+      <c r="C51" s="124"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3514,17 +3552,17 @@
       <c r="K51" s="50"/>
       <c r="L51" s="50"/>
       <c r="M51" s="50"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="98"/>
+      <c r="C52" s="124"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3537,61 +3575,61 @@
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
       <c r="M52" s="50"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+    </row>
+    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="50"/>
-      <c r="C53" s="98"/>
+      <c r="C53" s="124"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="50"/>
-      <c r="I53" s="95" t="s">
+      <c r="I53" s="108" t="s">
         <v>106</v>
       </c>
       <c r="J53" s="50"/>
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="50"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-    </row>
-    <row r="54" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="54" t="s">
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
+    </row>
+    <row r="54" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="50"/>
-      <c r="C54" s="98"/>
+      <c r="C54" s="124"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="43"/>
       <c r="H54" s="50"/>
-      <c r="I54" s="96"/>
+      <c r="I54" s="109"/>
       <c r="J54" s="50"/>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
       <c r="M54" s="50"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-    </row>
-    <row r="55" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+    </row>
+    <row r="55" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="98"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="9"/>
@@ -3611,17 +3649,17 @@
       <c r="S55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="108" t="s">
+      <c r="T55" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="108"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U55" s="94"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="9"/>
@@ -3641,17 +3679,17 @@
       <c r="S56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T56" s="108" t="s">
+      <c r="T56" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="U56" s="108"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U56" s="94"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="98"/>
+      <c r="C57" s="124"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
       <c r="F57" s="9"/>
@@ -3671,63 +3709,63 @@
       <c r="S57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="108"/>
-      <c r="U57" s="108"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T57" s="94"/>
+      <c r="U57" s="94"/>
+    </row>
+    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="98"/>
+      <c r="C58" s="124"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="107" t="s">
+      <c r="J58" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="107"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+    </row>
+    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="98"/>
+      <c r="C59" s="124"/>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
       <c r="G59" s="50"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="57" t="s">
+      <c r="J59" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="K59" s="57" t="s">
+      <c r="K59" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+    </row>
+    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="98"/>
+      <c r="C60" s="124"/>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
@@ -3740,17 +3778,17 @@
       </c>
       <c r="L60" s="50"/>
       <c r="M60" s="50"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
+      <c r="Q60" s="58"/>
+    </row>
+    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="98"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -3763,17 +3801,17 @@
       </c>
       <c r="L61" s="43"/>
       <c r="M61" s="50"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="58"/>
+      <c r="Q61" s="58"/>
+    </row>
+    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B62" s="50"/>
-      <c r="C62" s="98"/>
+      <c r="C62" s="124"/>
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
@@ -3786,17 +3824,17 @@
       </c>
       <c r="L62" s="43"/>
       <c r="M62" s="50"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>109</v>
       </c>
       <c r="B63" s="50"/>
-      <c r="C63" s="98"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
@@ -3805,21 +3843,21 @@
       <c r="I63" s="9"/>
       <c r="J63" s="50"/>
       <c r="K63" s="50"/>
-      <c r="L63" s="95" t="s">
+      <c r="L63" s="108" t="s">
         <v>94</v>
       </c>
       <c r="M63" s="50"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N63" s="58"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="58"/>
+      <c r="Q63" s="58"/>
+    </row>
+    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B64" s="50"/>
-      <c r="C64" s="98"/>
+      <c r="C64" s="124"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
@@ -3828,19 +3866,19 @@
       <c r="I64" s="9"/>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
-      <c r="L64" s="96"/>
+      <c r="L64" s="109"/>
       <c r="M64" s="50"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-    </row>
-    <row r="65" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N64" s="58"/>
+      <c r="O64" s="58"/>
+      <c r="P64" s="58"/>
+      <c r="Q64" s="58"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>113</v>
       </c>
       <c r="B65" s="50"/>
-      <c r="C65" s="99"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
@@ -3853,25 +3891,25 @@
       <c r="M65" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-    </row>
-    <row r="66" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+    </row>
+    <row r="66" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="97" t="s">
+      <c r="C66" s="123" t="s">
         <v>118</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="59" t="s">
         <v>120</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="61"/>
+      <c r="G66" s="60"/>
       <c r="H66" s="43"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
@@ -3883,14 +3921,14 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="98"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="62" t="s">
+      <c r="E67" s="128" t="s">
         <v>73</v>
       </c>
       <c r="F67" s="43"/>
@@ -3906,14 +3944,14 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="98"/>
+      <c r="C68" s="124"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="62" t="s">
+      <c r="E68" s="128" t="s">
         <v>73</v>
       </c>
       <c r="F68" s="43"/>
@@ -3929,14 +3967,14 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="98"/>
+      <c r="C69" s="124"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="62" t="s">
+      <c r="E69" s="128" t="s">
         <v>73</v>
       </c>
       <c r="F69" s="43"/>
@@ -3952,14 +3990,14 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="98"/>
+      <c r="C70" s="124"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="62" t="s">
+      <c r="E70" s="128" t="s">
         <v>73</v>
       </c>
       <c r="F70" s="43"/>
@@ -3975,14 +4013,14 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="98"/>
+      <c r="C71" s="124"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="62" t="s">
+      <c r="E71" s="128" t="s">
         <v>73</v>
       </c>
       <c r="F71" s="43"/>
@@ -3998,19 +4036,19 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="50"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="63" t="s">
+      <c r="C72" s="124"/>
+      <c r="D72" s="61" t="s">
         <v>94</v>
       </c>
       <c r="E72" s="50"/>
       <c r="F72" s="50"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="64"/>
+      <c r="H72" s="62"/>
       <c r="I72" s="50"/>
       <c r="J72" s="50"/>
       <c r="K72" s="48"/>
@@ -4021,19 +4059,19 @@
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="65" t="s">
+    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="63" t="s">
         <v>64</v>
       </c>
       <c r="B73" s="50"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="62" t="s">
+      <c r="C73" s="124"/>
+      <c r="D73" s="128" t="s">
         <v>73</v>
       </c>
       <c r="E73" s="50"/>
       <c r="F73" s="50"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="55"/>
+      <c r="H73" s="54"/>
       <c r="I73" s="50"/>
       <c r="J73" s="50"/>
       <c r="K73" s="50"/>
@@ -4044,13 +4082,13 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65" t="s">
+    <row r="74" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="63" t="s">
         <v>65</v>
       </c>
       <c r="B74" s="50"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="62" t="s">
+      <c r="C74" s="124"/>
+      <c r="D74" s="128" t="s">
         <v>73</v>
       </c>
       <c r="E74" s="50"/>
@@ -4067,13 +4105,13 @@
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="66" t="s">
+      <c r="C75" s="124"/>
+      <c r="D75" s="129" t="s">
         <v>73</v>
       </c>
       <c r="E75" s="43"/>
@@ -4090,68 +4128,68 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="50"/>
-      <c r="C76" s="98"/>
+      <c r="C76" s="124"/>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
-      <c r="F76" s="105" t="s">
+      <c r="F76" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="67"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G76" s="111"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="65"/>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>40</v>
       </c>
       <c r="B77" s="50"/>
-      <c r="C77" s="98"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
-      <c r="F77" s="68" t="s">
+      <c r="F77" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="66" t="s">
+      <c r="G77" s="64" t="s">
         <v>120</v>
       </c>
       <c r="H77" s="43"/>
       <c r="I77" s="50"/>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
-      <c r="L77" s="55" t="s">
+      <c r="L77" s="54" t="s">
         <v>66</v>
       </c>
       <c r="M77" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="N77" s="69"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="69"/>
-      <c r="Q77" s="69"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N77" s="67"/>
+      <c r="O77" s="58"/>
+      <c r="P77" s="67"/>
+      <c r="Q77" s="67"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B78" s="50"/>
-      <c r="C78" s="98"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
       <c r="F78" s="43"/>
-      <c r="G78" s="66" t="s">
+      <c r="G78" s="64" t="s">
         <v>73</v>
       </c>
       <c r="H78" s="50"/>
@@ -4162,145 +4200,145 @@
       <c r="M78" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="N78" s="59"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="69"/>
-      <c r="Q78" s="69"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N78" s="58"/>
+      <c r="O78" s="67"/>
+      <c r="P78" s="67"/>
+      <c r="Q78" s="67"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B79" s="50"/>
-      <c r="C79" s="98"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
       <c r="F79" s="43"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="66" t="s">
+      <c r="G79" s="54"/>
+      <c r="H79" s="64" t="s">
         <v>73</v>
       </c>
       <c r="I79" s="43"/>
       <c r="J79" s="43"/>
       <c r="K79" s="43"/>
       <c r="L79" s="43"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="69"/>
-      <c r="P79" s="69"/>
-      <c r="Q79" s="69"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M79" s="54"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="67"/>
+      <c r="P79" s="67"/>
+      <c r="Q79" s="67"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="98"/>
+      <c r="C80" s="124"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
       <c r="F80" s="43"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="66" t="s">
+      <c r="G80" s="54"/>
+      <c r="H80" s="64" t="s">
         <v>94</v>
       </c>
       <c r="I80" s="43"/>
       <c r="J80" s="43"/>
       <c r="K80" s="43"/>
       <c r="L80" s="43"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="69"/>
-      <c r="P80" s="69"/>
-      <c r="Q80" s="69"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M80" s="54"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="98"/>
+      <c r="C81" s="124"/>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="43"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="66" t="s">
+      <c r="G81" s="54"/>
+      <c r="H81" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="I81" s="66" t="s">
+      <c r="I81" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="J81" s="70" t="s">
+      <c r="J81" s="68" t="s">
         <v>106</v>
       </c>
       <c r="K81" s="43"/>
       <c r="L81" s="43"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="69"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M81" s="54"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="58"/>
+      <c r="P81" s="69"/>
+      <c r="Q81" s="67"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="98"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
       <c r="F82" s="43"/>
-      <c r="G82" s="55"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="50"/>
       <c r="I82" s="50"/>
-      <c r="J82" s="70" t="s">
+      <c r="J82" s="68" t="s">
         <v>122</v>
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="72"/>
-    </row>
-    <row r="83" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M82" s="54"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="69"/>
+      <c r="Q82" s="70"/>
+    </row>
+    <row r="83" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="98"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="43"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="103" t="s">
+      <c r="G83" s="71"/>
+      <c r="H83" s="71"/>
+      <c r="I83" s="71"/>
+      <c r="J83" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="110"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="98"/>
+      <c r="C84" s="124"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="52"/>
+      <c r="F84" s="51"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
       <c r="J84" s="6"/>
       <c r="K84" s="43"/>
-      <c r="L84" s="70" t="s">
+      <c r="L84" s="68" t="s">
         <v>73</v>
       </c>
       <c r="M84" s="9"/>
@@ -4309,43 +4347,43 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="98"/>
+      <c r="C85" s="124"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
       <c r="G85" s="43"/>
       <c r="H85" s="43"/>
       <c r="I85" s="43"/>
-      <c r="J85" s="70" t="s">
+      <c r="J85" s="68" t="s">
         <v>73</v>
       </c>
       <c r="K85" s="43"/>
-      <c r="L85" s="74"/>
+      <c r="L85" s="72"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="98"/>
+      <c r="C86" s="124"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
       <c r="H86" s="43"/>
-      <c r="I86" s="52"/>
+      <c r="I86" s="51"/>
       <c r="J86" s="43"/>
-      <c r="K86" s="70" t="s">
+      <c r="K86" s="68" t="s">
         <v>73</v>
       </c>
       <c r="L86" s="43"/>
@@ -4355,42 +4393,42 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="98"/>
+      <c r="C87" s="124"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
       <c r="G87" s="43"/>
       <c r="H87" s="43"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="70" t="s">
+      <c r="I87" s="51"/>
+      <c r="J87" s="68" t="s">
         <v>106</v>
       </c>
       <c r="K87" s="43"/>
-      <c r="L87" s="74"/>
+      <c r="L87" s="72"/>
       <c r="M87" s="9"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="99"/>
+      <c r="C88" s="125"/>
       <c r="D88" s="9"/>
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
       <c r="G88" s="43"/>
       <c r="H88" s="43"/>
       <c r="I88" s="43"/>
-      <c r="J88" s="70" t="s">
+      <c r="J88" s="68" t="s">
         <v>73</v>
       </c>
       <c r="K88" s="43"/>
@@ -4401,43 +4439,43 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="100" t="s">
+      <c r="C89" s="126" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="43"/>
-      <c r="E89" s="103" t="s">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="103"/>
-      <c r="I89" s="103"/>
-      <c r="J89" s="73"/>
+      <c r="H89" s="119"/>
+      <c r="I89" s="119"/>
+      <c r="J89" s="120"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="53"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A90" s="75" t="s">
+      <c r="N89" s="52"/>
+      <c r="O89" s="52"/>
+      <c r="P89" s="52"/>
+      <c r="Q89" s="52"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="73" t="s">
         <v>40</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="101"/>
+      <c r="C90" s="127"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="42" t="s">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
       <c r="H90" s="43"/>
       <c r="I90" s="43"/>
       <c r="J90" s="43"/>
@@ -4449,19 +4487,19 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="101"/>
+      <c r="C91" s="127"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="42" t="s">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
       <c r="K91" s="9"/>
@@ -4472,19 +4510,19 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="101"/>
+      <c r="C92" s="127"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="42" t="s">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
       <c r="I92" s="43"/>
       <c r="J92" s="43"/>
       <c r="K92" s="9"/>
@@ -4495,21 +4533,21 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="101"/>
+      <c r="C93" s="127"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
       <c r="G93" s="43"/>
       <c r="H93" s="43"/>
-      <c r="I93" s="76" t="s">
+      <c r="I93" s="43"/>
+      <c r="J93" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="J93" s="43"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -4518,19 +4556,19 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="101"/>
+      <c r="C94" s="127"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="42" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
       <c r="I94" s="43"/>
       <c r="J94" s="43"/>
       <c r="K94" s="9"/>
@@ -4541,20 +4579,20 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="101"/>
+      <c r="C95" s="127"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="76" t="s">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="I95" s="43"/>
       <c r="J95" s="43"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -4564,20 +4602,20 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="101"/>
+      <c r="C96" s="127"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="42" t="s">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I96" s="43"/>
       <c r="J96" s="43"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -4587,19 +4625,19 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="101"/>
+      <c r="C97" s="127"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="42" t="s">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
       <c r="I97" s="43"/>
       <c r="J97" s="43"/>
       <c r="K97" s="9"/>
@@ -4610,20 +4648,20 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="101"/>
+      <c r="C98" s="127"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="42" t="s">
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I98" s="43"/>
       <c r="J98" s="43"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -4633,20 +4671,20 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="101"/>
+      <c r="C99" s="127"/>
       <c r="D99" s="43"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="42" t="s">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I99" s="43"/>
       <c r="J99" s="43"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -4656,21 +4694,21 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A100" s="77" t="s">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="75" t="s">
         <v>116</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="101"/>
+      <c r="C100" s="127"/>
       <c r="D100" s="43"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="42" t="s">
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="J100" s="43"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
@@ -4679,21 +4717,21 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="78" t="s">
+    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="76" t="s">
         <v>115</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="101"/>
+      <c r="C101" s="127"/>
       <c r="D101" s="43"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="42" t="s">
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="J101" s="43"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
@@ -4702,21 +4740,21 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>18</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="106" t="s">
+      <c r="C102" s="127"/>
+      <c r="D102" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="106"/>
-      <c r="F102" s="106"/>
-      <c r="G102" s="106"/>
-      <c r="H102" s="106"/>
-      <c r="I102" s="106"/>
-      <c r="J102" s="79"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="117"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
+      <c r="I102" s="48"/>
+      <c r="J102" s="77"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
       <c r="M102" s="50"/>
@@ -4725,152 +4763,142 @@
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="80"/>
-      <c r="C103" s="101"/>
-      <c r="D103" s="81" t="s">
+      <c r="B103" s="78"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="E103" s="82"/>
+      <c r="E103" s="122" t="s">
+        <v>137</v>
+      </c>
       <c r="F103" s="80"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="83"/>
-      <c r="J103" s="80"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="80"/>
-      <c r="N103" s="84"/>
-      <c r="O103" s="84"/>
-      <c r="P103" s="84"/>
-      <c r="Q103" s="84"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="82"/>
+      <c r="O103" s="82"/>
+      <c r="P103" s="82"/>
+      <c r="Q103" s="82"/>
       <c r="S103" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="80"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="42" t="s">
+      <c r="B104" s="78"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="114"/>
+      <c r="F104" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="H104" s="83"/>
-      <c r="I104" s="83"/>
-      <c r="J104" s="80"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="52"/>
-      <c r="M104" s="80"/>
-      <c r="N104" s="84"/>
-      <c r="O104" s="84"/>
-      <c r="P104" s="84"/>
-      <c r="Q104" s="84"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="114"/>
+      <c r="I104" s="114"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="78"/>
+      <c r="N104" s="82"/>
+      <c r="O104" s="82"/>
+      <c r="P104" s="82"/>
+      <c r="Q104" s="82"/>
       <c r="S104" s="8"/>
     </row>
-    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="42" t="s">
+      <c r="B105" s="78"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="114"/>
+      <c r="F105" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="J105" s="80"/>
-      <c r="K105" s="52"/>
-      <c r="L105" s="52"/>
-      <c r="M105" s="80"/>
-      <c r="N105" s="84"/>
-      <c r="O105" s="84"/>
-      <c r="P105" s="84"/>
-      <c r="Q105" s="84"/>
+      <c r="H105" s="114"/>
+      <c r="I105" s="114"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="82"/>
+      <c r="O105" s="82"/>
+      <c r="P105" s="82"/>
+      <c r="Q105" s="82"/>
       <c r="S105" s="8"/>
     </row>
-    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="101"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="81" t="s">
+      <c r="B106" s="78"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="114"/>
+      <c r="F106" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="H106" s="83"/>
-      <c r="I106" s="83"/>
-      <c r="J106" s="80"/>
-      <c r="K106" s="52"/>
-      <c r="L106" s="52"/>
-      <c r="M106" s="80"/>
-      <c r="N106" s="84"/>
-      <c r="O106" s="84"/>
-      <c r="P106" s="84"/>
-      <c r="Q106" s="84"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="114"/>
+      <c r="I106" s="114"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="51"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="78"/>
+      <c r="N106" s="82"/>
+      <c r="O106" s="82"/>
+      <c r="P106" s="82"/>
+      <c r="Q106" s="82"/>
       <c r="S106" s="8"/>
     </row>
-    <row r="107" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="80"/>
-      <c r="C107" s="101"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="78"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="114"/>
+      <c r="F107" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="H107" s="83"/>
-      <c r="I107" s="83"/>
-      <c r="J107" s="80"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="80"/>
-      <c r="N107" s="84"/>
-      <c r="O107" s="84"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="84"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="114"/>
+      <c r="I107" s="114"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="82"/>
+      <c r="O107" s="82"/>
+      <c r="P107" s="82"/>
+      <c r="Q107" s="82"/>
       <c r="S107" s="8"/>
     </row>
-    <row r="108" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" s="80"/>
-      <c r="C108" s="102"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="104"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="83"/>
-      <c r="J108" s="80"/>
-      <c r="K108" s="52"/>
-      <c r="L108" s="52"/>
-      <c r="M108" s="80"/>
-      <c r="N108" s="84"/>
-      <c r="O108" s="84"/>
-      <c r="P108" s="84"/>
-      <c r="Q108" s="84"/>
-      <c r="S108" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="20">
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="C44:C65"/>
+    <mergeCell ref="C66:C88"/>
+    <mergeCell ref="C89:C107"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="I53:I54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
     <mergeCell ref="T57:U57"/>
@@ -4880,19 +4908,6 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="C44:C65"/>
-    <mergeCell ref="C66:C88"/>
-    <mergeCell ref="C89:C108"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="E89:I89"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="I53:I54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1530,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,6 +1816,51 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1855,49 +1900,10 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2191,7 +2197,7 @@
   <dimension ref="A1:U108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2341,19 +2347,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="110"/>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2565,7 +2571,7 @@
         <v>129</v>
       </c>
       <c r="B13" s="86"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="123" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="13"/>
@@ -2590,7 +2596,7 @@
         <v>101</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="124" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="90"/>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="93"/>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="124" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="13"/>
@@ -2690,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="95" t="s">
         <v>130</v>
       </c>
       <c r="D18" s="89"/>
@@ -2715,16 +2721,16 @@
         <v>102</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="119"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2740,10 +2746,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="122"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2794,10 +2800,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="112" t="s">
+      <c r="E22" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="112"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2848,10 +2854,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="115" t="s">
+      <c r="I24" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="116"/>
+      <c r="J24" s="104"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3020,10 +3026,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="113" t="s">
+      <c r="J31" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="114"/>
+      <c r="K31" s="102"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3336,15 +3342,15 @@
         <v>51</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="97" t="s">
+      <c r="C44" s="112" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="106" t="s">
+      <c r="F44" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="106"/>
+      <c r="G44" s="121"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3361,7 +3367,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="98"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
       <c r="F45" s="49" t="s">
@@ -3384,7 +3390,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="98"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
       <c r="F46" s="49" t="s">
@@ -3407,7 +3413,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="98"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3430,15 +3436,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="50"/>
-      <c r="C48" s="98"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="106" t="s">
+      <c r="G48" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
       <c r="J48" s="50"/>
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
@@ -3453,7 +3459,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="50"/>
-      <c r="C49" s="98"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3478,7 +3484,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="50"/>
-      <c r="C50" s="98"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3501,7 +3507,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="50"/>
-      <c r="C51" s="98"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3524,7 +3530,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="50"/>
-      <c r="C52" s="98"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3547,13 +3553,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="50"/>
-      <c r="C53" s="98"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="50"/>
-      <c r="I53" s="95" t="s">
+      <c r="I53" s="110" t="s">
         <v>106</v>
       </c>
       <c r="J53" s="50"/>
@@ -3570,13 +3576,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="50"/>
-      <c r="C54" s="98"/>
+      <c r="C54" s="113"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="43"/>
       <c r="H54" s="50"/>
-      <c r="I54" s="96"/>
+      <c r="I54" s="111"/>
       <c r="J54" s="50"/>
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
@@ -3591,7 +3597,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="55"/>
-      <c r="C55" s="98"/>
+      <c r="C55" s="113"/>
       <c r="D55" s="50"/>
       <c r="E55" s="50"/>
       <c r="F55" s="9"/>
@@ -3611,17 +3617,17 @@
       <c r="S55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="108" t="s">
+      <c r="T55" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="108"/>
+      <c r="U55" s="96"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="55"/>
-      <c r="C56" s="98"/>
+      <c r="C56" s="113"/>
       <c r="D56" s="50"/>
       <c r="E56" s="50"/>
       <c r="F56" s="9"/>
@@ -3641,17 +3647,17 @@
       <c r="S56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T56" s="108" t="s">
+      <c r="T56" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="U56" s="108"/>
+      <c r="U56" s="96"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B57" s="50"/>
-      <c r="C57" s="98"/>
+      <c r="C57" s="113"/>
       <c r="D57" s="50"/>
       <c r="E57" s="50"/>
       <c r="F57" s="9"/>
@@ -3671,27 +3677,27 @@
       <c r="S57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="108"/>
-      <c r="U57" s="108"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
     </row>
     <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="50"/>
-      <c r="C58" s="98"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="50"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="107" t="s">
+      <c r="J58" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="107"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+      <c r="M58" s="122"/>
       <c r="N58" s="56"/>
       <c r="O58" s="56"/>
       <c r="P58" s="56"/>
@@ -3702,7 +3708,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="50"/>
-      <c r="C59" s="98"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>
@@ -3727,7 +3733,7 @@
         <v>41</v>
       </c>
       <c r="B60" s="50"/>
-      <c r="C60" s="98"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
       <c r="F60" s="50"/>
@@ -3750,7 +3756,7 @@
         <v>27</v>
       </c>
       <c r="B61" s="50"/>
-      <c r="C61" s="98"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="50"/>
       <c r="E61" s="50"/>
       <c r="F61" s="50"/>
@@ -3773,7 +3779,7 @@
         <v>43</v>
       </c>
       <c r="B62" s="50"/>
-      <c r="C62" s="98"/>
+      <c r="C62" s="113"/>
       <c r="D62" s="50"/>
       <c r="E62" s="50"/>
       <c r="F62" s="50"/>
@@ -3796,7 +3802,7 @@
         <v>109</v>
       </c>
       <c r="B63" s="50"/>
-      <c r="C63" s="98"/>
+      <c r="C63" s="113"/>
       <c r="D63" s="50"/>
       <c r="E63" s="50"/>
       <c r="F63" s="50"/>
@@ -3805,7 +3811,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="50"/>
       <c r="K63" s="50"/>
-      <c r="L63" s="95" t="s">
+      <c r="L63" s="110" t="s">
         <v>94</v>
       </c>
       <c r="M63" s="50"/>
@@ -3819,7 +3825,7 @@
         <v>108</v>
       </c>
       <c r="B64" s="50"/>
-      <c r="C64" s="98"/>
+      <c r="C64" s="113"/>
       <c r="D64" s="50"/>
       <c r="E64" s="50"/>
       <c r="F64" s="50"/>
@@ -3828,7 +3834,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="50"/>
       <c r="K64" s="50"/>
-      <c r="L64" s="96"/>
+      <c r="L64" s="111"/>
       <c r="M64" s="50"/>
       <c r="N64" s="59"/>
       <c r="O64" s="59"/>
@@ -3840,7 +3846,7 @@
         <v>113</v>
       </c>
       <c r="B65" s="50"/>
-      <c r="C65" s="99"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="50"/>
       <c r="E65" s="50"/>
       <c r="F65" s="50"/>
@@ -3863,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="97" t="s">
+      <c r="C66" s="112" t="s">
         <v>118</v>
       </c>
       <c r="D66" s="9"/>
@@ -3888,7 +3894,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="98"/>
+      <c r="C67" s="113"/>
       <c r="D67" s="9"/>
       <c r="E67" s="62" t="s">
         <v>73</v>
@@ -3911,7 +3917,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="98"/>
+      <c r="C68" s="113"/>
       <c r="D68" s="9"/>
       <c r="E68" s="62" t="s">
         <v>73</v>
@@ -3934,7 +3940,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="98"/>
+      <c r="C69" s="113"/>
       <c r="D69" s="9"/>
       <c r="E69" s="62" t="s">
         <v>73</v>
@@ -3957,7 +3963,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="98"/>
+      <c r="C70" s="113"/>
       <c r="D70" s="9"/>
       <c r="E70" s="62" t="s">
         <v>73</v>
@@ -3980,7 +3986,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="98"/>
+      <c r="C71" s="113"/>
       <c r="D71" s="43"/>
       <c r="E71" s="62" t="s">
         <v>73</v>
@@ -4003,7 +4009,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="50"/>
-      <c r="C72" s="98"/>
+      <c r="C72" s="113"/>
       <c r="D72" s="63" t="s">
         <v>94</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="50"/>
-      <c r="C73" s="98"/>
+      <c r="C73" s="113"/>
       <c r="D73" s="62" t="s">
         <v>73</v>
       </c>
@@ -4049,7 +4055,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="50"/>
-      <c r="C74" s="98"/>
+      <c r="C74" s="113"/>
       <c r="D74" s="62" t="s">
         <v>73</v>
       </c>
@@ -4072,7 +4078,7 @@
         <v>112</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="98"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="66" t="s">
         <v>73</v>
       </c>
@@ -4095,16 +4101,16 @@
         <v>21</v>
       </c>
       <c r="B76" s="50"/>
-      <c r="C76" s="98"/>
+      <c r="C76" s="113"/>
       <c r="D76" s="50"/>
       <c r="E76" s="50"/>
-      <c r="F76" s="105" t="s">
+      <c r="F76" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
+      <c r="G76" s="120"/>
+      <c r="H76" s="120"/>
+      <c r="I76" s="120"/>
+      <c r="J76" s="120"/>
       <c r="K76" s="64"/>
       <c r="L76" s="64"/>
       <c r="M76" s="64"/>
@@ -4118,7 +4124,7 @@
         <v>40</v>
       </c>
       <c r="B77" s="50"/>
-      <c r="C77" s="98"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="50"/>
       <c r="E77" s="50"/>
       <c r="F77" s="68" t="s">
@@ -4147,7 +4153,7 @@
         <v>41</v>
       </c>
       <c r="B78" s="50"/>
-      <c r="C78" s="98"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="50"/>
       <c r="E78" s="50"/>
       <c r="F78" s="43"/>
@@ -4172,7 +4178,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="50"/>
-      <c r="C79" s="98"/>
+      <c r="C79" s="113"/>
       <c r="D79" s="50"/>
       <c r="E79" s="50"/>
       <c r="F79" s="43"/>
@@ -4195,7 +4201,7 @@
         <v>68</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="98"/>
+      <c r="C80" s="113"/>
       <c r="D80" s="50"/>
       <c r="E80" s="50"/>
       <c r="F80" s="43"/>
@@ -4218,7 +4224,7 @@
         <v>110</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="98"/>
+      <c r="C81" s="113"/>
       <c r="D81" s="50"/>
       <c r="E81" s="50"/>
       <c r="F81" s="43"/>
@@ -4245,7 +4251,7 @@
         <v>111</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="98"/>
+      <c r="C82" s="113"/>
       <c r="D82" s="50"/>
       <c r="E82" s="50"/>
       <c r="F82" s="43"/>
@@ -4268,18 +4274,18 @@
         <v>38</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="98"/>
+      <c r="C83" s="113"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="43"/>
       <c r="G83" s="73"/>
       <c r="H83" s="73"/>
       <c r="I83" s="73"/>
-      <c r="J83" s="103" t="s">
+      <c r="J83" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
+      <c r="K83" s="118"/>
+      <c r="L83" s="118"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
@@ -4291,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="98"/>
+      <c r="C84" s="113"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
       <c r="F84" s="52"/>
@@ -4314,7 +4320,7 @@
         <v>50</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="98"/>
+      <c r="C85" s="113"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
@@ -4337,7 +4343,7 @@
         <v>55</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="98"/>
+      <c r="C86" s="113"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
@@ -4360,7 +4366,7 @@
         <v>56</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="98"/>
+      <c r="C87" s="113"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
@@ -4383,7 +4389,7 @@
         <v>57</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="99"/>
+      <c r="C88" s="114"/>
       <c r="D88" s="9"/>
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
@@ -4406,17 +4412,17 @@
         <v>10</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="100" t="s">
+      <c r="C89" s="115" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="43"/>
-      <c r="E89" s="103" t="s">
+      <c r="E89" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="103"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="103"/>
-      <c r="I89" s="103"/>
+      <c r="F89" s="118"/>
+      <c r="G89" s="118"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
       <c r="J89" s="73"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
@@ -4431,7 +4437,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="101"/>
+      <c r="C90" s="116"/>
       <c r="D90" s="6"/>
       <c r="E90" s="42" t="s">
         <v>133</v>
@@ -4454,7 +4460,7 @@
         <v>28</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="101"/>
+      <c r="C91" s="116"/>
       <c r="D91" s="6"/>
       <c r="E91" s="43"/>
       <c r="F91" s="42" t="s">
@@ -4477,7 +4483,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="101"/>
+      <c r="C92" s="116"/>
       <c r="D92" s="6"/>
       <c r="E92" s="43"/>
       <c r="F92" s="42" t="s">
@@ -4500,7 +4506,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="101"/>
+      <c r="C93" s="116"/>
       <c r="D93" s="6"/>
       <c r="E93" s="43"/>
       <c r="F93" s="43"/>
@@ -4523,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="101"/>
+      <c r="C94" s="116"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="42" t="s">
@@ -4546,7 +4552,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="101"/>
+      <c r="C95" s="116"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="43"/>
@@ -4569,7 +4575,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="101"/>
+      <c r="C96" s="116"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="43"/>
@@ -4592,7 +4598,7 @@
         <v>33</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="101"/>
+      <c r="C97" s="116"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="42" t="s">
@@ -4615,7 +4621,7 @@
         <v>17</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="101"/>
+      <c r="C98" s="116"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="43"/>
@@ -4638,7 +4644,7 @@
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="101"/>
+      <c r="C99" s="116"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="43"/>
@@ -4661,7 +4667,7 @@
         <v>116</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="101"/>
+      <c r="C100" s="116"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="43"/>
@@ -4684,7 +4690,7 @@
         <v>115</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="101"/>
+      <c r="C101" s="116"/>
       <c r="D101" s="43"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -4707,15 +4713,15 @@
         <v>18</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="101"/>
-      <c r="D102" s="106" t="s">
+      <c r="C102" s="116"/>
+      <c r="D102" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="E102" s="106"/>
-      <c r="F102" s="106"/>
-      <c r="G102" s="106"/>
-      <c r="H102" s="106"/>
-      <c r="I102" s="106"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="121"/>
+      <c r="I102" s="121"/>
       <c r="J102" s="79"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
@@ -4730,7 +4736,7 @@
         <v>69</v>
       </c>
       <c r="B103" s="80"/>
-      <c r="C103" s="101"/>
+      <c r="C103" s="116"/>
       <c r="D103" s="81" t="s">
         <v>88</v>
       </c>
@@ -4756,7 +4762,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="80"/>
-      <c r="C104" s="101"/>
+      <c r="C104" s="116"/>
       <c r="D104" s="83"/>
       <c r="E104" s="83"/>
       <c r="F104" s="80"/>
@@ -4780,7 +4786,7 @@
         <v>70</v>
       </c>
       <c r="B105" s="80"/>
-      <c r="C105" s="101"/>
+      <c r="C105" s="116"/>
       <c r="D105" s="83"/>
       <c r="E105" s="83"/>
       <c r="F105" s="83"/>
@@ -4804,7 +4810,7 @@
         <v>68</v>
       </c>
       <c r="B106" s="80"/>
-      <c r="C106" s="101"/>
+      <c r="C106" s="116"/>
       <c r="D106" s="83"/>
       <c r="E106" s="83"/>
       <c r="F106" s="80"/>
@@ -4828,11 +4834,11 @@
         <v>48</v>
       </c>
       <c r="B107" s="80"/>
-      <c r="C107" s="101"/>
+      <c r="C107" s="116"/>
       <c r="D107" s="83"/>
       <c r="E107" s="83"/>
       <c r="F107" s="80"/>
-      <c r="G107" s="104" t="s">
+      <c r="G107" s="119" t="s">
         <v>94</v>
       </c>
       <c r="H107" s="83"/>
@@ -4852,11 +4858,11 @@
         <v>49</v>
       </c>
       <c r="B108" s="80"/>
-      <c r="C108" s="102"/>
+      <c r="C108" s="117"/>
       <c r="D108" s="83"/>
       <c r="E108" s="83"/>
       <c r="F108" s="80"/>
-      <c r="G108" s="104"/>
+      <c r="G108" s="119"/>
       <c r="H108" s="83"/>
       <c r="I108" s="83"/>
       <c r="J108" s="80"/>
@@ -4871,15 +4877,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="L63:L64"/>
     <mergeCell ref="C44:C65"/>
     <mergeCell ref="C66:C88"/>
@@ -4893,6 +4890,15 @@
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="I53:I54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\GameProject\福山\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemon\Desktop\zeen\GameProject\福山\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -969,12 +969,43 @@
     <t>1時間</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>23時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了した項目</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,14 +1104,6 @@
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1110,7 +1133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,8 +1243,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1500,6 +1529,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1514,23 +1554,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1621,13 +1661,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1648,7 +1688,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="15" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="14" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1663,7 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1678,22 +1718,16 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1717,9 +1751,6 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1753,7 +1784,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1777,16 +1808,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1813,22 +1838,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1837,7 +1889,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1846,13 +1898,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,50 +1913,62 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1929,6 +1993,269 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>408070</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>61111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>455950</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>81734</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="インク 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="18294660" y="16382880"/>
+            <a:ext cx="47880" cy="510480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="インク 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18291420" y="16379640"/>
+              <a:ext cx="54000" cy="516600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>244796</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>108811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>408416</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>156434</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="インク 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2462760" y="16430580"/>
+            <a:ext cx="163620" cy="537480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="インク 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2458618" y="16426263"/>
+              <a:ext cx="171905" cy="546114"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-03-13T06:53:11.415"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.0175" units="cm"/>
+      <inkml:brushProperty name="height" value="0.0175" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{A0C70539-5BC4-403A-B9C2-99DE61883815}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="50814,46924 50874,45504 51006,45510 50947,46929" semanticType="callout" shapeName="Other"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">50952 45509 9472,'0'19'0,"0"37"64,0-36 32,0 17 32,0 1 64,0-1-96,0 1 0,0 19-32,0 0-64,0-19 96,0 0-64,0 18-32,0 1-64,0-20 32,0 21 160,0-2 64,0-18 64,0 18 64,0-18-96,0 0-64,0 0-64,0-19-96,0 0 32,0-1 32,0 2-32,0-2-32,0 2 32,0-2 32,0-18-32,0 19-32,0 0-64,0 0 32,0 0 32,0-19 0,0 19 0,0 0 64,0-1-32,0-18-32,0 20 32,0-2-32,0 2-96,0-20 64,0 18 32,0 1 0,0-19 0,0 19 64,0-19-96,0 19-64,0-19 128,0 19 32,0-19 0,0 18 32,0-18-128,0 20 0,0-20 32,-94 0 0,94 0 0,0 18 64,0-18-32,0 0-32,0 20-64,0-20 32,0 0 96,0 18 32,0-18-192,-19 0-288,19 0-32,0 0-768,0 0-320,0-18-928,-19-2-672,19-18 1376</inkml:trace>
+  </inkml:traceGroup>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2017-03-13T06:53:16.104"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{C1D0017C-8E51-42E3-AC25-AF198FF674CF}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="6841,45640 7314,45640 7314,47132 6841,47132"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{275B5BE3-8018-480C-A79D-15748DC3DF30}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="6841,45640 7314,45640 7314,47132 6841,47132" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{43332FB8-7226-4B24-A3ED-D88912A68A75}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="6841,45640 7314,45640 7314,47132 6841,47132"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{D7618096-B46C-4BF3-BDD9-E2FBC7F919FB}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="6916,45640 7314,45640 7314,45769 6916,45769"/>
+              </emma:interpretation>
+              <emma:one-of disjunction-type="recognition" id="oneOf0">
+                <emma:interpretation id="interp0" emma:lang="ja-JP" emma:confidence="0">
+                  <emma:literal>&lt;</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp1" emma:lang="ja-JP" emma:confidence="0">
+                  <emma:literal>ー</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp2" emma:lang="ja-JP" emma:confidence="0">
+                  <emma:literal>一</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp3" emma:lang="ja-JP" emma:confidence="0">
+                  <emma:literal>」</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp4" emma:lang="ja-JP" emma:confidence="0">
+                  <emma:literal>-</emma:literal>
+                </emma:interpretation>
+              </emma:one-of>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">6994 45754 8576,'-76'0'3232,"76"0"-1728,19 0-1760</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1610">7316 45641 2304,'-38'0'864,"76"0"-448,-38 0-704,0 0 128,0 38-736,0-38-288</inkml:trace>
+        </inkml:traceGroup>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{D54B0DEB-BED1-498B-920E-9E600BB2409E}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="6841,46305 7068,46305 7068,47132 6841,47132"/>
+              </emma:interpretation>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">7070 46321 1536,'-38'0'608,"38"0"-320,0 0-128,0 0 192,0 0 0,0 0 32,0 0 224,0 0 64</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266">7032 46340 5664,'0'19'288,"0"18"-128,0-17-128,0 18-32,-19-20 0,19 1 64,0 19-32,-19-19-32,19 19 224,-19-20 96,19 20 32,-18 0 32,-1 0-64,19 0 32,-19 0-192,19 0-32,-19-1 64,19-18-384,0 19-96,-19-20 320,19 20 192,0-18-64,-19-2-96,19-18-32,0 19-32,0 0-96,0-19 0,0 0-160,0 19-64,0-19 64,0 0 96,0 0-64,0 19 64,0-19 96,0 0 32,0 0-64,0 18 64,-19-18-192,19 0 0,0 20-2368</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2194,23 +2521,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U108"/>
+  <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s" ph="1">
         <v>105</v>
       </c>
@@ -2263,7 +2590,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2317,7 +2644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2342,24 +2669,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="99"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2369,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>75</v>
       </c>
@@ -2400,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>79</v>
       </c>
@@ -2429,7 +2756,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>81</v>
       </c>
@@ -2460,7 +2787,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>99</v>
       </c>
@@ -2489,9 +2816,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>100</v>
       </c>
@@ -2516,7 +2845,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
@@ -2541,7 +2870,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
@@ -2566,12 +2895,12 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="123" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="92" t="s">
         <v>73</v>
       </c>
       <c r="D13" s="13"/>
@@ -2579,7 +2908,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="89"/>
+      <c r="I13" s="84"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2591,15 +2920,15 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="124" t="s">
+      <c r="C14" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2616,13 +2945,13 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="124" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="93" t="s">
         <v>130</v>
       </c>
       <c r="E15" s="13"/>
@@ -2641,13 +2970,13 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="83" t="s">
         <v>130</v>
       </c>
       <c r="E16" s="13"/>
@@ -2666,15 +2995,15 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2691,15 +3020,15 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -2716,21 +3045,21 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="107"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="111"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -2741,15 +3070,15 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="108" t="s">
+      <c r="C20" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="109"/>
+      <c r="D20" s="113"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -2766,7 +3095,7 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
@@ -2793,17 +3122,17 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="100"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -2818,7 +3147,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +3172,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
@@ -2854,10 +3183,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="103" t="s">
+      <c r="I24" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="104"/>
+      <c r="J24" s="108"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -2868,7 +3197,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2880,7 +3209,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="87"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -2889,7 +3218,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>103</v>
       </c>
@@ -2914,7 +3243,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -2939,7 +3268,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -2964,7 +3293,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -2989,7 +3318,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -3014,7 +3343,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>95</v>
       </c>
@@ -3026,10 +3355,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="101" t="s">
+      <c r="J31" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="102"/>
+      <c r="K31" s="106"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3039,7 +3368,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>96</v>
       </c>
@@ -3064,7 +3393,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>97</v>
       </c>
@@ -3089,7 +3418,7 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
@@ -3114,7 +3443,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>98</v>
       </c>
@@ -3139,7 +3468,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -3164,7 +3493,7 @@
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -3189,7 +3518,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -3208,7 +3537,7 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -3227,7 +3556,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -3246,7 +3575,7 @@
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -3265,7 +3594,7 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -3284,7 +3613,7 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s" ph="1">
         <v>58</v>
       </c>
@@ -3337,20 +3666,20 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="112" t="s">
+      <c r="C44" s="129" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="121" t="s">
+      <c r="F44" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="121"/>
+      <c r="G44" s="98"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3362,21 +3691,21 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="113"/>
+      <c r="C45" s="130"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="114" t="s">
         <v>106</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
-      <c r="J45" s="50"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -3385,15 +3714,15 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="113"/>
+      <c r="C46" s="130"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="114" t="s">
         <v>123</v>
       </c>
       <c r="G46" s="43"/>
@@ -3408,21 +3737,21 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="113"/>
+      <c r="C47" s="130"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="51" t="s">
+      <c r="G47" s="125" t="s">
         <v>106</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
-      <c r="J47" s="52"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -3431,35 +3760,35 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="113"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="130"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="121" t="s">
+      <c r="G48" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="50"/>
-      <c r="N48" s="53"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="51"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="113"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="130"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3469,22 +3798,22 @@
       <c r="H49" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="53"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="51"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="113"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="130"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3492,124 +3821,124 @@
       <c r="H50" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+    </row>
+    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="113"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="130"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="43"/>
-      <c r="H51" s="50"/>
+      <c r="H51" s="49"/>
       <c r="I51" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="113"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="130"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="43"/>
-      <c r="H52" s="50"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+    </row>
+    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="50"/>
-      <c r="C53" s="113"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="130"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="110" t="s">
+      <c r="H53" s="49"/>
+      <c r="I53" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="J53" s="50"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-    </row>
-    <row r="54" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="54" t="s">
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+    </row>
+    <row r="54" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="50"/>
-      <c r="C54" s="113"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="130"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="43"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-    </row>
-    <row r="55" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="H54" s="49"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+    </row>
+    <row r="55" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="130"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
       <c r="I55" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="J55" s="50"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="50"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
@@ -3617,29 +3946,29 @@
       <c r="S55" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T55" s="96" t="s">
+      <c r="T55" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="U55" s="96"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U55" s="100"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="50"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3647,29 +3976,29 @@
       <c r="S56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T56" s="96" t="s">
+      <c r="T56" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="U56" s="96"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U56" s="100"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
       <c r="I57" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
@@ -3677,207 +4006,207 @@
       <c r="S57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T57" s="96"/>
-      <c r="U57" s="96"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T57" s="100"/>
+      <c r="U57" s="100"/>
+    </row>
+    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="50"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="130"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="122" t="s">
+      <c r="J58" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="122"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K58" s="99"/>
+      <c r="L58" s="99"/>
+      <c r="M58" s="99"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+    </row>
+    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="57" t="s">
+      <c r="J59" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="K59" s="57" t="s">
+      <c r="K59" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+    </row>
+    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="50"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+    </row>
+    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="50"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="40" t="s">
         <v>73</v>
       </c>
       <c r="L61" s="43"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M61" s="49"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+    </row>
+    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="50"/>
+      <c r="J62" s="49"/>
       <c r="K62" s="40" t="s">
         <v>94</v>
       </c>
       <c r="L62" s="43"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M62" s="49"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="110" t="s">
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="M63" s="50"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M63" s="49"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+    </row>
+    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-      <c r="L64" s="111"/>
-      <c r="M64" s="50"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-    </row>
-    <row r="65" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="95"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="114"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
       <c r="L65" s="43"/>
       <c r="M65" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-    </row>
-    <row r="66" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+    </row>
+    <row r="66" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="112" t="s">
+      <c r="C66" s="129" t="s">
         <v>118</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="58" t="s">
         <v>120</v>
       </c>
       <c r="F66" s="9"/>
-      <c r="G66" s="61"/>
+      <c r="G66" s="59"/>
       <c r="H66" s="43"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
@@ -3889,14 +4218,14 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="113"/>
+      <c r="C67" s="130"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="62" t="s">
+      <c r="E67" s="114" t="s">
         <v>73</v>
       </c>
       <c r="F67" s="43"/>
@@ -3912,14 +4241,14 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="113"/>
+      <c r="C68" s="130"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="62" t="s">
+      <c r="E68" s="114" t="s">
         <v>73</v>
       </c>
       <c r="F68" s="43"/>
@@ -3935,14 +4264,14 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="113"/>
+      <c r="C69" s="130"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="62" t="s">
+      <c r="E69" s="114" t="s">
         <v>73</v>
       </c>
       <c r="F69" s="43"/>
@@ -3958,14 +4287,14 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="113"/>
+      <c r="C70" s="130"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="62" t="s">
+      <c r="E70" s="114" t="s">
         <v>73</v>
       </c>
       <c r="F70" s="43"/>
@@ -3981,14 +4310,14 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="9"/>
-      <c r="C71" s="113"/>
+      <c r="C71" s="130"/>
       <c r="D71" s="43"/>
-      <c r="E71" s="62" t="s">
+      <c r="E71" s="114" t="s">
         <v>73</v>
       </c>
       <c r="F71" s="43"/>
@@ -4004,82 +4333,82 @@
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A72" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="63" t="s">
+      <c r="B72" s="49"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="50"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
       <c r="K72" s="48"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="65" t="s">
+    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="62" t="s">
+      <c r="B73" s="49"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="50"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
+      <c r="K73" s="49"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="65" t="s">
+    <row r="74" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="62" t="s">
+      <c r="B74" s="49"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
       <c r="K74" s="9"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="66" t="s">
+      <c r="C75" s="130"/>
+      <c r="D75" s="115" t="s">
         <v>73</v>
       </c>
       <c r="E75" s="43"/>
@@ -4096,217 +4425,217 @@
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="120" t="s">
+      <c r="B76" s="49"/>
+      <c r="C76" s="130"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="G76" s="120"/>
-      <c r="H76" s="120"/>
-      <c r="I76" s="120"/>
-      <c r="J76" s="120"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="67"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="61"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
+      <c r="N76" s="64"/>
+      <c r="O76" s="64"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="68" t="s">
+      <c r="B77" s="49"/>
+      <c r="C77" s="130"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="66" t="s">
+      <c r="G77" s="63" t="s">
         <v>120</v>
       </c>
       <c r="H77" s="43"/>
-      <c r="I77" s="50"/>
+      <c r="I77" s="49"/>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
-      <c r="L77" s="55" t="s">
+      <c r="L77" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="M77" s="50" t="s">
+      <c r="M77" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="N77" s="69"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="69"/>
-      <c r="Q77" s="69"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N77" s="66"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="66"/>
+      <c r="Q77" s="66"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="50"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="43"/>
-      <c r="G78" s="66" t="s">
+      <c r="G78" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="50"/>
+      <c r="H78" s="49"/>
       <c r="I78" s="43"/>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
       <c r="L78" s="43"/>
-      <c r="M78" s="50" t="s">
+      <c r="M78" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N78" s="59"/>
-      <c r="O78" s="69"/>
-      <c r="P78" s="69"/>
-      <c r="Q78" s="69"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N78" s="57"/>
+      <c r="O78" s="66"/>
+      <c r="P78" s="66"/>
+      <c r="Q78" s="66"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="43"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="66" t="s">
+      <c r="G79" s="53"/>
+      <c r="H79" s="63" t="s">
         <v>73</v>
       </c>
       <c r="I79" s="43"/>
       <c r="J79" s="43"/>
       <c r="K79" s="43"/>
       <c r="L79" s="43"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="69"/>
-      <c r="P79" s="69"/>
-      <c r="Q79" s="69"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M79" s="53"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="66"/>
+      <c r="P79" s="66"/>
+      <c r="Q79" s="66"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="130"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="43"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="66" t="s">
+      <c r="G80" s="53"/>
+      <c r="H80" s="63" t="s">
         <v>94</v>
       </c>
       <c r="I80" s="43"/>
       <c r="J80" s="43"/>
       <c r="K80" s="43"/>
       <c r="L80" s="43"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="69"/>
-      <c r="P80" s="69"/>
-      <c r="Q80" s="69"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M80" s="53"/>
+      <c r="N80" s="57"/>
+      <c r="O80" s="66"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="66"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="43"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="66" t="s">
+      <c r="G81" s="53"/>
+      <c r="H81" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="I81" s="66" t="s">
+      <c r="I81" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="J81" s="70" t="s">
+      <c r="J81" s="67" t="s">
         <v>106</v>
       </c>
       <c r="K81" s="43"/>
       <c r="L81" s="43"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="59"/>
-      <c r="P81" s="71"/>
-      <c r="Q81" s="69"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="M81" s="53"/>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57"/>
+      <c r="P81" s="68"/>
+      <c r="Q81" s="66"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="130"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
       <c r="F82" s="43"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="70" t="s">
+      <c r="G82" s="53"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="67" t="s">
         <v>122</v>
       </c>
       <c r="K82" s="43"/>
       <c r="L82" s="43"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="59"/>
-      <c r="P82" s="71"/>
-      <c r="Q82" s="72"/>
-    </row>
-    <row r="83" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M82" s="53"/>
+      <c r="N82" s="57"/>
+      <c r="O82" s="57"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="69"/>
+    </row>
+    <row r="83" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="113"/>
+      <c r="C83" s="130"/>
       <c r="D83" s="9"/>
       <c r="E83" s="6"/>
       <c r="F83" s="43"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="118" t="s">
+      <c r="G83" s="70"/>
+      <c r="H83" s="70"/>
+      <c r="I83" s="70"/>
+      <c r="J83" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="K83" s="118"/>
-      <c r="L83" s="118"/>
+      <c r="K83" s="96"/>
+      <c r="L83" s="96"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="113"/>
+      <c r="C84" s="130"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="52"/>
+      <c r="F84" s="50"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
       <c r="J84" s="6"/>
       <c r="K84" s="43"/>
-      <c r="L84" s="70" t="s">
+      <c r="L84" s="67" t="s">
         <v>73</v>
       </c>
       <c r="M84" s="9"/>
@@ -4315,43 +4644,43 @@
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="113"/>
+      <c r="C85" s="130"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
       <c r="G85" s="43"/>
       <c r="H85" s="43"/>
       <c r="I85" s="43"/>
-      <c r="J85" s="70" t="s">
+      <c r="J85" s="126" t="s">
         <v>73</v>
       </c>
       <c r="K85" s="43"/>
-      <c r="L85" s="74"/>
+      <c r="L85" s="71"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="113"/>
+      <c r="C86" s="130"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
       <c r="H86" s="43"/>
-      <c r="I86" s="52"/>
+      <c r="I86" s="50"/>
       <c r="J86" s="43"/>
-      <c r="K86" s="70" t="s">
+      <c r="K86" s="125" t="s">
         <v>73</v>
       </c>
       <c r="L86" s="43"/>
@@ -4361,42 +4690,42 @@
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="113"/>
+      <c r="C87" s="130"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
       <c r="G87" s="43"/>
       <c r="H87" s="43"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="70" t="s">
+      <c r="I87" s="50"/>
+      <c r="J87" s="125" t="s">
         <v>106</v>
       </c>
       <c r="K87" s="43"/>
-      <c r="L87" s="74"/>
+      <c r="L87" s="71"/>
       <c r="M87" s="9"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B88" s="9"/>
-      <c r="C88" s="114"/>
+      <c r="C88" s="131"/>
       <c r="D88" s="9"/>
       <c r="E88" s="43"/>
       <c r="F88" s="43"/>
       <c r="G88" s="43"/>
       <c r="H88" s="43"/>
       <c r="I88" s="43"/>
-      <c r="J88" s="70" t="s">
+      <c r="J88" s="125" t="s">
         <v>73</v>
       </c>
       <c r="K88" s="43"/>
@@ -4407,43 +4736,42 @@
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="115" t="s">
+      <c r="C89" s="127" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="43"/>
-      <c r="E89" s="118" t="s">
+      <c r="F89" s="1"/>
+      <c r="G89" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="F89" s="118"/>
-      <c r="G89" s="118"/>
       <c r="H89" s="118"/>
       <c r="I89" s="118"/>
-      <c r="J89" s="73"/>
+      <c r="J89" s="119"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="53"/>
-      <c r="O89" s="53"/>
-      <c r="P89" s="53"/>
-      <c r="Q89" s="53"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A90" s="75" t="s">
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="72" t="s">
         <v>40</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="116"/>
+      <c r="C90" s="128"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="42" t="s">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
       <c r="H90" s="43"/>
       <c r="I90" s="43"/>
       <c r="J90" s="43"/>
@@ -4455,19 +4783,19 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="116"/>
+      <c r="C91" s="128"/>
       <c r="D91" s="6"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="42" t="s">
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
       <c r="K91" s="9"/>
@@ -4478,19 +4806,19 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="116"/>
+      <c r="C92" s="128"/>
       <c r="D92" s="6"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="42" t="s">
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
       <c r="I92" s="43"/>
       <c r="J92" s="43"/>
       <c r="K92" s="9"/>
@@ -4501,21 +4829,21 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="116"/>
+      <c r="C93" s="128"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
       <c r="G93" s="43"/>
       <c r="H93" s="43"/>
-      <c r="I93" s="76" t="s">
+      <c r="I93" s="43"/>
+      <c r="J93" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="J93" s="43"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -4524,19 +4852,19 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="116"/>
+      <c r="C94" s="128"/>
       <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="42" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
       <c r="I94" s="43"/>
       <c r="J94" s="43"/>
       <c r="K94" s="9"/>
@@ -4547,20 +4875,20 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="116"/>
+      <c r="C95" s="128"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="76" t="s">
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="I95" s="43"/>
       <c r="J95" s="43"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
@@ -4570,20 +4898,20 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="116"/>
+      <c r="C96" s="128"/>
       <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="42" t="s">
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I96" s="43"/>
       <c r="J96" s="43"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -4593,19 +4921,19 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="116"/>
+      <c r="C97" s="128"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="42" t="s">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
       <c r="I97" s="43"/>
       <c r="J97" s="43"/>
       <c r="K97" s="9"/>
@@ -4616,20 +4944,20 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="116"/>
+      <c r="C98" s="128"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="43"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="1"/>
       <c r="G98" s="43"/>
-      <c r="H98" s="42" t="s">
+      <c r="H98" s="43"/>
+      <c r="I98" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I98" s="43"/>
       <c r="J98" s="43"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
@@ -4639,20 +4967,20 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="116"/>
+      <c r="C99" s="128"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="42" t="s">
+      <c r="F99" s="1"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I99" s="43"/>
       <c r="J99" s="43"/>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
@@ -4662,21 +4990,21 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A100" s="77" t="s">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="74" t="s">
         <v>116</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="116"/>
+      <c r="C100" s="128"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="52"/>
-      <c r="I100" s="42" t="s">
+      <c r="F100" s="1"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="J100" s="43"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
@@ -4685,21 +5013,21 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="78" t="s">
+    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="75" t="s">
         <v>115</v>
       </c>
       <c r="B101" s="43"/>
-      <c r="C101" s="116"/>
+      <c r="C101" s="128"/>
       <c r="D101" s="43"/>
       <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="42" t="s">
+      <c r="F101" s="1"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="49"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="J101" s="43"/>
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
@@ -4708,188 +5036,150 @@
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="50"/>
-      <c r="C102" s="116"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="128"/>
       <c r="D102" s="121" t="s">
-        <v>124</v>
-      </c>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
-      <c r="G102" s="121"/>
-      <c r="H102" s="121"/>
-      <c r="I102" s="121"/>
-      <c r="J102" s="79"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="50"/>
+        <v>138</v>
+      </c>
+      <c r="E102" s="122"/>
+      <c r="F102" s="123"/>
+      <c r="J102" s="76"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
       <c r="P102" s="14"/>
       <c r="Q102" s="14"/>
     </row>
-    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="80"/>
-      <c r="C103" s="116"/>
-      <c r="D103" s="81" t="s">
+      <c r="B103" s="77"/>
+      <c r="C103" s="128"/>
+      <c r="D103" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="E103" s="82"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="83"/>
-      <c r="J103" s="80"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="80"/>
-      <c r="N103" s="84"/>
-      <c r="O103" s="84"/>
-      <c r="P103" s="84"/>
-      <c r="Q103" s="84"/>
+      <c r="E103" s="124" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="79"/>
+      <c r="H103" s="79"/>
+      <c r="I103" s="79"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="80"/>
+      <c r="O103" s="80"/>
+      <c r="P103" s="80"/>
+      <c r="Q103" s="80"/>
       <c r="S103" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="80"/>
-      <c r="C104" s="116"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="42" t="s">
+      <c r="B104" s="77"/>
+      <c r="C104" s="128"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="H104" s="83"/>
-      <c r="I104" s="83"/>
-      <c r="J104" s="80"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="52"/>
-      <c r="M104" s="80"/>
-      <c r="N104" s="84"/>
-      <c r="O104" s="84"/>
-      <c r="P104" s="84"/>
-      <c r="Q104" s="84"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="79"/>
+      <c r="I104" s="79"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="80"/>
+      <c r="O104" s="80"/>
+      <c r="P104" s="80"/>
+      <c r="Q104" s="80"/>
       <c r="S104" s="8"/>
     </row>
-    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="80"/>
-      <c r="C105" s="116"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="80"/>
-      <c r="I105" s="42" t="s">
+      <c r="B105" s="77"/>
+      <c r="C105" s="128"/>
+      <c r="D105" s="79"/>
+      <c r="E105" s="79"/>
+      <c r="F105" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="J105" s="80"/>
-      <c r="K105" s="52"/>
-      <c r="L105" s="52"/>
-      <c r="M105" s="80"/>
-      <c r="N105" s="84"/>
-      <c r="O105" s="84"/>
-      <c r="P105" s="84"/>
-      <c r="Q105" s="84"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="80"/>
+      <c r="Q105" s="80"/>
       <c r="S105" s="8"/>
     </row>
-    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B106" s="80"/>
-      <c r="C106" s="116"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="80"/>
-      <c r="G106" s="81" t="s">
+      <c r="B106" s="77"/>
+      <c r="C106" s="128"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="H106" s="83"/>
-      <c r="I106" s="83"/>
-      <c r="J106" s="80"/>
-      <c r="K106" s="52"/>
-      <c r="L106" s="52"/>
-      <c r="M106" s="80"/>
-      <c r="N106" s="84"/>
-      <c r="O106" s="84"/>
-      <c r="P106" s="84"/>
-      <c r="Q106" s="84"/>
+      <c r="G106" s="120"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="79"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="80"/>
+      <c r="Q106" s="80"/>
       <c r="S106" s="8"/>
     </row>
-    <row r="107" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="80"/>
-      <c r="C107" s="116"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="119" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="77"/>
+      <c r="C107" s="128"/>
+      <c r="D107" s="79"/>
+      <c r="E107" s="79"/>
+      <c r="F107" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="H107" s="83"/>
-      <c r="I107" s="83"/>
-      <c r="J107" s="80"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="52"/>
-      <c r="M107" s="80"/>
-      <c r="N107" s="84"/>
-      <c r="O107" s="84"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="84"/>
+      <c r="G107" s="120"/>
+      <c r="H107" s="79"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="80"/>
+      <c r="O107" s="80"/>
+      <c r="P107" s="80"/>
+      <c r="Q107" s="80"/>
       <c r="S107" s="8"/>
     </row>
-    <row r="108" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" s="80"/>
-      <c r="C108" s="117"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="80"/>
-      <c r="G108" s="119"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="83"/>
-      <c r="J108" s="80"/>
-      <c r="K108" s="52"/>
-      <c r="L108" s="52"/>
-      <c r="M108" s="80"/>
-      <c r="N108" s="84"/>
-      <c r="O108" s="84"/>
-      <c r="P108" s="84"/>
-      <c r="Q108" s="84"/>
-      <c r="S108" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="C44:C65"/>
-    <mergeCell ref="C66:C88"/>
-    <mergeCell ref="C89:C108"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="E89:I89"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="I53:I54"/>
+  <mergeCells count="21">
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
     <mergeCell ref="T57:U57"/>
@@ -4899,9 +5189,22 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="C44:C65"/>
+    <mergeCell ref="C66:C88"/>
+    <mergeCell ref="C89:C107"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="F76:J76"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="D102:F102"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -344,26 +344,6 @@
     <t>六時間</t>
     <rPh sb="0" eb="3">
       <t>ロクジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>攻撃右</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>攻撃左</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1005,7 +985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1102,14 +1082,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -1133,7 +1105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,12 +1215,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1554,16 +1520,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1661,13 +1627,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1688,7 +1654,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="14" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="13" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1727,9 +1693,6 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1784,7 +1747,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,9 +1766,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,16 +1798,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1856,63 +1813,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1920,55 +1820,121 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2001,17 +1967,17 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>408070</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>61111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>455950</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>81734</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="インク 2">
@@ -2030,7 +1996,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="インク 2">
@@ -2066,17 +2032,17 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>244796</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>108811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>408416</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>156434</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="インク 4">
@@ -2095,7 +2061,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="インク 4">
@@ -2521,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2539,7 +2505,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s" ph="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10">
         <v>42803</v>
@@ -2596,7 +2562,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="9"/>
@@ -2623,7 +2589,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2650,7 +2616,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -2675,7 +2641,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="101" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="102"/>
       <c r="E5" s="102"/>
@@ -2698,18 +2664,18 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2729,7 +2695,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2737,13 +2703,13 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2758,7 +2724,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2770,13 +2736,13 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -2784,12 +2750,12 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="15"/>
       <c r="S8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2798,16 +2764,16 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2816,13 +2782,13 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="132" t="s">
-        <v>139</v>
+      <c r="S9" s="99" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2831,7 +2797,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="21"/>
       <c r="H10" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="9"/>
@@ -2856,7 +2822,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2881,7 +2847,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2897,18 +2863,18 @@
     </row>
     <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="92" t="s">
-        <v>73</v>
+        <v>127</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="89" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="82"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2922,13 +2888,13 @@
     </row>
     <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="85"/>
+      <c r="C14" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="83"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2947,12 +2913,12 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="90" t="s">
         <v>128</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="93" t="s">
-        <v>130</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
@@ -2972,12 +2938,12 @@
     </row>
     <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="83" t="s">
-        <v>130</v>
+      <c r="C16" s="84"/>
+      <c r="D16" s="81" t="s">
+        <v>128</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
@@ -2997,13 +2963,13 @@
     </row>
     <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="87"/>
+      <c r="C17" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="85"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3025,10 +2991,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="84"/>
+      <c r="C18" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="82"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -3047,11 +3013,11 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="109" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
@@ -3076,7 +3042,7 @@
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="112" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" s="113"/>
       <c r="E20" s="17"/>
@@ -3102,10 +3068,10 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3130,7 +3096,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="104" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" s="104"/>
       <c r="G22" s="9"/>
@@ -3157,7 +3123,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="35"/>
       <c r="G23" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="9"/>
@@ -3184,7 +3150,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
       <c r="I24" s="107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J24" s="108"/>
       <c r="K24" s="9"/>
@@ -3209,7 +3175,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="82"/>
+      <c r="L25" s="80"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3220,7 +3186,7 @@
     </row>
     <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3233,7 +3199,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="21"/>
       <c r="L26" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
@@ -3258,7 +3224,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="14"/>
@@ -3283,7 +3249,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="14"/>
@@ -3308,7 +3274,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="14"/>
@@ -3333,7 +3299,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="14"/>
@@ -3345,7 +3311,7 @@
     </row>
     <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3356,7 +3322,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
       <c r="J31" s="105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K31" s="106"/>
       <c r="L31" s="13"/>
@@ -3370,7 +3336,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3381,7 +3347,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="9"/>
@@ -3395,7 +3361,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3407,7 +3373,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -3431,7 +3397,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="19"/>
@@ -3445,7 +3411,7 @@
     </row>
     <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3458,7 +3424,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="21"/>
       <c r="L35" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
@@ -3483,7 +3449,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="14"/>
@@ -3508,7 +3474,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="14"/>
@@ -3615,7 +3581,7 @@
     </row>
     <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s" ph="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="11">
         <v>42803</v>
@@ -3668,18 +3634,18 @@
     </row>
     <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="129" t="s">
-        <v>117</v>
+      <c r="C44" s="116" t="s">
+        <v>115</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="G44" s="98"/>
+      <c r="F44" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="123"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3693,14 +3659,14 @@
     </row>
     <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="130"/>
+      <c r="C45" s="117"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="114" t="s">
-        <v>106</v>
+      <c r="F45" s="92" t="s">
+        <v>104</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
@@ -3716,14 +3682,14 @@
     </row>
     <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="130"/>
+      <c r="C46" s="117"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="114" t="s">
-        <v>123</v>
+      <c r="F46" s="92" t="s">
+        <v>121</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
@@ -3739,15 +3705,15 @@
     </row>
     <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="130"/>
+      <c r="C47" s="117"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="125" t="s">
-        <v>106</v>
+      <c r="G47" s="97" t="s">
+        <v>104</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
@@ -3765,15 +3731,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="49"/>
-      <c r="C48" s="130"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="98" t="s">
-        <v>124</v>
-      </c>
-      <c r="H48" s="98"/>
-      <c r="I48" s="98"/>
+      <c r="G48" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -3788,15 +3754,15 @@
         <v>40</v>
       </c>
       <c r="B49" s="49"/>
-      <c r="C49" s="130"/>
+      <c r="C49" s="117"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="40" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
@@ -3813,13 +3779,13 @@
         <v>41</v>
       </c>
       <c r="B50" s="49"/>
-      <c r="C50" s="130"/>
+      <c r="C50" s="117"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="43"/>
       <c r="H50" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
@@ -3836,14 +3802,14 @@
         <v>42</v>
       </c>
       <c r="B51" s="49"/>
-      <c r="C51" s="130"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="43"/>
       <c r="H51" s="49"/>
       <c r="I51" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J51" s="49"/>
       <c r="K51" s="49"/>
@@ -3859,14 +3825,14 @@
         <v>43</v>
       </c>
       <c r="B52" s="49"/>
-      <c r="C52" s="130"/>
+      <c r="C52" s="117"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="43"/>
       <c r="H52" s="49"/>
       <c r="I52" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J52" s="49"/>
       <c r="K52" s="49"/>
@@ -3879,17 +3845,17 @@
     </row>
     <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="B53" s="49"/>
-      <c r="C53" s="130"/>
+      <c r="C53" s="117"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="49"/>
-      <c r="I53" s="94" t="s">
-        <v>106</v>
+      <c r="I53" s="91" t="s">
+        <v>104</v>
       </c>
       <c r="J53" s="49"/>
       <c r="K53" s="49"/>
@@ -3900,40 +3866,49 @@
       <c r="P53" s="51"/>
       <c r="Q53" s="51"/>
     </row>
-    <row r="54" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+    <row r="54" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="52"/>
+      <c r="C54" s="117"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="43"/>
+      <c r="G54" s="49"/>
       <c r="H54" s="49"/>
-      <c r="I54" s="95"/>
+      <c r="I54" s="41" t="s">
+        <v>92</v>
+      </c>
       <c r="J54" s="49"/>
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
       <c r="M54" s="49"/>
-      <c r="N54" s="51"/>
-      <c r="O54" s="51"/>
-      <c r="P54" s="51"/>
-      <c r="Q54" s="51"/>
-    </row>
-    <row r="55" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="130"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="S54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="U54" s="100"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="52"/>
+      <c r="C55" s="117"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="9"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="41" t="s">
-        <v>94</v>
+      <c r="I55" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -3943,27 +3918,27 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
-      <c r="S55" s="3" t="s">
-        <v>34</v>
+      <c r="S55" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="T55" s="100" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="U55" s="100"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="130"/>
+        <v>26</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="117"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="9"/>
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
       <c r="I56" s="40" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="J56" s="49"/>
       <c r="K56" s="49"/>
@@ -3973,96 +3948,89 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
-      <c r="S56" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T56" s="100" t="s">
-        <v>104</v>
-      </c>
+      <c r="S56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="100"/>
       <c r="U56" s="100"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>26</v>
+    <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
+        <v>20</v>
       </c>
       <c r="B57" s="49"/>
-      <c r="C57" s="130"/>
+      <c r="C57" s="117"/>
       <c r="D57" s="49"/>
       <c r="E57" s="49"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="49"/>
       <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="S57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T57" s="100"/>
-      <c r="U57" s="100"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
     </row>
     <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
-        <v>20</v>
+      <c r="A58" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="B58" s="49"/>
-      <c r="C58" s="130"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="K58" s="99"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
+      <c r="J58" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
     </row>
     <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B59" s="49"/>
-      <c r="C59" s="130"/>
+      <c r="C59" s="117"/>
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
       <c r="G59" s="49"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="K59" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
     </row>
     <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B60" s="49"/>
-      <c r="C60" s="130"/>
+      <c r="C60" s="117"/>
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
@@ -4071,21 +4039,21 @@
       <c r="I60" s="9"/>
       <c r="J60" s="49"/>
       <c r="K60" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="L60" s="49"/>
+        <v>71</v>
+      </c>
+      <c r="L60" s="43"/>
       <c r="M60" s="49"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
     </row>
     <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B61" s="49"/>
-      <c r="C61" s="130"/>
+      <c r="C61" s="117"/>
       <c r="D61" s="49"/>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
@@ -4094,21 +4062,21 @@
       <c r="I61" s="9"/>
       <c r="J61" s="49"/>
       <c r="K61" s="40" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="L61" s="43"/>
       <c r="M61" s="49"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
     </row>
     <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B62" s="49"/>
-      <c r="C62" s="130"/>
+      <c r="C62" s="117"/>
       <c r="D62" s="49"/>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -4116,22 +4084,22 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="49"/>
-      <c r="K62" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="L62" s="43"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="114" t="s">
+        <v>92</v>
+      </c>
       <c r="M62" s="49"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
-      <c r="Q62" s="57"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
     </row>
     <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B63" s="49"/>
-      <c r="C63" s="130"/>
+      <c r="C63" s="117"/>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4140,21 +4108,19 @@
       <c r="I63" s="9"/>
       <c r="J63" s="49"/>
       <c r="K63" s="49"/>
-      <c r="L63" s="94" t="s">
-        <v>94</v>
-      </c>
+      <c r="L63" s="115"/>
       <c r="M63" s="49"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
     </row>
     <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B64" s="49"/>
-      <c r="C64" s="130"/>
+      <c r="C64" s="118"/>
       <c r="D64" s="49"/>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
@@ -4163,50 +4129,52 @@
       <c r="I64" s="9"/>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-    </row>
-    <row r="65" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-    </row>
-    <row r="66" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
+      <c r="L64" s="43"/>
+      <c r="M64" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="129" t="s">
-        <v>118</v>
-      </c>
+      <c r="C66" s="117"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="59"/>
+      <c r="E66" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="43"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
@@ -4220,13 +4188,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="130"/>
+      <c r="C67" s="117"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="114" t="s">
-        <v>73</v>
+      <c r="E67" s="92" t="s">
+        <v>71</v>
       </c>
       <c r="F67" s="43"/>
       <c r="G67" s="9"/>
@@ -4243,13 +4211,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="130"/>
+      <c r="C68" s="117"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="114" t="s">
-        <v>73</v>
+      <c r="E68" s="92" t="s">
+        <v>71</v>
       </c>
       <c r="F68" s="43"/>
       <c r="G68" s="9"/>
@@ -4266,13 +4234,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="130"/>
+      <c r="C69" s="117"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="114" t="s">
-        <v>73</v>
+      <c r="E69" s="92" t="s">
+        <v>71</v>
       </c>
       <c r="F69" s="43"/>
       <c r="G69" s="9"/>
@@ -4289,13 +4257,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="114" t="s">
-        <v>73</v>
+      <c r="C70" s="117"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="92" t="s">
+        <v>71</v>
       </c>
       <c r="F70" s="43"/>
       <c r="G70" s="9"/>
@@ -4310,45 +4278,45 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="F71" s="43"/>
+    <row r="71" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="49"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>1</v>
+    <row r="72" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="61" t="s">
+        <v>62</v>
       </c>
       <c r="B72" s="49"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="60" t="s">
-        <v>94</v>
+      <c r="C72" s="117"/>
+      <c r="D72" s="92" t="s">
+        <v>71</v>
       </c>
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="61"/>
+      <c r="H72" s="52"/>
       <c r="I72" s="49"/>
       <c r="J72" s="49"/>
-      <c r="K72" s="48"/>
+      <c r="K72" s="49"/>
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="14"/>
@@ -4357,21 +4325,21 @@
       <c r="Q72" s="14"/>
     </row>
     <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
-        <v>64</v>
+      <c r="A73" s="61" t="s">
+        <v>63</v>
       </c>
       <c r="B73" s="49"/>
-      <c r="C73" s="130"/>
-      <c r="D73" s="114" t="s">
-        <v>73</v>
+      <c r="C73" s="117"/>
+      <c r="D73" s="92" t="s">
+        <v>71</v>
       </c>
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="53"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="49"/>
       <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
+      <c r="K73" s="9"/>
       <c r="L73" s="49"/>
       <c r="M73" s="49"/>
       <c r="N73" s="14"/>
@@ -4379,242 +4347,242 @@
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="43"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
       <c r="K74" s="9"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="47" t="s">
+    <row r="75" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="47" t="s">
         <v>21</v>
       </c>
+      <c r="B75" s="49"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="122" t="s">
+        <v>119</v>
+      </c>
+      <c r="G75" s="122"/>
+      <c r="H75" s="122"/>
+      <c r="I75" s="122"/>
+      <c r="J75" s="122"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="B76" s="49"/>
-      <c r="C76" s="130"/>
+      <c r="C76" s="117"/>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
-      <c r="F76" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="61"/>
-      <c r="M76" s="61"/>
-      <c r="N76" s="64"/>
-      <c r="O76" s="64"/>
-      <c r="P76" s="64"/>
-      <c r="Q76" s="64"/>
+      <c r="F76" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H76" s="43"/>
+      <c r="I76" s="49"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="M76" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N76" s="65"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="65"/>
+      <c r="Q76" s="65"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B77" s="49"/>
-      <c r="C77" s="130"/>
+      <c r="C77" s="117"/>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
-      <c r="F77" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="49"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H77" s="49"/>
+      <c r="I77" s="43"/>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
-      <c r="L77" s="53" t="s">
-        <v>66</v>
-      </c>
+      <c r="L77" s="43"/>
       <c r="M77" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N77" s="66"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="66"/>
+        <v>39</v>
+      </c>
+      <c r="N77" s="56"/>
+      <c r="O77" s="65"/>
+      <c r="P77" s="65"/>
+      <c r="Q77" s="65"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B78" s="49"/>
-      <c r="C78" s="130"/>
+      <c r="C78" s="117"/>
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
       <c r="F78" s="43"/>
-      <c r="G78" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="H78" s="49"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="I78" s="43"/>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
       <c r="L78" s="43"/>
-      <c r="M78" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="N78" s="57"/>
-      <c r="O78" s="66"/>
-      <c r="P78" s="66"/>
-      <c r="Q78" s="66"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="65"/>
+      <c r="P78" s="65"/>
+      <c r="Q78" s="65"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79" s="49"/>
-      <c r="C79" s="130"/>
+      <c r="C79" s="117"/>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="43"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="63" t="s">
-        <v>73</v>
+      <c r="G79" s="52"/>
+      <c r="H79" s="62" t="s">
+        <v>92</v>
       </c>
       <c r="I79" s="43"/>
       <c r="J79" s="43"/>
       <c r="K79" s="43"/>
       <c r="L79" s="43"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="66"/>
-      <c r="P79" s="66"/>
-      <c r="Q79" s="66"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="65"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="65"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B80" s="49"/>
-      <c r="C80" s="130"/>
+      <c r="C80" s="117"/>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="43"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I80" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" s="66" t="s">
+        <v>104</v>
+      </c>
       <c r="K80" s="43"/>
       <c r="L80" s="43"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="57"/>
-      <c r="O80" s="66"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="66"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="65"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B81" s="49"/>
-      <c r="C81" s="130"/>
+      <c r="C81" s="117"/>
       <c r="D81" s="49"/>
       <c r="E81" s="49"/>
       <c r="F81" s="43"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="I81" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="J81" s="67" t="s">
-        <v>106</v>
+      <c r="G81" s="52"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="66" t="s">
+        <v>120</v>
       </c>
       <c r="K81" s="43"/>
       <c r="L81" s="43"/>
-      <c r="M81" s="53"/>
-      <c r="N81" s="57"/>
-      <c r="O81" s="57"/>
-      <c r="P81" s="68"/>
-      <c r="Q81" s="66"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="130"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="68"/>
+    </row>
+    <row r="82" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="6"/>
       <c r="F82" s="43"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="57"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="69"/>
-    </row>
-    <row r="83" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
-        <v>38</v>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="K82" s="121"/>
+      <c r="L82" s="121"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="130"/>
+      <c r="C83" s="117"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="70"/>
-      <c r="I83" s="70"/>
-      <c r="J83" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="K83" s="96"/>
-      <c r="L83" s="96"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="98" t="s">
+        <v>71</v>
+      </c>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
@@ -4623,21 +4591,21 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="130"/>
+      <c r="C84" s="117"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="50"/>
+      <c r="F84" s="43"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
-      <c r="J84" s="6"/>
+      <c r="J84" s="98" t="s">
+        <v>71</v>
+      </c>
       <c r="K84" s="43"/>
-      <c r="L84" s="67" t="s">
-        <v>73</v>
-      </c>
+      <c r="L84" s="70"/>
       <c r="M84" s="9"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
@@ -4646,21 +4614,21 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="130"/>
+      <c r="C85" s="117"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
       <c r="F85" s="43"/>
       <c r="G85" s="43"/>
       <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="126" t="s">
-        <v>73</v>
-      </c>
-      <c r="K85" s="43"/>
-      <c r="L85" s="71"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="L85" s="43"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
@@ -4669,21 +4637,21 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="130"/>
+      <c r="C86" s="117"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
       <c r="H86" s="43"/>
       <c r="I86" s="50"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="L86" s="43"/>
+      <c r="J86" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="K86" s="43"/>
+      <c r="L86" s="70"/>
       <c r="M86" s="9"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
@@ -4692,87 +4660,87 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="130"/>
+      <c r="C87" s="118"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
       <c r="F87" s="43"/>
       <c r="G87" s="43"/>
       <c r="H87" s="43"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="125" t="s">
-        <v>106</v>
+      <c r="I87" s="43"/>
+      <c r="J87" s="97" t="s">
+        <v>71</v>
       </c>
       <c r="K87" s="43"/>
-      <c r="L87" s="71"/>
+      <c r="L87" s="43"/>
       <c r="M87" s="9"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
+    <row r="88" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="43"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H88" s="126"/>
+      <c r="I88" s="126"/>
+      <c r="J88" s="127"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-    </row>
-    <row r="89" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>10</v>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="71" t="s">
+        <v>40</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="127" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="43"/>
+      <c r="C89" s="120"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="H89" s="118"/>
-      <c r="I89" s="118"/>
-      <c r="J89" s="119"/>
+      <c r="G89" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="51"/>
-      <c r="O89" s="51"/>
-      <c r="P89" s="51"/>
-      <c r="Q89" s="51"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14"/>
+      <c r="Q89" s="14"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="72" t="s">
-        <v>40</v>
+      <c r="A90" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="128"/>
+      <c r="C90" s="120"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="I90" s="43"/>
       <c r="J90" s="43"/>
       <c r="K90" s="9"/>
@@ -4785,16 +4753,16 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="128"/>
+      <c r="C91" s="120"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="43"/>
       <c r="H91" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I91" s="43"/>
       <c r="J91" s="43"/>
@@ -4808,19 +4776,19 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="128"/>
+      <c r="C92" s="120"/>
       <c r="D92" s="6"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="43"/>
-      <c r="H92" s="42" t="s">
-        <v>106</v>
-      </c>
+      <c r="H92" s="43"/>
       <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
+      <c r="J92" s="72" t="s">
+        <v>92</v>
+      </c>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
@@ -4831,19 +4799,19 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="128"/>
+        <v>30</v>
+      </c>
+      <c r="B93" s="43"/>
+      <c r="C93" s="120"/>
       <c r="D93" s="6"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="I93" s="43"/>
-      <c r="J93" s="73" t="s">
-        <v>94</v>
-      </c>
+      <c r="J93" s="43"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -4854,18 +4822,18 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="128"/>
+      <c r="C94" s="120"/>
       <c r="D94" s="6"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="72" t="s">
+        <v>104</v>
+      </c>
       <c r="J94" s="43"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
@@ -4877,17 +4845,17 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="128"/>
+      <c r="C95" s="120"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="6"/>
       <c r="H95" s="43"/>
-      <c r="I95" s="73" t="s">
-        <v>106</v>
+      <c r="I95" s="42" t="s">
+        <v>132</v>
       </c>
       <c r="J95" s="43"/>
       <c r="K95" s="9"/>
@@ -4900,18 +4868,18 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="128"/>
+      <c r="C96" s="120"/>
       <c r="D96" s="6"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="42" t="s">
-        <v>134</v>
-      </c>
+      <c r="H96" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I96" s="43"/>
       <c r="J96" s="43"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -4923,18 +4891,18 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="128"/>
+      <c r="C97" s="120"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="94"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="I97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="42" t="s">
+        <v>132</v>
+      </c>
       <c r="J97" s="43"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
@@ -4945,18 +4913,18 @@
       <c r="Q97" s="14"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>17</v>
+      <c r="A98" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="128"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="116"/>
+      <c r="C98" s="120"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="6"/>
       <c r="F98" s="1"/>
       <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J98" s="43"/>
       <c r="K98" s="9"/>
@@ -4968,20 +4936,20 @@
       <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="73" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="128"/>
+      <c r="C99" s="120"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="1"/>
       <c r="G99" s="43"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="J99" s="43"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="42" t="s">
+        <v>104</v>
+      </c>
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
@@ -4990,20 +4958,20 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="128"/>
+      <c r="C100" s="120"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="50"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="131"/>
+      <c r="I100" s="43"/>
       <c r="J100" s="42" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -5014,193 +4982,171 @@
       <c r="Q100" s="14"/>
     </row>
     <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="128"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="49"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
+      <c r="A101" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B101" s="49"/>
+      <c r="C101" s="120"/>
+      <c r="D101" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="129"/>
+      <c r="F101" s="130"/>
+      <c r="G101" s="1"/>
+      <c r="J101" s="75"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" s="49"/>
-      <c r="C102" s="128"/>
-      <c r="D102" s="121" t="s">
-        <v>138</v>
-      </c>
-      <c r="E102" s="122"/>
-      <c r="F102" s="123"/>
+    <row r="102" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="76"/>
+      <c r="C102" s="120"/>
+      <c r="D102" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="E102" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="77"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="132"/>
+      <c r="I102" s="77"/>
       <c r="J102" s="76"/>
-      <c r="K102" s="49"/>
-      <c r="L102" s="49"/>
-      <c r="M102" s="49"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="14"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="76"/>
+      <c r="N102" s="78"/>
+      <c r="O102" s="78"/>
+      <c r="P102" s="78"/>
+      <c r="Q102" s="78"/>
+      <c r="S102" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="77"/>
-      <c r="C103" s="128"/>
-      <c r="D103" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="E103" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="F103" s="79"/>
-      <c r="H103" s="79"/>
-      <c r="I103" s="79"/>
-      <c r="J103" s="77"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="G103" s="95"/>
+      <c r="H103" s="132"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="76"/>
       <c r="K103" s="50"/>
       <c r="L103" s="50"/>
-      <c r="M103" s="77"/>
-      <c r="N103" s="80"/>
-      <c r="O103" s="80"/>
-      <c r="P103" s="80"/>
-      <c r="Q103" s="80"/>
-      <c r="S103" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="M103" s="76"/>
+      <c r="N103" s="78"/>
+      <c r="O103" s="78"/>
+      <c r="P103" s="78"/>
+      <c r="Q103" s="78"/>
+      <c r="S103" s="8"/>
     </row>
     <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" s="77"/>
-      <c r="C104" s="128"/>
-      <c r="D104" s="79"/>
-      <c r="E104" s="79"/>
-      <c r="F104" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" s="120"/>
-      <c r="H104" s="79"/>
-      <c r="I104" s="79"/>
-      <c r="J104" s="77"/>
+        <v>68</v>
+      </c>
+      <c r="B104" s="76"/>
+      <c r="C104" s="120"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="G104" s="95"/>
+      <c r="H104" s="76"/>
+      <c r="J104" s="76"/>
       <c r="K104" s="50"/>
       <c r="L104" s="50"/>
-      <c r="M104" s="77"/>
-      <c r="N104" s="80"/>
-      <c r="O104" s="80"/>
-      <c r="P104" s="80"/>
-      <c r="Q104" s="80"/>
+      <c r="M104" s="76"/>
+      <c r="N104" s="78"/>
+      <c r="O104" s="78"/>
+      <c r="P104" s="78"/>
+      <c r="Q104" s="78"/>
       <c r="S104" s="8"/>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B105" s="77"/>
-      <c r="C105" s="128"/>
-      <c r="D105" s="79"/>
-      <c r="E105" s="79"/>
-      <c r="F105" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" s="120"/>
+        <v>66</v>
+      </c>
+      <c r="B105" s="76"/>
+      <c r="C105" s="120"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="G105" s="95"/>
       <c r="H105" s="77"/>
-      <c r="J105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="76"/>
       <c r="K105" s="50"/>
       <c r="L105" s="50"/>
-      <c r="M105" s="77"/>
-      <c r="N105" s="80"/>
-      <c r="O105" s="80"/>
-      <c r="P105" s="80"/>
-      <c r="Q105" s="80"/>
+      <c r="M105" s="76"/>
+      <c r="N105" s="78"/>
+      <c r="O105" s="78"/>
+      <c r="P105" s="78"/>
+      <c r="Q105" s="78"/>
       <c r="S105" s="8"/>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B106" s="77"/>
-      <c r="C106" s="128"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="G106" s="120"/>
-      <c r="H106" s="79"/>
-      <c r="I106" s="79"/>
-      <c r="J106" s="77"/>
+        <v>134</v>
+      </c>
+      <c r="B106" s="76"/>
+      <c r="C106" s="120"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="G106" s="95"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="76"/>
       <c r="K106" s="50"/>
       <c r="L106" s="50"/>
-      <c r="M106" s="77"/>
-      <c r="N106" s="80"/>
-      <c r="O106" s="80"/>
-      <c r="P106" s="80"/>
-      <c r="Q106" s="80"/>
+      <c r="M106" s="76"/>
+      <c r="N106" s="78"/>
+      <c r="O106" s="78"/>
+      <c r="P106" s="78"/>
+      <c r="Q106" s="78"/>
       <c r="S106" s="8"/>
     </row>
-    <row r="107" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" s="77"/>
-      <c r="C107" s="128"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="79"/>
-      <c r="F107" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="G107" s="120"/>
-      <c r="H107" s="79"/>
-      <c r="I107" s="79"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="50"/>
-      <c r="M107" s="77"/>
-      <c r="N107" s="80"/>
-      <c r="O107" s="80"/>
-      <c r="P107" s="80"/>
-      <c r="Q107" s="80"/>
-      <c r="S107" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C65:C87"/>
+    <mergeCell ref="C88:C106"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
     <mergeCell ref="C5:M5"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="C44:C65"/>
-    <mergeCell ref="C66:C88"/>
-    <mergeCell ref="C89:C107"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="F76:J76"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="D102:F102"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -977,6 +977,13 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1105,7 +1112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,6 +1222,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1536,7 +1549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1744,9 +1757,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1837,6 +1847,63 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1879,62 +1946,11 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2489,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2640,19 +2656,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="103"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2782,7 +2798,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="99" t="s">
+      <c r="S9" s="98" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2865,8 +2881,8 @@
       <c r="A13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="88" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="13"/>
@@ -2874,7 +2890,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="82"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2891,10 +2907,10 @@
         <v>99</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2916,8 +2932,8 @@
         <v>126</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="90" t="s">
+      <c r="C15" s="85"/>
+      <c r="D15" s="89" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="13"/>
@@ -2941,8 +2957,8 @@
         <v>125</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="81" t="s">
+      <c r="C16" s="83"/>
+      <c r="D16" s="80" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="13"/>
@@ -2966,10 +2982,10 @@
         <v>124</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2991,10 +3007,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="82"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -3016,16 +3032,16 @@
         <v>100</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3041,10 +3057,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="113"/>
+      <c r="D20" s="131"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3095,10 +3111,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="104"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3149,10 +3165,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="107" t="s">
+      <c r="I24" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="108"/>
+      <c r="J24" s="126"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3175,7 +3191,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="80"/>
+      <c r="L25" s="79"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3321,10 +3337,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="105" t="s">
+      <c r="J31" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="106"/>
+      <c r="K31" s="124"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3637,15 +3653,15 @@
         <v>49</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="106" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="123" t="s">
+      <c r="F44" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="123"/>
+      <c r="G44" s="111"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3662,10 +3678,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="117"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="92" t="s">
+      <c r="F45" s="91" t="s">
         <v>104</v>
       </c>
       <c r="G45" s="43"/>
@@ -3685,10 +3701,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="117"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="92" t="s">
+      <c r="F46" s="91" t="s">
         <v>121</v>
       </c>
       <c r="G46" s="43"/>
@@ -3708,11 +3724,11 @@
         <v>51</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="117"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="97" t="s">
+      <c r="G47" s="96" t="s">
         <v>104</v>
       </c>
       <c r="H47" s="43"/>
@@ -3731,15 +3747,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="49"/>
-      <c r="C48" s="117"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="123" t="s">
+      <c r="G48" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -3754,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="49"/>
-      <c r="C49" s="117"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3779,7 +3795,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="49"/>
-      <c r="C50" s="117"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3802,7 +3818,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="49"/>
-      <c r="C51" s="117"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3825,7 +3841,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="49"/>
-      <c r="C52" s="117"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3848,13 +3864,13 @@
         <v>134</v>
       </c>
       <c r="B53" s="49"/>
-      <c r="C53" s="117"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="49"/>
-      <c r="I53" s="91" t="s">
+      <c r="I53" s="90" t="s">
         <v>104</v>
       </c>
       <c r="J53" s="49"/>
@@ -3871,16 +3887,16 @@
         <v>6</v>
       </c>
       <c r="B54" s="52"/>
-      <c r="C54" s="117"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="9"/>
       <c r="G54" s="49"/>
       <c r="H54" s="49"/>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="1"/>
+      <c r="J54" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="49"/>
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
       <c r="M54" s="49"/>
@@ -3891,26 +3907,26 @@
       <c r="S54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T54" s="100" t="s">
+      <c r="T54" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="U54" s="100"/>
+      <c r="U54" s="118"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B55" s="52"/>
-      <c r="C55" s="117"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="9"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
-      <c r="I55" s="40" t="s">
+      <c r="I55" s="1"/>
+      <c r="J55" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="J55" s="49"/>
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
       <c r="M55" s="49"/>
@@ -3921,26 +3937,26 @@
       <c r="S55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T55" s="100" t="s">
+      <c r="T55" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="U55" s="100"/>
+      <c r="U55" s="118"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="49"/>
-      <c r="C56" s="117"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="9"/>
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
-      <c r="I56" s="40" t="s">
+      <c r="I56" s="1"/>
+      <c r="J56" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J56" s="49"/>
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
       <c r="M56" s="49"/>
@@ -3951,27 +3967,27 @@
       <c r="S56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T56" s="100"/>
-      <c r="U56" s="100"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
     </row>
     <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="49"/>
-      <c r="C57" s="117"/>
+      <c r="C57" s="107"/>
       <c r="D57" s="49"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="124" t="s">
+      <c r="J57" s="1"/>
+      <c r="K57" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
+      <c r="L57" s="101"/>
+      <c r="M57" s="101"/>
       <c r="N57" s="53"/>
       <c r="O57" s="53"/>
       <c r="P57" s="53"/>
@@ -3982,18 +3998,16 @@
         <v>40</v>
       </c>
       <c r="B58" s="49"/>
-      <c r="C58" s="117"/>
+      <c r="C58" s="107"/>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
       <c r="G58" s="49"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="54" t="s">
+      <c r="J58" s="1"/>
+      <c r="K58" s="54" t="s">
         <v>90</v>
-      </c>
-      <c r="K58" s="54" t="s">
-        <v>71</v>
       </c>
       <c r="L58" s="55"/>
       <c r="M58" s="55"/>
@@ -4007,7 +4021,7 @@
         <v>41</v>
       </c>
       <c r="B59" s="49"/>
-      <c r="C59" s="117"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
@@ -4030,7 +4044,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="49"/>
-      <c r="C60" s="117"/>
+      <c r="C60" s="107"/>
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
@@ -4053,7 +4067,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="49"/>
-      <c r="C61" s="117"/>
+      <c r="C61" s="107"/>
       <c r="D61" s="49"/>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
@@ -4076,7 +4090,7 @@
         <v>107</v>
       </c>
       <c r="B62" s="49"/>
-      <c r="C62" s="117"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="49"/>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -4085,7 +4099,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="49"/>
       <c r="K62" s="49"/>
-      <c r="L62" s="114" t="s">
+      <c r="L62" s="104" t="s">
         <v>92</v>
       </c>
       <c r="M62" s="49"/>
@@ -4099,7 +4113,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="49"/>
-      <c r="C63" s="117"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4108,7 +4122,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="49"/>
       <c r="K63" s="49"/>
-      <c r="L63" s="115"/>
+      <c r="L63" s="105"/>
       <c r="M63" s="49"/>
       <c r="N63" s="56"/>
       <c r="O63" s="56"/>
@@ -4120,7 +4134,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="49"/>
-      <c r="C64" s="118"/>
+      <c r="C64" s="108"/>
       <c r="D64" s="49"/>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
@@ -4143,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="116" t="s">
+      <c r="C65" s="106" t="s">
         <v>116</v>
       </c>
       <c r="D65" s="9"/>
@@ -4168,9 +4182,9 @@
         <v>57</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="117"/>
+      <c r="C66" s="107"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="92" t="s">
+      <c r="E66" s="91" t="s">
         <v>71</v>
       </c>
       <c r="F66" s="43"/>
@@ -4191,9 +4205,9 @@
         <v>58</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="117"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="92" t="s">
+      <c r="E67" s="91" t="s">
         <v>71</v>
       </c>
       <c r="F67" s="43"/>
@@ -4214,9 +4228,9 @@
         <v>59</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="117"/>
+      <c r="C68" s="107"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="92" t="s">
+      <c r="E68" s="91" t="s">
         <v>71</v>
       </c>
       <c r="F68" s="43"/>
@@ -4237,9 +4251,9 @@
         <v>60</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="117"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="92" t="s">
+      <c r="E69" s="91" t="s">
         <v>71</v>
       </c>
       <c r="F69" s="43"/>
@@ -4260,9 +4274,9 @@
         <v>61</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="117"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="43"/>
-      <c r="E70" s="92" t="s">
+      <c r="E70" s="91" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="43"/>
@@ -4283,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="117"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="59" t="s">
         <v>92</v>
       </c>
@@ -4306,8 +4320,8 @@
         <v>62</v>
       </c>
       <c r="B72" s="49"/>
-      <c r="C72" s="117"/>
-      <c r="D72" s="92" t="s">
+      <c r="C72" s="107"/>
+      <c r="D72" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E72" s="49"/>
@@ -4329,8 +4343,8 @@
         <v>63</v>
       </c>
       <c r="B73" s="49"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="92" t="s">
+      <c r="C73" s="107"/>
+      <c r="D73" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E73" s="49"/>
@@ -4352,8 +4366,8 @@
         <v>110</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="117"/>
-      <c r="D74" s="93" t="s">
+      <c r="C74" s="107"/>
+      <c r="D74" s="92" t="s">
         <v>71</v>
       </c>
       <c r="E74" s="43"/>
@@ -4362,8 +4376,8 @@
       <c r="H74" s="9"/>
       <c r="I74" s="43"/>
       <c r="J74" s="43"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
       <c r="M74" s="9"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
@@ -4375,16 +4389,16 @@
         <v>21</v>
       </c>
       <c r="B75" s="49"/>
-      <c r="C75" s="117"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="49"/>
       <c r="E75" s="49"/>
-      <c r="F75" s="122" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="G75" s="122"/>
-      <c r="H75" s="122"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="100"/>
       <c r="K75" s="60"/>
       <c r="L75" s="60"/>
       <c r="M75" s="60"/>
@@ -4398,18 +4412,18 @@
         <v>40</v>
       </c>
       <c r="B76" s="49"/>
-      <c r="C76" s="117"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
-      <c r="F76" s="64" t="s">
+      <c r="F76" s="1"/>
+      <c r="G76" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="G76" s="62" t="s">
+      <c r="H76" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="H76" s="43"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="49"/>
       <c r="K76" s="43"/>
       <c r="L76" s="52" t="s">
         <v>64</v>
@@ -4427,15 +4441,15 @@
         <v>41</v>
       </c>
       <c r="B77" s="49"/>
-      <c r="C77" s="117"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="62" t="s">
+      <c r="F77" s="1"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H77" s="49"/>
-      <c r="I77" s="43"/>
+      <c r="I77" s="49"/>
       <c r="J77" s="43"/>
       <c r="K77" s="43"/>
       <c r="L77" s="43"/>
@@ -4452,15 +4466,15 @@
         <v>65</v>
       </c>
       <c r="B78" s="49"/>
-      <c r="C78" s="117"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="62" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="I78" s="43"/>
       <c r="J78" s="43"/>
       <c r="K78" s="43"/>
       <c r="L78" s="43"/>
@@ -4475,15 +4489,15 @@
         <v>66</v>
       </c>
       <c r="B79" s="49"/>
-      <c r="C79" s="117"/>
+      <c r="C79" s="107"/>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="62" t="s">
+      <c r="F79" s="1"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="43"/>
       <c r="J79" s="43"/>
       <c r="K79" s="43"/>
       <c r="L79" s="43"/>
@@ -4498,21 +4512,19 @@
         <v>108</v>
       </c>
       <c r="B80" s="49"/>
-      <c r="C80" s="117"/>
+      <c r="C80" s="107"/>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="62" t="s">
+      <c r="F80" s="1"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="I80" s="62" t="s">
-        <v>90</v>
-      </c>
       <c r="J80" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="K80" s="43"/>
+        <v>138</v>
+      </c>
+      <c r="K80" s="1"/>
       <c r="L80" s="43"/>
       <c r="M80" s="52"/>
       <c r="N80" s="56"/>
@@ -4525,17 +4537,17 @@
         <v>109</v>
       </c>
       <c r="B81" s="49"/>
-      <c r="C81" s="117"/>
+      <c r="C81" s="107"/>
       <c r="D81" s="49"/>
       <c r="E81" s="49"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="52"/>
-      <c r="H81" s="49"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="52"/>
       <c r="I81" s="49"/>
       <c r="J81" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="K81" s="43"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="43"/>
       <c r="M81" s="52"/>
       <c r="N81" s="56"/>
@@ -4548,18 +4560,18 @@
         <v>38</v>
       </c>
       <c r="B82" s="9"/>
-      <c r="C82" s="117"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="9"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="121" t="s">
+      <c r="F82" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="K82" s="121"/>
-      <c r="L82" s="121"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="99"/>
+      <c r="I82" s="132"/>
+      <c r="J82" s="133"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
       <c r="M82" s="9"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
@@ -4571,18 +4583,18 @@
         <v>45</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="117"/>
+      <c r="C83" s="107"/>
       <c r="D83" s="9"/>
       <c r="E83" s="43"/>
-      <c r="F83" s="50"/>
+      <c r="F83" s="97" t="s">
+        <v>71</v>
+      </c>
       <c r="G83" s="43"/>
       <c r="H83" s="43"/>
       <c r="I83" s="43"/>
       <c r="J83" s="6"/>
       <c r="K83" s="43"/>
-      <c r="L83" s="98" t="s">
-        <v>71</v>
-      </c>
+      <c r="L83" s="1"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
@@ -4594,18 +4606,18 @@
         <v>48</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="117"/>
+      <c r="C84" s="107"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
+      <c r="F84" s="97" t="s">
+        <v>71</v>
+      </c>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
       <c r="I84" s="43"/>
-      <c r="J84" s="98" t="s">
-        <v>71</v>
-      </c>
+      <c r="J84" s="1"/>
       <c r="K84" s="43"/>
-      <c r="L84" s="70"/>
+      <c r="L84" s="69"/>
       <c r="M84" s="9"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
@@ -4617,17 +4629,17 @@
         <v>53</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="117"/>
+      <c r="C85" s="107"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
+      <c r="F85" s="96" t="s">
+        <v>71</v>
+      </c>
       <c r="G85" s="43"/>
       <c r="H85" s="43"/>
       <c r="I85" s="50"/>
       <c r="J85" s="43"/>
-      <c r="K85" s="97" t="s">
-        <v>71</v>
-      </c>
+      <c r="K85" s="1"/>
       <c r="L85" s="43"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
@@ -4640,7 +4652,7 @@
         <v>54</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="117"/>
+      <c r="C86" s="107"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
@@ -4651,7 +4663,7 @@
         <v>104</v>
       </c>
       <c r="K86" s="43"/>
-      <c r="L86" s="70"/>
+      <c r="L86" s="69"/>
       <c r="M86" s="9"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
@@ -4663,16 +4675,16 @@
         <v>55</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="118"/>
+      <c r="C87" s="108"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
+      <c r="F87" s="96" t="s">
+        <v>71</v>
+      </c>
       <c r="G87" s="43"/>
       <c r="H87" s="43"/>
       <c r="I87" s="43"/>
-      <c r="J87" s="97" t="s">
-        <v>71</v>
-      </c>
+      <c r="J87" s="1"/>
       <c r="K87" s="43"/>
       <c r="L87" s="43"/>
       <c r="M87" s="9"/>
@@ -4686,17 +4698,17 @@
         <v>10</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="119" t="s">
+      <c r="C88" s="109" t="s">
         <v>117</v>
       </c>
       <c r="D88" s="43"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="125" t="s">
+      <c r="G88" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="H88" s="126"/>
-      <c r="I88" s="126"/>
-      <c r="J88" s="127"/>
+      <c r="H88" s="113"/>
+      <c r="I88" s="113"/>
+      <c r="J88" s="114"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
@@ -4706,11 +4718,11 @@
       <c r="Q88" s="51"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="71" t="s">
+      <c r="A89" s="70" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="120"/>
+      <c r="C89" s="110"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -4733,7 +4745,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="120"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4756,7 +4768,7 @@
         <v>29</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="120"/>
+      <c r="C91" s="110"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4779,14 +4791,14 @@
         <v>37</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="120"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="6"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
       <c r="I92" s="43"/>
-      <c r="J92" s="72" t="s">
+      <c r="J92" s="71" t="s">
         <v>92</v>
       </c>
       <c r="K92" s="9"/>
@@ -4802,7 +4814,7 @@
         <v>30</v>
       </c>
       <c r="B93" s="43"/>
-      <c r="C93" s="120"/>
+      <c r="C93" s="110"/>
       <c r="D93" s="6"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4825,13 +4837,13 @@
         <v>31</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="120"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="6"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="6"/>
       <c r="H94" s="43"/>
-      <c r="I94" s="72" t="s">
+      <c r="I94" s="71" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="43"/>
@@ -4848,7 +4860,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="120"/>
+      <c r="C95" s="110"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4871,7 +4883,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="120"/>
+      <c r="C96" s="110"/>
       <c r="D96" s="6"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4894,9 +4906,9 @@
         <v>17</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="120"/>
+      <c r="C97" s="110"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="94"/>
+      <c r="E97" s="93"/>
       <c r="F97" s="1"/>
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
@@ -4917,7 +4929,7 @@
         <v>112</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="120"/>
+      <c r="C98" s="110"/>
       <c r="D98" s="43"/>
       <c r="E98" s="6"/>
       <c r="F98" s="1"/>
@@ -4936,11 +4948,11 @@
       <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="72" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="120"/>
+      <c r="C99" s="110"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="1"/>
@@ -4959,16 +4971,16 @@
       <c r="Q99" s="14"/>
     </row>
     <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="74" t="s">
+      <c r="A100" s="73" t="s">
         <v>113</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="120"/>
+      <c r="C100" s="110"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="1"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="131"/>
+      <c r="H100" s="102"/>
       <c r="I100" s="43"/>
       <c r="J100" s="42" t="s">
         <v>132</v>
@@ -4986,14 +4998,14 @@
         <v>18</v>
       </c>
       <c r="B101" s="49"/>
-      <c r="C101" s="120"/>
-      <c r="D101" s="128" t="s">
+      <c r="C101" s="110"/>
+      <c r="D101" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="129"/>
-      <c r="F101" s="130"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="117"/>
       <c r="G101" s="1"/>
-      <c r="J101" s="75"/>
+      <c r="J101" s="74"/>
       <c r="K101" s="49"/>
       <c r="L101" s="49"/>
       <c r="M101" s="49"/>
@@ -5006,26 +5018,26 @@
       <c r="A102" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="76"/>
-      <c r="C102" s="120"/>
-      <c r="D102" s="96" t="s">
+      <c r="B102" s="75"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="96" t="s">
+      <c r="E102" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="F102" s="77"/>
-      <c r="G102" s="95"/>
-      <c r="H102" s="132"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="94"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="75"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
-      <c r="M102" s="76"/>
-      <c r="N102" s="78"/>
-      <c r="O102" s="78"/>
-      <c r="P102" s="78"/>
-      <c r="Q102" s="78"/>
+      <c r="M102" s="75"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
       <c r="S102" s="8" t="s">
         <v>46</v>
       </c>
@@ -5034,110 +5046,99 @@
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="76"/>
-      <c r="C103" s="120"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="98" t="s">
+      <c r="B103" s="75"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="G103" s="95"/>
-      <c r="H103" s="132"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="76"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="75"/>
       <c r="K103" s="50"/>
       <c r="L103" s="50"/>
-      <c r="M103" s="76"/>
-      <c r="N103" s="78"/>
-      <c r="O103" s="78"/>
-      <c r="P103" s="78"/>
-      <c r="Q103" s="78"/>
+      <c r="M103" s="75"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
       <c r="S103" s="8"/>
     </row>
     <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="76"/>
-      <c r="C104" s="120"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="98" t="s">
+      <c r="B104" s="75"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="76"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="95"/>
-      <c r="H104" s="76"/>
-      <c r="J104" s="76"/>
+      <c r="G104" s="94"/>
+      <c r="H104" s="75"/>
+      <c r="J104" s="75"/>
       <c r="K104" s="50"/>
       <c r="L104" s="50"/>
-      <c r="M104" s="76"/>
-      <c r="N104" s="78"/>
-      <c r="O104" s="78"/>
-      <c r="P104" s="78"/>
-      <c r="Q104" s="78"/>
+      <c r="M104" s="75"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
       <c r="S104" s="8"/>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="76"/>
-      <c r="C105" s="120"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="96" t="s">
+      <c r="B105" s="75"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76"/>
+      <c r="F105" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="G105" s="95"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="76"/>
+      <c r="G105" s="94"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="75"/>
       <c r="K105" s="50"/>
       <c r="L105" s="50"/>
-      <c r="M105" s="76"/>
-      <c r="N105" s="78"/>
-      <c r="O105" s="78"/>
-      <c r="P105" s="78"/>
-      <c r="Q105" s="78"/>
+      <c r="M105" s="75"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
       <c r="S105" s="8"/>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="76"/>
-      <c r="C106" s="120"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="98" t="s">
+      <c r="B106" s="75"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="76"/>
+      <c r="F106" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="G106" s="95"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="76"/>
+      <c r="G106" s="94"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="76"/>
+      <c r="J106" s="75"/>
       <c r="K106" s="50"/>
       <c r="L106" s="50"/>
-      <c r="M106" s="76"/>
-      <c r="N106" s="78"/>
-      <c r="O106" s="78"/>
-      <c r="P106" s="78"/>
-      <c r="Q106" s="78"/>
+      <c r="M106" s="75"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
       <c r="S106" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C65:C87"/>
-    <mergeCell ref="C88:C106"/>
-    <mergeCell ref="J82:L82"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="D101:F101"/>
+  <mergeCells count="17">
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -5147,6 +5148,14 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C65:C87"/>
+    <mergeCell ref="C88:C106"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="D101:F101"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1549,7 +1549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,9 +1742,6 @@
     <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1862,88 +1859,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1951,6 +1867,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2505,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2656,19 +2659,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2798,7 +2801,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="98" t="s">
+      <c r="S9" s="97" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2881,8 +2884,8 @@
       <c r="A13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="88" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="87" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="13"/>
@@ -2890,7 +2893,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="81"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2907,10 +2910,10 @@
         <v>99</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="82"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2932,8 +2935,8 @@
         <v>126</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="89" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="88" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="13"/>
@@ -2957,8 +2960,8 @@
         <v>125</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="80" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="79" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="13"/>
@@ -2982,10 +2985,10 @@
         <v>124</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3007,10 +3010,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -3032,16 +3035,16 @@
         <v>100</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3057,10 +3060,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3111,10 +3114,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="122"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3165,10 +3168,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="125" t="s">
+      <c r="I24" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="126"/>
+      <c r="J24" s="114"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3191,7 +3194,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="79"/>
+      <c r="L25" s="78"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3337,10 +3340,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="123" t="s">
+      <c r="J31" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="124"/>
+      <c r="K31" s="112"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3653,15 +3656,15 @@
         <v>49</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="122" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="111" t="s">
+      <c r="F44" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="111"/>
+      <c r="G44" s="127"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3678,10 +3681,10 @@
         <v>50</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="107"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="91" t="s">
+      <c r="F45" s="90" t="s">
         <v>104</v>
       </c>
       <c r="G45" s="43"/>
@@ -3701,10 +3704,10 @@
         <v>52</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="107"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="91" t="s">
+      <c r="F46" s="90" t="s">
         <v>121</v>
       </c>
       <c r="G46" s="43"/>
@@ -3724,11 +3727,11 @@
         <v>51</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="107"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="96" t="s">
+      <c r="G47" s="95" t="s">
         <v>104</v>
       </c>
       <c r="H47" s="43"/>
@@ -3747,15 +3750,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="49"/>
-      <c r="C48" s="107"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="111" t="s">
+      <c r="G48" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -3770,7 +3773,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="49"/>
-      <c r="C49" s="107"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3795,7 +3798,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="49"/>
-      <c r="C50" s="107"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3818,7 +3821,7 @@
         <v>42</v>
       </c>
       <c r="B51" s="49"/>
-      <c r="C51" s="107"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3841,7 +3844,7 @@
         <v>43</v>
       </c>
       <c r="B52" s="49"/>
-      <c r="C52" s="107"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3864,13 +3867,13 @@
         <v>134</v>
       </c>
       <c r="B53" s="49"/>
-      <c r="C53" s="107"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="49"/>
-      <c r="I53" s="90" t="s">
+      <c r="I53" s="89" t="s">
         <v>104</v>
       </c>
       <c r="J53" s="49"/>
@@ -3887,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="52"/>
-      <c r="C54" s="107"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="9"/>
@@ -3907,17 +3910,17 @@
       <c r="S54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T54" s="118" t="s">
+      <c r="T54" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="U54" s="118"/>
+      <c r="U54" s="106"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B55" s="52"/>
-      <c r="C55" s="107"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="9"/>
@@ -3937,17 +3940,17 @@
       <c r="S55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T55" s="118" t="s">
+      <c r="T55" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="U55" s="118"/>
+      <c r="U55" s="106"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B56" s="49"/>
-      <c r="C56" s="107"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="9"/>
@@ -3967,15 +3970,15 @@
       <c r="S56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
+      <c r="T56" s="106"/>
+      <c r="U56" s="106"/>
     </row>
     <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="47" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="49"/>
-      <c r="C57" s="107"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="49"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
@@ -3983,11 +3986,11 @@
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="101" t="s">
+      <c r="K57" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="101"/>
-      <c r="M57" s="101"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
       <c r="N57" s="53"/>
       <c r="O57" s="53"/>
       <c r="P57" s="53"/>
@@ -3998,7 +4001,7 @@
         <v>40</v>
       </c>
       <c r="B58" s="49"/>
-      <c r="C58" s="107"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
       <c r="F58" s="49"/>
@@ -4021,7 +4024,7 @@
         <v>41</v>
       </c>
       <c r="B59" s="49"/>
-      <c r="C59" s="107"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
@@ -4044,7 +4047,7 @@
         <v>27</v>
       </c>
       <c r="B60" s="49"/>
-      <c r="C60" s="107"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
       <c r="F60" s="49"/>
@@ -4067,7 +4070,7 @@
         <v>43</v>
       </c>
       <c r="B61" s="49"/>
-      <c r="C61" s="107"/>
+      <c r="C61" s="123"/>
       <c r="D61" s="49"/>
       <c r="E61" s="49"/>
       <c r="F61" s="49"/>
@@ -4090,7 +4093,7 @@
         <v>107</v>
       </c>
       <c r="B62" s="49"/>
-      <c r="C62" s="107"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="49"/>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
@@ -4099,7 +4102,7 @@
       <c r="I62" s="9"/>
       <c r="J62" s="49"/>
       <c r="K62" s="49"/>
-      <c r="L62" s="104" t="s">
+      <c r="L62" s="120" t="s">
         <v>92</v>
       </c>
       <c r="M62" s="49"/>
@@ -4113,7 +4116,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="49"/>
-      <c r="C63" s="107"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4122,7 +4125,7 @@
       <c r="I63" s="9"/>
       <c r="J63" s="49"/>
       <c r="K63" s="49"/>
-      <c r="L63" s="105"/>
+      <c r="L63" s="121"/>
       <c r="M63" s="49"/>
       <c r="N63" s="56"/>
       <c r="O63" s="56"/>
@@ -4134,7 +4137,7 @@
         <v>111</v>
       </c>
       <c r="B64" s="49"/>
-      <c r="C64" s="108"/>
+      <c r="C64" s="124"/>
       <c r="D64" s="49"/>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
@@ -4157,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="106" t="s">
+      <c r="C65" s="122" t="s">
         <v>116</v>
       </c>
       <c r="D65" s="9"/>
@@ -4182,9 +4185,9 @@
         <v>57</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="107"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="91" t="s">
+      <c r="E66" s="90" t="s">
         <v>71</v>
       </c>
       <c r="F66" s="43"/>
@@ -4205,9 +4208,9 @@
         <v>58</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="107"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="91" t="s">
+      <c r="E67" s="90" t="s">
         <v>71</v>
       </c>
       <c r="F67" s="43"/>
@@ -4228,9 +4231,9 @@
         <v>59</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="107"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="91" t="s">
+      <c r="E68" s="90" t="s">
         <v>71</v>
       </c>
       <c r="F68" s="43"/>
@@ -4251,9 +4254,9 @@
         <v>60</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="107"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="91" t="s">
+      <c r="E69" s="90" t="s">
         <v>71</v>
       </c>
       <c r="F69" s="43"/>
@@ -4274,9 +4277,9 @@
         <v>61</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="107"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="43"/>
-      <c r="E70" s="91" t="s">
+      <c r="E70" s="90" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="43"/>
@@ -4297,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="107"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="59" t="s">
         <v>92</v>
       </c>
@@ -4320,8 +4323,8 @@
         <v>62</v>
       </c>
       <c r="B72" s="49"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="91" t="s">
+      <c r="C72" s="123"/>
+      <c r="D72" s="90" t="s">
         <v>71</v>
       </c>
       <c r="E72" s="49"/>
@@ -4343,8 +4346,8 @@
         <v>63</v>
       </c>
       <c r="B73" s="49"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="91" t="s">
+      <c r="C73" s="123"/>
+      <c r="D73" s="90" t="s">
         <v>71</v>
       </c>
       <c r="E73" s="49"/>
@@ -4366,8 +4369,8 @@
         <v>110</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="92" t="s">
+      <c r="C74" s="123"/>
+      <c r="D74" s="91" t="s">
         <v>71</v>
       </c>
       <c r="E74" s="43"/>
@@ -4389,16 +4392,16 @@
         <v>21</v>
       </c>
       <c r="B75" s="49"/>
-      <c r="C75" s="107"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="49"/>
       <c r="E75" s="49"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="100" t="s">
+      <c r="G75" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="H75" s="100"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
       <c r="K75" s="60"/>
       <c r="L75" s="60"/>
       <c r="M75" s="60"/>
@@ -4412,11 +4415,11 @@
         <v>40</v>
       </c>
       <c r="B76" s="49"/>
-      <c r="C76" s="107"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="64" t="s">
+      <c r="G76" s="134" t="s">
         <v>90</v>
       </c>
       <c r="H76" s="62" t="s">
@@ -4431,17 +4434,17 @@
       <c r="M76" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="N76" s="65"/>
+      <c r="N76" s="64"/>
       <c r="O76" s="56"/>
-      <c r="P76" s="65"/>
-      <c r="Q76" s="65"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B77" s="49"/>
-      <c r="C77" s="107"/>
+      <c r="C77" s="123"/>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
       <c r="F77" s="1"/>
@@ -4457,22 +4460,21 @@
         <v>39</v>
       </c>
       <c r="N77" s="56"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B78" s="49"/>
-      <c r="C78" s="107"/>
+      <c r="C78" s="123"/>
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
       <c r="F78" s="1"/>
       <c r="G78" s="43"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="62" t="s">
+      <c r="H78" s="62" t="s">
         <v>71</v>
       </c>
       <c r="J78" s="43"/>
@@ -4480,16 +4482,16 @@
       <c r="L78" s="43"/>
       <c r="M78" s="52"/>
       <c r="N78" s="56"/>
-      <c r="O78" s="65"/>
-      <c r="P78" s="65"/>
-      <c r="Q78" s="65"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="64"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>66</v>
       </c>
       <c r="B79" s="49"/>
-      <c r="C79" s="107"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="1"/>
@@ -4503,16 +4505,16 @@
       <c r="L79" s="43"/>
       <c r="M79" s="52"/>
       <c r="N79" s="56"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>108</v>
       </c>
       <c r="B80" s="49"/>
-      <c r="C80" s="107"/>
+      <c r="C80" s="123"/>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="1"/>
@@ -4521,7 +4523,7 @@
       <c r="I80" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="J80" s="66" t="s">
+      <c r="J80" s="65" t="s">
         <v>138</v>
       </c>
       <c r="K80" s="1"/>
@@ -4529,22 +4531,22 @@
       <c r="M80" s="52"/>
       <c r="N80" s="56"/>
       <c r="O80" s="56"/>
-      <c r="P80" s="67"/>
-      <c r="Q80" s="65"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="64"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>109</v>
       </c>
       <c r="B81" s="49"/>
-      <c r="C81" s="107"/>
+      <c r="C81" s="123"/>
       <c r="D81" s="49"/>
       <c r="E81" s="49"/>
       <c r="F81" s="1"/>
       <c r="G81" s="43"/>
       <c r="H81" s="52"/>
       <c r="I81" s="49"/>
-      <c r="J81" s="66" t="s">
+      <c r="J81" s="65" t="s">
         <v>120</v>
       </c>
       <c r="K81" s="1"/>
@@ -4552,24 +4554,24 @@
       <c r="M81" s="52"/>
       <c r="N81" s="56"/>
       <c r="O81" s="56"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="68"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="67"/>
     </row>
     <row r="82" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B82" s="9"/>
-      <c r="C82" s="107"/>
+      <c r="C82" s="123"/>
       <c r="D82" s="9"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="99" t="s">
+      <c r="F82" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="G82" s="99"/>
-      <c r="H82" s="99"/>
-      <c r="I82" s="132"/>
-      <c r="J82" s="133"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="105"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="9"/>
@@ -4583,10 +4585,10 @@
         <v>45</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="107"/>
+      <c r="C83" s="123"/>
       <c r="D83" s="9"/>
       <c r="E83" s="43"/>
-      <c r="F83" s="97" t="s">
+      <c r="F83" s="96" t="s">
         <v>71</v>
       </c>
       <c r="G83" s="43"/>
@@ -4606,10 +4608,10 @@
         <v>48</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="107"/>
+      <c r="C84" s="123"/>
       <c r="D84" s="9"/>
       <c r="E84" s="43"/>
-      <c r="F84" s="97" t="s">
+      <c r="F84" s="96" t="s">
         <v>71</v>
       </c>
       <c r="G84" s="43"/>
@@ -4617,7 +4619,7 @@
       <c r="I84" s="43"/>
       <c r="J84" s="1"/>
       <c r="K84" s="43"/>
-      <c r="L84" s="69"/>
+      <c r="L84" s="68"/>
       <c r="M84" s="9"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
@@ -4629,10 +4631,10 @@
         <v>53</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="107"/>
+      <c r="C85" s="123"/>
       <c r="D85" s="9"/>
       <c r="E85" s="43"/>
-      <c r="F85" s="96" t="s">
+      <c r="F85" s="95" t="s">
         <v>71</v>
       </c>
       <c r="G85" s="43"/>
@@ -4652,18 +4654,18 @@
         <v>54</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="107"/>
+      <c r="C86" s="123"/>
       <c r="D86" s="9"/>
       <c r="E86" s="43"/>
       <c r="F86" s="43"/>
       <c r="G86" s="43"/>
       <c r="H86" s="43"/>
       <c r="I86" s="50"/>
-      <c r="J86" s="66" t="s">
+      <c r="J86" s="65" t="s">
         <v>104</v>
       </c>
       <c r="K86" s="43"/>
-      <c r="L86" s="69"/>
+      <c r="L86" s="68"/>
       <c r="M86" s="9"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
@@ -4675,10 +4677,10 @@
         <v>55</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="108"/>
+      <c r="C87" s="124"/>
       <c r="D87" s="9"/>
       <c r="E87" s="43"/>
-      <c r="F87" s="96" t="s">
+      <c r="F87" s="95" t="s">
         <v>71</v>
       </c>
       <c r="G87" s="43"/>
@@ -4698,17 +4700,17 @@
         <v>10</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="109" t="s">
+      <c r="C88" s="125" t="s">
         <v>117</v>
       </c>
       <c r="D88" s="43"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="112" t="s">
+      <c r="G88" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="H88" s="113"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="114"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="130"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
@@ -4718,15 +4720,15 @@
       <c r="Q88" s="51"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="70" t="s">
+      <c r="A89" s="69" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="110"/>
+      <c r="C89" s="126"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="42" t="s">
+      <c r="G89" s="103" t="s">
         <v>131</v>
       </c>
       <c r="H89" s="43"/>
@@ -4745,7 +4747,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="110"/>
+      <c r="C90" s="126"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -4768,7 +4770,7 @@
         <v>29</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="110"/>
+      <c r="C91" s="126"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -4791,14 +4793,14 @@
         <v>37</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="110"/>
+      <c r="C92" s="126"/>
       <c r="D92" s="6"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
       <c r="I92" s="43"/>
-      <c r="J92" s="71" t="s">
+      <c r="J92" s="70" t="s">
         <v>92</v>
       </c>
       <c r="K92" s="9"/>
@@ -4814,7 +4816,7 @@
         <v>30</v>
       </c>
       <c r="B93" s="43"/>
-      <c r="C93" s="110"/>
+      <c r="C93" s="126"/>
       <c r="D93" s="6"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -4837,13 +4839,13 @@
         <v>31</v>
       </c>
       <c r="B94" s="43"/>
-      <c r="C94" s="110"/>
+      <c r="C94" s="126"/>
       <c r="D94" s="6"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="6"/>
       <c r="H94" s="43"/>
-      <c r="I94" s="71" t="s">
+      <c r="I94" s="70" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="43"/>
@@ -4860,7 +4862,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="43"/>
-      <c r="C95" s="110"/>
+      <c r="C95" s="126"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -4883,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="B96" s="43"/>
-      <c r="C96" s="110"/>
+      <c r="C96" s="126"/>
       <c r="D96" s="6"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -4906,9 +4908,9 @@
         <v>17</v>
       </c>
       <c r="B97" s="43"/>
-      <c r="C97" s="110"/>
+      <c r="C97" s="126"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="93"/>
+      <c r="E97" s="92"/>
       <c r="F97" s="1"/>
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
@@ -4929,7 +4931,7 @@
         <v>112</v>
       </c>
       <c r="B98" s="43"/>
-      <c r="C98" s="110"/>
+      <c r="C98" s="126"/>
       <c r="D98" s="43"/>
       <c r="E98" s="6"/>
       <c r="F98" s="1"/>
@@ -4948,11 +4950,11 @@
       <c r="Q98" s="14"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="72" t="s">
+      <c r="A99" s="71" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="43"/>
-      <c r="C99" s="110"/>
+      <c r="C99" s="126"/>
       <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="1"/>
@@ -4971,16 +4973,16 @@
       <c r="Q99" s="14"/>
     </row>
     <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="73" t="s">
+      <c r="A100" s="72" t="s">
         <v>113</v>
       </c>
       <c r="B100" s="43"/>
-      <c r="C100" s="110"/>
+      <c r="C100" s="126"/>
       <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="1"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="102"/>
+      <c r="H100" s="101"/>
       <c r="I100" s="43"/>
       <c r="J100" s="42" t="s">
         <v>132</v>
@@ -4998,14 +5000,14 @@
         <v>18</v>
       </c>
       <c r="B101" s="49"/>
-      <c r="C101" s="110"/>
-      <c r="D101" s="115" t="s">
+      <c r="C101" s="126"/>
+      <c r="D101" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="116"/>
-      <c r="F101" s="117"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="133"/>
       <c r="G101" s="1"/>
-      <c r="J101" s="74"/>
+      <c r="J101" s="73"/>
       <c r="K101" s="49"/>
       <c r="L101" s="49"/>
       <c r="M101" s="49"/>
@@ -5018,26 +5020,26 @@
       <c r="A102" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="75"/>
-      <c r="C102" s="110"/>
-      <c r="D102" s="95" t="s">
+      <c r="B102" s="74"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="95" t="s">
+      <c r="E102" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F102" s="76"/>
-      <c r="G102" s="94"/>
-      <c r="H102" s="103"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="102"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="74"/>
       <c r="K102" s="50"/>
       <c r="L102" s="50"/>
-      <c r="M102" s="75"/>
-      <c r="N102" s="77"/>
-      <c r="O102" s="77"/>
-      <c r="P102" s="77"/>
-      <c r="Q102" s="77"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="76"/>
+      <c r="O102" s="76"/>
+      <c r="P102" s="76"/>
+      <c r="Q102" s="76"/>
       <c r="S102" s="8" t="s">
         <v>46</v>
       </c>
@@ -5046,99 +5048,107 @@
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="75"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="97" t="s">
+      <c r="B103" s="74"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="G103" s="94"/>
-      <c r="H103" s="103"/>
-      <c r="I103" s="76"/>
-      <c r="J103" s="75"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="74"/>
       <c r="K103" s="50"/>
       <c r="L103" s="50"/>
-      <c r="M103" s="75"/>
-      <c r="N103" s="77"/>
-      <c r="O103" s="77"/>
-      <c r="P103" s="77"/>
-      <c r="Q103" s="77"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="76"/>
+      <c r="O103" s="76"/>
+      <c r="P103" s="76"/>
+      <c r="Q103" s="76"/>
       <c r="S103" s="8"/>
     </row>
     <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="75"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="97" t="s">
+      <c r="B104" s="74"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="94"/>
-      <c r="H104" s="75"/>
-      <c r="J104" s="75"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="74"/>
+      <c r="J104" s="74"/>
       <c r="K104" s="50"/>
       <c r="L104" s="50"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="77"/>
-      <c r="O104" s="77"/>
-      <c r="P104" s="77"/>
-      <c r="Q104" s="77"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="76"/>
+      <c r="O104" s="76"/>
+      <c r="P104" s="76"/>
+      <c r="Q104" s="76"/>
       <c r="S104" s="8"/>
     </row>
     <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="75"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="76"/>
-      <c r="E105" s="76"/>
-      <c r="F105" s="95" t="s">
+      <c r="B105" s="74"/>
+      <c r="C105" s="126"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="G105" s="94"/>
-      <c r="H105" s="76"/>
-      <c r="I105" s="76"/>
-      <c r="J105" s="75"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="74"/>
       <c r="K105" s="50"/>
       <c r="L105" s="50"/>
-      <c r="M105" s="75"/>
-      <c r="N105" s="77"/>
-      <c r="O105" s="77"/>
-      <c r="P105" s="77"/>
-      <c r="Q105" s="77"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="76"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="76"/>
+      <c r="Q105" s="76"/>
       <c r="S105" s="8"/>
     </row>
     <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="75"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="76"/>
-      <c r="F106" s="97" t="s">
+      <c r="B106" s="74"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="G106" s="94"/>
-      <c r="H106" s="76"/>
-      <c r="I106" s="76"/>
-      <c r="J106" s="75"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="74"/>
       <c r="K106" s="50"/>
       <c r="L106" s="50"/>
-      <c r="M106" s="75"/>
-      <c r="N106" s="77"/>
-      <c r="O106" s="77"/>
-      <c r="P106" s="77"/>
-      <c r="Q106" s="77"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="76"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="76"/>
+      <c r="Q106" s="76"/>
       <c r="S106" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C65:C87"/>
+    <mergeCell ref="C88:C106"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="D101:F101"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -5148,14 +5158,6 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C65:C87"/>
-    <mergeCell ref="C88:C106"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="D101:F101"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemon\Desktop\zeen\GameProject\福山\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\GameProject\福山\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -987,11 +987,21 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>現在進行中</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シンコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1112,7 +1122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,6 +1238,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1549,7 +1565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1661,12 +1677,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="13" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1683,9 +1693,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1868,6 +1875,51 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1880,21 +1932,12 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1910,50 +1953,32 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2002,7 +2027,7 @@
             <xdr14:cNvPr id="3" name="インク 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2067,7 +2092,7 @@
             <xdr14:cNvPr id="5" name="インク 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2146,7 +2171,7 @@
         </emma:interpretation>
       </emma:emma>
     </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">50952 45509 9472,'0'19'0,"0"37"64,0-36 32,0 17 32,0 1 64,0-1-96,0 1 0,0 19-32,0 0-64,0-19 96,0 0-64,0 18-32,0 1-64,0-20 32,0 21 160,0-2 64,0-18 64,0 18 64,0-18-96,0 0-64,0 0-64,0-19-96,0 0 32,0-1 32,0 2-32,0-2-32,0 2 32,0-2 32,0-18-32,0 19-32,0 0-64,0 0 32,0 0 32,0-19 0,0 19 0,0 0 64,0-1-32,0-18-32,0 20 32,0-2-32,0 2-96,0-20 64,0 18 32,0 1 0,0-19 0,0 19 64,0-19-96,0 19-64,0-19 128,0 19 32,0-19 0,0 18 32,0-18-128,0 20 0,0-20 32,-94 0 0,94 0 0,0 18 64,0-18-32,0 0-32,0 20-64,0-20 32,0 0 96,0 18 32,0-18-192,-19 0-288,19 0-32,0 0-768,0 0-320,0-18-928,-19-2-672,19-18 1376</inkml:trace>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">50952 45509 9472,'0'21'0,"0"39"64,0-38 32,0 18 32,0 1 64,0-2-96,0 3 0,0 19-32,0 1-64,0-21 96,0 0-64,0 19-32,0 2-64,0-22 32,0 22 160,0-1 64,0-20 64,0 19 64,0-19-96,0 0-64,0 0-64,0-20-96,0-1 32,0 0 32,0 1-32,0-1-32,0 1 32,0-1 32,0-20-32,0 20-32,0 1-64,0-1 32,0 1 32,0-21 0,0 20 0,0 1 64,0-2-32,0-19-32,0 22 32,0-3-32,0 3-96,0-22 64,0 19 32,0 2 0,0-21 0,0 20 64,0-20-96,0 21-64,0-21 128,0 20 32,0-20 0,0 20 32,0-20-128,0 21 0,0-21 32,-94 0 0,94 0 0,0 20 64,0-20-32,0 0-32,0 21-64,0-21 32,0 0 96,0 20 32,0-20-192,-19 0-288,19 0-32,0 0-768,0 0-320,0-20-928,-19-1-672,19-20 1376</inkml:trace>
   </inkml:traceGroup>
 </inkml:ink>
 </file>
@@ -2223,8 +2248,8 @@
               </emma:one-of>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">6994 45754 8576,'-76'0'3232,"76"0"-1728,19 0-1760</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1610">7316 45641 2304,'-38'0'864,"76"0"-448,-38 0-704,0 0 128,0 38-736,0-38-288</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">6988 45762 8576,'-73'0'3232,"73"0"-1728,18 0-1760</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1610">7297 45641 2304,'-36'0'864,"72"0"-448,-36 0-704,0 0 128,0 41-736,0-41-288</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -2234,8 +2259,8 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">7070 46321 1536,'-38'0'608,"38"0"-320,0 0-128,0 0 192,0 0 0,0 0 32,0 0 224,0 0 64</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266">7032 46340 5664,'0'19'288,"0"18"-128,0-17-128,0 18-32,-19-20 0,19 1 64,0 19-32,-19-19-32,19 19 224,-19-20 96,19 20 32,-18 0 32,-1 0-64,19 0 32,-19 0-192,19 0-32,-19-1 64,19-18-384,0 19-96,-19-20 320,19 20 192,0-18-64,-19-2-96,19-18-32,0 19-32,0 0-96,0-19 0,0 0-160,0 19-64,0-19 64,0 0 96,0 0-64,0 19 64,0-19 96,0 0 32,0 0-64,0 18 64,-19-18-192,19 0 0,0 20-2368</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">7061 46372 1536,'-37'0'608,"37"0"-320,0 0-128,0 0 192,0 0 0,0 0 32,0 0 224,0 0 64</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266">7024 46392 5664,'0'21'288,"0"19"-128,0-19-128,0 20-32,-18-22 0,18 2 64,0 20-32,-18-21-32,18 21 224,-18-22 96,18 22 32,-18 0 32,0 0-64,18 0 32,-18-1-192,18 1-32,-18-1 64,18-20-384,0 21-96,-19-21 320,19 21 192,0-20-64,-18-2-96,18-19-32,0 21-32,0-1-96,0-20 0,0 0-160,0 21-64,0-21 64,0 0 96,0 0-64,0 20 64,0-20 96,0 0 32,0 0-64,0 19 64,-18-19-192,18 0 0,0 22-2368</inkml:trace>
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
@@ -2508,21 +2533,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s" ph="1">
         <v>103</v>
       </c>
@@ -2532,10 +2557,10 @@
       <c r="C1" s="10">
         <v>42804</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="37">
         <v>42805</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="37">
         <v>42806</v>
       </c>
       <c r="F1" s="11">
@@ -2553,13 +2578,13 @@
       <c r="J1" s="11">
         <v>42811</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="37">
         <v>42812</v>
       </c>
-      <c r="L1" s="39">
+      <c r="L1" s="37">
         <v>42813</v>
       </c>
-      <c r="M1" s="39">
+      <c r="M1" s="37">
         <v>42814</v>
       </c>
       <c r="N1" s="11">
@@ -2575,12 +2600,12 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="13"/>
@@ -2602,7 +2627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2629,7 +2654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2654,24 +2679,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="119" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2681,16 +2706,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="136" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -2712,7 +2737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
         <v>77</v>
       </c>
@@ -2741,7 +2766,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
         <v>79</v>
       </c>
@@ -2772,7 +2797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>97</v>
       </c>
@@ -2801,11 +2826,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="97" t="s">
+      <c r="S9" s="94" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>98</v>
       </c>
@@ -2828,9 +2853,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
@@ -2855,7 +2882,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
@@ -2880,12 +2907,12 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="87" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="84" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="13"/>
@@ -2893,7 +2920,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="80"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2905,15 +2932,15 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2930,13 +2957,13 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="88" t="s">
+      <c r="C15" s="81"/>
+      <c r="D15" s="85" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="13"/>
@@ -2955,13 +2982,13 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="79" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="76" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="13"/>
@@ -2980,15 +3007,15 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>124</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="80"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3005,15 +3032,15 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -3030,21 +3057,21 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3055,15 +3082,15 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="118" t="s">
+      <c r="C20" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3080,16 +3107,16 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="129" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="9"/>
@@ -3107,17 +3134,17 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="110"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3132,7 +3159,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
@@ -3141,10 +3168,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="131"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3157,7 +3184,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
@@ -3168,10 +3195,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="113" t="s">
+      <c r="I24" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="114"/>
+      <c r="J24" s="133"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3182,7 +3209,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3191,10 +3218,10 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="35"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="135"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="78"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3203,7 +3230,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>101</v>
       </c>
@@ -3228,7 +3255,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3280,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -3278,7 +3305,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -3303,7 +3330,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3355,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>93</v>
       </c>
@@ -3340,10 +3367,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="111" t="s">
+      <c r="J31" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="112"/>
+      <c r="K31" s="123"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3353,7 +3380,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>94</v>
       </c>
@@ -3378,7 +3405,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>95</v>
       </c>
@@ -3403,7 +3430,7 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
@@ -3428,7 +3455,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>96</v>
       </c>
@@ -3453,7 +3480,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -3478,7 +3505,7 @@
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -3503,7 +3530,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -3522,7 +3549,7 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -3541,7 +3568,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -3560,7 +3587,7 @@
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -3579,7 +3606,7 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -3598,8 +3625,8 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s" ph="1">
+    <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.15">
+      <c r="A43" s="43" t="s" ph="1">
         <v>56</v>
       </c>
       <c r="B43" s="11">
@@ -3608,10 +3635,10 @@
       <c r="C43" s="11">
         <v>42804</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="37">
         <v>42805</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="37">
         <v>42806</v>
       </c>
       <c r="F43" s="11">
@@ -3629,13 +3656,13 @@
       <c r="J43" s="11">
         <v>42811</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="37">
         <v>42812</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="37">
         <v>42813</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="37">
         <v>42814</v>
       </c>
       <c r="N43" s="11">
@@ -3651,23 +3678,23 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="44" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="122" t="s">
+      <c r="C44" s="106" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="127" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="127"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -3676,21 +3703,21 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="123"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="90" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="49"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="46"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -3699,21 +3726,21 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="123"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="90" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -3722,21 +3749,21 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="123"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="95" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="50"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="47"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -3745,164 +3772,164 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="123"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="127" t="s">
+      <c r="G48" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="51"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="48"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="123"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="40" t="s">
+      <c r="G49" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="51"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="48"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="123"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="40" t="s">
+      <c r="G50" s="41"/>
+      <c r="H50" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+    </row>
+    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="123"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="40" t="s">
+      <c r="G51" s="41"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="123"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="40" t="s">
+      <c r="G52" s="41"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+    </row>
+    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="123"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="89" t="s">
+      <c r="G53" s="41"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+    </row>
+    <row r="54" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="41" t="s">
+      <c r="J54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
@@ -3910,29 +3937,29 @@
       <c r="S54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T54" s="106" t="s">
+      <c r="T54" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="U54" s="106"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U54" s="118"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="40" t="s">
+      <c r="J55" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
@@ -3940,29 +3967,29 @@
       <c r="S55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T55" s="106" t="s">
+      <c r="T55" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="U55" s="106"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U55" s="118"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="40" t="s">
+      <c r="J56" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3970,209 +3997,209 @@
       <c r="S56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T56" s="106"/>
-      <c r="U56" s="106"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+    </row>
+    <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="100" t="s">
+      <c r="K57" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L57" s="97"/>
+      <c r="M57" s="97"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+    </row>
+    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="54" t="s">
+      <c r="K58" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+    </row>
+    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="40" t="s">
+      <c r="J59" s="46"/>
+      <c r="K59" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+    </row>
+    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="40" t="s">
+      <c r="J60" s="46"/>
+      <c r="K60" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="L60" s="43"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L60" s="41"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+    </row>
+    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="40" t="s">
+      <c r="J61" s="46"/>
+      <c r="K61" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="43"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L61" s="41"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+    </row>
+    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="120" t="s">
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="M62" s="49"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="46"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="121"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="105"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+    </row>
+    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="40" t="s">
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-    </row>
-    <row r="65" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+    </row>
+    <row r="65" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A65" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="122" t="s">
+      <c r="C65" s="106" t="s">
         <v>116</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="54" t="s">
         <v>118</v>
       </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
+      <c r="G65" s="55"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="14"/>
@@ -4180,22 +4207,22 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="123"/>
+      <c r="C66" s="107"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="90" t="s">
+      <c r="E66" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F66" s="43"/>
+      <c r="F66" s="41"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="14"/>
@@ -4203,22 +4230,22 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="123"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="90" t="s">
+      <c r="E67" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="43"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="14"/>
@@ -4226,22 +4253,22 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="123"/>
+      <c r="C68" s="107"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="90" t="s">
+      <c r="E68" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F68" s="43"/>
+      <c r="F68" s="41"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="14"/>
@@ -4249,22 +4276,22 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="123"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="90" t="s">
+      <c r="E69" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F69" s="43"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="14"/>
@@ -4272,22 +4299,22 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="123"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="90" t="s">
+      <c r="C70" s="107"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="F70" s="43"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="14"/>
@@ -4295,283 +4322,283 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A71" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="59" t="s">
+      <c r="B71" s="46"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
+    <row r="72" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="90" t="s">
+      <c r="B72" s="46"/>
+      <c r="C72" s="107"/>
+      <c r="D72" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61" t="s">
+    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="90" t="s">
+      <c r="B73" s="46"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="91" t="s">
+      <c r="C74" s="107"/>
+      <c r="D74" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="43"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="6"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
       <c r="M74" s="9"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
+    <row r="75" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="99" t="s">
+      <c r="G75" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="96"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="60"/>
+      <c r="Q75" s="60"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="107"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="134" t="s">
+      <c r="G76" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="H76" s="62" t="s">
+      <c r="H76" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="I76" s="43"/>
-      <c r="J76" s="49"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="52" t="s">
+      <c r="I76" s="41"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="M76" s="49" t="s">
+      <c r="M76" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="N76" s="64"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="64"/>
-      <c r="Q76" s="64"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N76" s="61"/>
+      <c r="O76" s="53"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="62" t="s">
+      <c r="G77" s="41"/>
+      <c r="H77" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="I77" s="49"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="49" t="s">
+      <c r="I77" s="46"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="N77" s="56"/>
-      <c r="O77" s="64"/>
-      <c r="P77" s="64"/>
-      <c r="Q77" s="64"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N77" s="53"/>
+      <c r="O77" s="61"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="61"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="49"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="62" t="s">
+      <c r="G78" s="41"/>
+      <c r="H78" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="64"/>
-      <c r="P78" s="64"/>
-      <c r="Q78" s="64"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="61"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="61"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="49"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="107"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="62" t="s">
+      <c r="G79" s="41"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="64"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="53"/>
+      <c r="O79" s="61"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="61"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="107"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="62" t="s">
+      <c r="G80" s="41"/>
+      <c r="H80" s="49"/>
+      <c r="I80" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="J80" s="65" t="s">
+      <c r="J80" s="62" t="s">
         <v>138</v>
       </c>
       <c r="K80" s="1"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="64"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L80" s="41"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="53"/>
+      <c r="O80" s="53"/>
+      <c r="P80" s="63"/>
+      <c r="Q80" s="61"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="65" t="s">
+      <c r="G81" s="41"/>
+      <c r="H81" s="49"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="62" t="s">
         <v>120</v>
       </c>
       <c r="K81" s="1"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="67"/>
-    </row>
-    <row r="82" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="41"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="53"/>
+      <c r="O81" s="53"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="64"/>
+    </row>
+    <row r="82" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B82" s="9"/>
-      <c r="C82" s="123"/>
+      <c r="C82" s="107"/>
       <c r="D82" s="9"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="98" t="s">
+      <c r="F82" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="G82" s="98"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="105"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="101"/>
+      <c r="J82" s="102"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="9"/>
@@ -4580,22 +4607,22 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="123"/>
+      <c r="C83" s="107"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="96" t="s">
+      <c r="E83" s="41"/>
+      <c r="F83" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="43"/>
+      <c r="K83" s="41"/>
       <c r="L83" s="1"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
@@ -4603,137 +4630,137 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="123"/>
+      <c r="C84" s="107"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="96" t="s">
+      <c r="E84" s="41"/>
+      <c r="F84" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="68"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="65"/>
       <c r="M84" s="9"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="123"/>
+      <c r="C85" s="107"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="95" t="s">
+      <c r="E85" s="41"/>
+      <c r="F85" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="43"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="41"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="43"/>
+      <c r="L85" s="41"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="123"/>
+      <c r="C86" s="107"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="65" t="s">
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="47"/>
+      <c r="J86" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="K86" s="43"/>
-      <c r="L86" s="68"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="65"/>
       <c r="M86" s="9"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="124"/>
+      <c r="C87" s="108"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="95" t="s">
+      <c r="E87" s="41"/>
+      <c r="F87" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
       <c r="M87" s="9"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A88" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="125" t="s">
+      <c r="C88" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="43"/>
+      <c r="D88" s="41"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="128" t="s">
+      <c r="G88" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="130"/>
+      <c r="H88" s="113"/>
+      <c r="I88" s="113"/>
+      <c r="J88" s="114"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="51"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="69" t="s">
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="126"/>
+      <c r="C89" s="110"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="103" t="s">
+      <c r="G89" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
@@ -4742,21 +4769,21 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="126"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="42" t="s">
+      <c r="G90" s="41"/>
+      <c r="H90" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -4765,21 +4792,21 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="126"/>
+      <c r="C91" s="110"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="42" t="s">
+      <c r="G91" s="41"/>
+      <c r="H91" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -4788,19 +4815,19 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="126"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="6"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="70" t="s">
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="67" t="s">
         <v>92</v>
       </c>
       <c r="K92" s="9"/>
@@ -4811,21 +4838,21 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="126"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="110"/>
       <c r="D93" s="6"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="42" t="s">
+      <c r="H93" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -4834,21 +4861,21 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="126"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="110"/>
       <c r="D94" s="6"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="70" t="s">
+      <c r="H94" s="41"/>
+      <c r="I94" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="J94" s="43"/>
+      <c r="J94" s="41"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -4857,21 +4884,21 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="126"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="110"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="42" t="s">
+      <c r="H95" s="41"/>
+      <c r="I95" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="J95" s="43"/>
+      <c r="J95" s="41"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -4880,21 +4907,21 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="43"/>
-      <c r="C96" s="126"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="110"/>
       <c r="D96" s="6"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="42" t="s">
+      <c r="H96" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -4903,21 +4930,21 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="43"/>
-      <c r="C97" s="126"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="110"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="92"/>
+      <c r="E97" s="89"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="42" t="s">
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="J97" s="43"/>
+      <c r="J97" s="41"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -4926,21 +4953,21 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="43"/>
-      <c r="C98" s="126"/>
-      <c r="D98" s="43"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="41"/>
       <c r="E98" s="6"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="43"/>
+      <c r="G98" s="41"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="42" t="s">
+      <c r="I98" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="J98" s="43"/>
+      <c r="J98" s="41"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -4949,19 +4976,19 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A99" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="126"/>
-      <c r="D99" s="43"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="6"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="43"/>
+      <c r="G99" s="41"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="42" t="s">
+      <c r="I99" s="47"/>
+      <c r="J99" s="40" t="s">
         <v>104</v>
       </c>
       <c r="K99" s="9"/>
@@ -4972,19 +4999,19 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="72" t="s">
+    <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="126"/>
-      <c r="D100" s="43"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="41"/>
       <c r="E100" s="6"/>
       <c r="F100" s="1"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="101"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="42" t="s">
+      <c r="H100" s="98"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="40" t="s">
         <v>132</v>
       </c>
       <c r="K100" s="9"/>
@@ -4995,160 +5022,152 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="47" t="s">
+    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="126"/>
-      <c r="D101" s="131" t="s">
+      <c r="B101" s="46"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="132"/>
-      <c r="F101" s="133"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="117"/>
       <c r="G101" s="1"/>
-      <c r="J101" s="73"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="49"/>
+      <c r="J101" s="70"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="74"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="94" t="s">
+      <c r="B102" s="71"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="94" t="s">
+      <c r="E102" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F102" s="75"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="102"/>
-      <c r="I102" s="75"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="76"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="90"/>
+      <c r="H102" s="99"/>
+      <c r="I102" s="72"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="71"/>
+      <c r="N102" s="73"/>
+      <c r="O102" s="73"/>
+      <c r="P102" s="73"/>
+      <c r="Q102" s="73"/>
       <c r="S102" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="74"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="96" t="s">
+      <c r="B103" s="71"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="G103" s="93"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="75"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
+      <c r="G103" s="90"/>
+      <c r="H103" s="99"/>
+      <c r="I103" s="72"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="47"/>
+      <c r="L103" s="47"/>
+      <c r="M103" s="71"/>
+      <c r="N103" s="73"/>
+      <c r="O103" s="73"/>
+      <c r="P103" s="73"/>
+      <c r="Q103" s="73"/>
       <c r="S103" s="8"/>
     </row>
-    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="74"/>
-      <c r="C104" s="126"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="96" t="s">
+      <c r="B104" s="71"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="72"/>
+      <c r="E104" s="72"/>
+      <c r="F104" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="93"/>
-      <c r="H104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="50"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="76"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
-      <c r="Q104" s="76"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="71"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="47"/>
+      <c r="L104" s="47"/>
+      <c r="M104" s="71"/>
+      <c r="N104" s="73"/>
+      <c r="O104" s="73"/>
+      <c r="P104" s="73"/>
+      <c r="Q104" s="73"/>
       <c r="S104" s="8"/>
     </row>
-    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="74"/>
-      <c r="C105" s="126"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="94" t="s">
+      <c r="B105" s="71"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="F105" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="G105" s="93"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
+      <c r="G105" s="90"/>
+      <c r="H105" s="72"/>
+      <c r="I105" s="72"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="47"/>
+      <c r="L105" s="47"/>
+      <c r="M105" s="71"/>
+      <c r="N105" s="73"/>
+      <c r="O105" s="73"/>
+      <c r="P105" s="73"/>
+      <c r="Q105" s="73"/>
       <c r="S105" s="8"/>
     </row>
-    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="74"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="96" t="s">
+      <c r="B106" s="71"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="G106" s="93"/>
-      <c r="H106" s="75"/>
-      <c r="I106" s="75"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="50"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="76"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="72"/>
+      <c r="I106" s="72"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="47"/>
+      <c r="L106" s="47"/>
+      <c r="M106" s="71"/>
+      <c r="N106" s="73"/>
+      <c r="O106" s="73"/>
+      <c r="P106" s="73"/>
+      <c r="Q106" s="73"/>
       <c r="S106" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C65:C87"/>
-    <mergeCell ref="C88:C106"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="D101:F101"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -5158,6 +5177,14 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C65:C87"/>
+    <mergeCell ref="C88:C106"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="D101:F101"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\GameProject\福山\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemon\Desktop\zeen\GameProject\福山\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -987,21 +987,11 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>現在進行中</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>シンコウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1122,7 +1112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,12 +1228,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1565,7 +1549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1677,6 +1661,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="13" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1693,6 +1683,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1875,110 +1868,92 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2027,7 +2002,7 @@
             <xdr14:cNvPr id="3" name="インク 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2092,7 +2067,7 @@
             <xdr14:cNvPr id="5" name="インク 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2171,7 +2146,7 @@
         </emma:interpretation>
       </emma:emma>
     </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">50952 45509 9472,'0'21'0,"0"39"64,0-38 32,0 18 32,0 1 64,0-2-96,0 3 0,0 19-32,0 1-64,0-21 96,0 0-64,0 19-32,0 2-64,0-22 32,0 22 160,0-1 64,0-20 64,0 19 64,0-19-96,0 0-64,0 0-64,0-20-96,0-1 32,0 0 32,0 1-32,0-1-32,0 1 32,0-1 32,0-20-32,0 20-32,0 1-64,0-1 32,0 1 32,0-21 0,0 20 0,0 1 64,0-2-32,0-19-32,0 22 32,0-3-32,0 3-96,0-22 64,0 19 32,0 2 0,0-21 0,0 20 64,0-20-96,0 21-64,0-21 128,0 20 32,0-20 0,0 20 32,0-20-128,0 21 0,0-21 32,-94 0 0,94 0 0,0 20 64,0-20-32,0 0-32,0 21-64,0-21 32,0 0 96,0 20 32,0-20-192,-19 0-288,19 0-32,0 0-768,0 0-320,0-20-928,-19-1-672,19-20 1376</inkml:trace>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">50952 45509 9472,'0'19'0,"0"37"64,0-36 32,0 17 32,0 1 64,0-1-96,0 1 0,0 19-32,0 0-64,0-19 96,0 0-64,0 18-32,0 1-64,0-20 32,0 21 160,0-2 64,0-18 64,0 18 64,0-18-96,0 0-64,0 0-64,0-19-96,0 0 32,0-1 32,0 2-32,0-2-32,0 2 32,0-2 32,0-18-32,0 19-32,0 0-64,0 0 32,0 0 32,0-19 0,0 19 0,0 0 64,0-1-32,0-18-32,0 20 32,0-2-32,0 2-96,0-20 64,0 18 32,0 1 0,0-19 0,0 19 64,0-19-96,0 19-64,0-19 128,0 19 32,0-19 0,0 18 32,0-18-128,0 20 0,0-20 32,-94 0 0,94 0 0,0 18 64,0-18-32,0 0-32,0 20-64,0-20 32,0 0 96,0 18 32,0-18-192,-19 0-288,19 0-32,0 0-768,0 0-320,0-18-928,-19-2-672,19-18 1376</inkml:trace>
   </inkml:traceGroup>
 </inkml:ink>
 </file>
@@ -2248,8 +2223,8 @@
               </emma:one-of>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">6988 45762 8576,'-73'0'3232,"73"0"-1728,18 0-1760</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1610">7297 45641 2304,'-36'0'864,"72"0"-448,-36 0-704,0 0 128,0 41-736,0-41-288</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">6994 45754 8576,'-76'0'3232,"76"0"-1728,19 0-1760</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1610">7316 45641 2304,'-38'0'864,"76"0"-448,-38 0-704,0 0 128,0 38-736,0-38-288</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -2259,8 +2234,8 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">7061 46372 1536,'-37'0'608,"37"0"-320,0 0-128,0 0 192,0 0 0,0 0 32,0 0 224,0 0 64</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266">7024 46392 5664,'0'21'288,"0"19"-128,0-19-128,0 20-32,-18-22 0,18 2 64,0 20-32,-18-21-32,18 21 224,-18-22 96,18 22 32,-18 0 32,0 0-64,18 0 32,-18-1-192,18 1-32,-18-1 64,18-20-384,0 21-96,-19-21 320,19 21 192,0-20-64,-18-2-96,18-19-32,0 21-32,0-1-96,0-20 0,0 0-160,0 21-64,0-21 64,0 0 96,0 0-64,0 20 64,0-20 96,0 0 32,0 0-64,0 19 64,-18-19-192,18 0 0,0 22-2368</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">7070 46321 1536,'-38'0'608,"38"0"-320,0 0-128,0 0 192,0 0 0,0 0 32,0 0 224,0 0 64</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266">7032 46340 5664,'0'19'288,"0"18"-128,0-17-128,0 18-32,-19-20 0,19 1 64,0 19-32,-19-19-32,19 19 224,-19-20 96,19 20 32,-18 0 32,-1 0-64,19 0 32,-19 0-192,19 0-32,-19-1 64,19-18-384,0 19-96,-19-20 320,19 20 192,0-18-64,-19-2-96,19-18-32,0 19-32,0 0-96,0-19 0,0 0-160,0 19-64,0-19 64,0 0 96,0 0-64,0 19 64,0-19 96,0 0 32,0 0-64,0 18 64,-19-18-192,19 0 0,0 20-2368</inkml:trace>
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
@@ -2533,21 +2508,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s" ph="1">
         <v>103</v>
       </c>
@@ -2557,10 +2532,10 @@
       <c r="C1" s="10">
         <v>42804</v>
       </c>
-      <c r="D1" s="37">
+      <c r="D1" s="39">
         <v>42805</v>
       </c>
-      <c r="E1" s="37">
+      <c r="E1" s="39">
         <v>42806</v>
       </c>
       <c r="F1" s="11">
@@ -2578,13 +2553,13 @@
       <c r="J1" s="11">
         <v>42811</v>
       </c>
-      <c r="K1" s="37">
+      <c r="K1" s="39">
         <v>42812</v>
       </c>
-      <c r="L1" s="37">
+      <c r="L1" s="39">
         <v>42813</v>
       </c>
-      <c r="M1" s="37">
+      <c r="M1" s="39">
         <v>42814</v>
       </c>
       <c r="N1" s="11">
@@ -2600,12 +2575,12 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="13"/>
@@ -2627,7 +2602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2654,7 +2629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2679,24 +2654,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2706,16 +2681,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="16" t="s">
         <v>75</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -2737,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>77</v>
       </c>
@@ -2766,7 +2741,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>79</v>
       </c>
@@ -2797,7 +2772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>97</v>
       </c>
@@ -2826,11 +2801,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="94" t="s">
+      <c r="S9" s="97" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>98</v>
       </c>
@@ -2853,11 +2828,9 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2855,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
@@ -2907,12 +2880,12 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="87" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="13"/>
@@ -2920,7 +2893,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="77"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2932,15 +2905,15 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2957,13 +2930,13 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>126</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="85" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="88" t="s">
         <v>128</v>
       </c>
       <c r="E15" s="13"/>
@@ -2982,13 +2955,13 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>125</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="76" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="79" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="13"/>
@@ -3007,15 +2980,15 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>124</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="80"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3032,15 +3005,15 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -3057,21 +3030,21 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="126"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="117"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3082,15 +3055,15 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3107,16 +3080,16 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="129" t="s">
+      <c r="E21" s="36" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="9"/>
@@ -3134,17 +3107,17 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="130" t="s">
+      <c r="E22" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="130"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3159,7 +3132,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
@@ -3168,10 +3141,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="131" t="s">
+      <c r="G23" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="131"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3184,7 +3157,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
@@ -3195,10 +3168,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="132" t="s">
+      <c r="I24" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="133"/>
+      <c r="J24" s="114"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3209,7 +3182,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3218,10 +3191,10 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="35"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="135"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="75"/>
+      <c r="L25" s="78"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3230,7 +3203,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>101</v>
       </c>
@@ -3255,7 +3228,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -3280,7 +3253,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -3305,7 +3278,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -3330,7 +3303,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -3355,7 +3328,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>93</v>
       </c>
@@ -3367,10 +3340,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="122" t="s">
+      <c r="J31" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="K31" s="123"/>
+      <c r="K31" s="112"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3380,7 +3353,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>94</v>
       </c>
@@ -3405,7 +3378,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>95</v>
       </c>
@@ -3430,7 +3403,7 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
@@ -3455,7 +3428,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>96</v>
       </c>
@@ -3480,7 +3453,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -3505,7 +3478,7 @@
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -3530,7 +3503,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -3549,7 +3522,7 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -3568,7 +3541,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -3587,7 +3560,7 @@
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -3606,7 +3579,7 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -3625,8 +3598,8 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.15">
-      <c r="A43" s="43" t="s" ph="1">
+    <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s" ph="1">
         <v>56</v>
       </c>
       <c r="B43" s="11">
@@ -3635,10 +3608,10 @@
       <c r="C43" s="11">
         <v>42804</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="39">
         <v>42805</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="39">
         <v>42806</v>
       </c>
       <c r="F43" s="11">
@@ -3656,13 +3629,13 @@
       <c r="J43" s="11">
         <v>42811</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="39">
         <v>42812</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="39">
         <v>42813</v>
       </c>
-      <c r="M43" s="37">
+      <c r="M43" s="39">
         <v>42814</v>
       </c>
       <c r="N43" s="11">
@@ -3678,23 +3651,23 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="44" t="s">
+    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="122" t="s">
         <v>115</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="111" t="s">
+      <c r="E44" s="43"/>
+      <c r="F44" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="G44" s="111"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
@@ -3703,21 +3676,21 @@
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="107"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="87" t="s">
+      <c r="E45" s="43"/>
+      <c r="F45" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="46"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="49"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
@@ -3726,21 +3699,21 @@
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="107"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="87" t="s">
+      <c r="E46" s="43"/>
+      <c r="F46" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
@@ -3749,21 +3722,21 @@
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="107"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="92" t="s">
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="47"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="50"/>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
@@ -3772,164 +3745,164 @@
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="44" t="s">
+    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="107"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="111" t="s">
+      <c r="G48" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="48"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="51"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="107"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H49" s="38" t="s">
+      <c r="H49" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="48"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="51"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="107"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="38" t="s">
+      <c r="G50" s="43"/>
+      <c r="H50" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+    </row>
+    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="107"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="38" t="s">
+      <c r="G51" s="43"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="48"/>
-      <c r="Q51" s="48"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="107"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="38" t="s">
+      <c r="G52" s="43"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="48"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
-      <c r="Q52" s="48"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+    </row>
+    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="107"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="86" t="s">
+      <c r="G53" s="43"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
-      <c r="Q53" s="48"/>
-    </row>
-    <row r="54" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+    </row>
+    <row r="54" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="39" t="s">
+      <c r="J54" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
@@ -3937,29 +3910,29 @@
       <c r="S54" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T54" s="118" t="s">
+      <c r="T54" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="U54" s="118"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U54" s="106"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="38" t="s">
+      <c r="J55" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
@@ -3967,29 +3940,29 @@
       <c r="S55" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="T55" s="118" t="s">
+      <c r="T55" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="U55" s="118"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="U55" s="106"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="38" t="s">
+      <c r="J56" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3997,209 +3970,209 @@
       <c r="S56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="44" t="s">
+      <c r="T56" s="106"/>
+      <c r="U56" s="106"/>
+    </row>
+    <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="97" t="s">
+      <c r="K57" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="L57" s="97"/>
-      <c r="M57" s="97"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-      <c r="P57" s="50"/>
-      <c r="Q57" s="50"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+    </row>
+    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="51" t="s">
+      <c r="K58" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L58" s="55"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+    </row>
+    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="107"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="38" t="s">
+      <c r="J59" s="49"/>
+      <c r="K59" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="56"/>
+      <c r="Q59" s="56"/>
+    </row>
+    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="38" t="s">
+      <c r="J60" s="49"/>
+      <c r="K60" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L60" s="41"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L60" s="43"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+    </row>
+    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="38" t="s">
+      <c r="J61" s="49"/>
+      <c r="K61" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="L61" s="41"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L61" s="43"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+    </row>
+    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="104" t="s">
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="M62" s="46"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M62" s="49"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="56"/>
+      <c r="Q62" s="56"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="107"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="105"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J63" s="49"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="121"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+    </row>
+    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="46"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="46"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="38" t="s">
+      <c r="J64" s="49"/>
+      <c r="K64" s="49"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-    </row>
-    <row r="65" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="N64" s="56"/>
+      <c r="O64" s="56"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="56"/>
+    </row>
+    <row r="65" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="106" t="s">
+      <c r="C65" s="122" t="s">
         <v>116</v>
       </c>
       <c r="D65" s="9"/>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="57" t="s">
         <v>118</v>
       </c>
       <c r="F65" s="9"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="14"/>
@@ -4207,22 +4180,22 @@
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="107"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="43"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="14"/>
@@ -4230,22 +4203,22 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="107"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="87" t="s">
+      <c r="E67" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="43"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="14"/>
@@ -4253,22 +4226,22 @@
       <c r="P67" s="14"/>
       <c r="Q67" s="14"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B68" s="9"/>
-      <c r="C68" s="107"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="87" t="s">
+      <c r="E68" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F68" s="41"/>
+      <c r="F68" s="43"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="14"/>
@@ -4276,22 +4249,22 @@
       <c r="P68" s="14"/>
       <c r="Q68" s="14"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B69" s="9"/>
-      <c r="C69" s="107"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="87" t="s">
+      <c r="E69" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F69" s="41"/>
+      <c r="F69" s="43"/>
       <c r="G69" s="9"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="14"/>
@@ -4299,22 +4272,22 @@
       <c r="P69" s="14"/>
       <c r="Q69" s="14"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B70" s="9"/>
-      <c r="C70" s="107"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="87" t="s">
+      <c r="C70" s="123"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F70" s="41"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="14"/>
@@ -4322,283 +4295,283 @@
       <c r="P70" s="14"/>
       <c r="Q70" s="14"/>
     </row>
-    <row r="71" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="107"/>
-      <c r="D71" s="56" t="s">
+      <c r="B71" s="49"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
       <c r="G71" s="9"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
       <c r="N71" s="14"/>
       <c r="O71" s="14"/>
       <c r="P71" s="14"/>
       <c r="Q71" s="14"/>
     </row>
-    <row r="72" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="58" t="s">
+    <row r="72" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="46"/>
-      <c r="C72" s="107"/>
-      <c r="D72" s="87" t="s">
+      <c r="B72" s="49"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="49"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
       <c r="P72" s="14"/>
       <c r="Q72" s="14"/>
     </row>
-    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="58" t="s">
+    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="87" t="s">
+      <c r="B73" s="49"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
+      <c r="I73" s="49"/>
+      <c r="J73" s="49"/>
       <c r="K73" s="9"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="46"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
       <c r="N73" s="14"/>
       <c r="O73" s="14"/>
       <c r="P73" s="14"/>
       <c r="Q73" s="14"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="88" t="s">
+      <c r="C74" s="123"/>
+      <c r="D74" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="41"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="6"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
       <c r="M74" s="9"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="44" t="s">
+    <row r="75" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="96" t="s">
+      <c r="G75" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="96"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="60"/>
-      <c r="O75" s="60"/>
-      <c r="P75" s="60"/>
-      <c r="Q75" s="60"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H75" s="99"/>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="103" t="s">
+      <c r="G76" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="H76" s="59" t="s">
+      <c r="H76" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="49" t="s">
+      <c r="I76" s="43"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="M76" s="46" t="s">
+      <c r="M76" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="N76" s="61"/>
-      <c r="O76" s="53"/>
-      <c r="P76" s="61"/>
-      <c r="Q76" s="61"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N76" s="64"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="64"/>
+      <c r="Q76" s="64"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="46"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="123"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="59" t="s">
+      <c r="G77" s="43"/>
+      <c r="H77" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="I77" s="46"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="46" t="s">
+      <c r="I77" s="49"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N77" s="53"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="61"/>
-      <c r="Q77" s="61"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="N77" s="56"/>
+      <c r="O77" s="64"/>
+      <c r="P77" s="64"/>
+      <c r="Q77" s="64"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="59" t="s">
+      <c r="G78" s="43"/>
+      <c r="H78" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="61"/>
-      <c r="P78" s="61"/>
-      <c r="Q78" s="61"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="64"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="107"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="123"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="59" t="s">
+      <c r="G79" s="43"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="61"/>
-      <c r="P79" s="61"/>
-      <c r="Q79" s="61"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="64"/>
+      <c r="P79" s="64"/>
+      <c r="Q79" s="64"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="107"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="123"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="59" t="s">
+      <c r="G80" s="43"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="J80" s="62" t="s">
+      <c r="J80" s="65" t="s">
         <v>138</v>
       </c>
       <c r="K80" s="1"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="63"/>
-      <c r="Q80" s="61"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L80" s="43"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="66"/>
+      <c r="Q80" s="64"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="107"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="123"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="46"/>
-      <c r="J81" s="62" t="s">
+      <c r="G81" s="43"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="49"/>
+      <c r="J81" s="65" t="s">
         <v>120</v>
       </c>
       <c r="K81" s="1"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="53"/>
-      <c r="O81" s="53"/>
-      <c r="P81" s="63"/>
-      <c r="Q81" s="64"/>
-    </row>
-    <row r="82" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L81" s="43"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="66"/>
+      <c r="Q81" s="67"/>
+    </row>
+    <row r="82" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29" t="s">
         <v>38</v>
       </c>
       <c r="B82" s="9"/>
-      <c r="C82" s="107"/>
+      <c r="C82" s="123"/>
       <c r="D82" s="9"/>
       <c r="E82" s="6"/>
-      <c r="F82" s="95" t="s">
+      <c r="F82" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="102"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="104"/>
+      <c r="J82" s="105"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="9"/>
@@ -4607,22 +4580,22 @@
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B83" s="9"/>
-      <c r="C83" s="107"/>
+      <c r="C83" s="123"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="93" t="s">
+      <c r="E83" s="43"/>
+      <c r="F83" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="41"/>
+      <c r="K83" s="43"/>
       <c r="L83" s="1"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
@@ -4630,137 +4603,137 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B84" s="9"/>
-      <c r="C84" s="107"/>
+      <c r="C84" s="123"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="93" t="s">
+      <c r="E84" s="43"/>
+      <c r="F84" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="65"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="68"/>
       <c r="M84" s="9"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="107"/>
+      <c r="C85" s="123"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="92" t="s">
+      <c r="E85" s="43"/>
+      <c r="F85" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="47"/>
-      <c r="J85" s="41"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="43"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="41"/>
+      <c r="L85" s="43"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B86" s="9"/>
-      <c r="C86" s="107"/>
+      <c r="C86" s="123"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="47"/>
-      <c r="J86" s="62" t="s">
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="K86" s="41"/>
-      <c r="L86" s="65"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="68"/>
       <c r="M86" s="9"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="108"/>
+      <c r="C87" s="124"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="92" t="s">
+      <c r="E87" s="43"/>
+      <c r="F87" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
       <c r="J87" s="1"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
       <c r="M87" s="9"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="109" t="s">
+      <c r="C88" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="43"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="112" t="s">
+      <c r="G88" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="H88" s="113"/>
-      <c r="I88" s="113"/>
-      <c r="J88" s="114"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
+      <c r="J88" s="130"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="48"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
-      <c r="Q88" s="48"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A89" s="66" t="s">
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="69" t="s">
         <v>40</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="110"/>
+      <c r="C89" s="126"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="100" t="s">
+      <c r="G89" s="103" t="s">
         <v>131</v>
       </c>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
@@ -4769,21 +4742,21 @@
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="110"/>
+      <c r="C90" s="126"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="40" t="s">
+      <c r="G90" s="43"/>
+      <c r="H90" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
@@ -4792,21 +4765,21 @@
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="110"/>
+      <c r="C91" s="126"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="40" t="s">
+      <c r="G91" s="43"/>
+      <c r="H91" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
@@ -4815,19 +4788,19 @@
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="110"/>
+      <c r="C92" s="126"/>
       <c r="D92" s="6"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="67" t="s">
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="70" t="s">
         <v>92</v>
       </c>
       <c r="K92" s="9"/>
@@ -4838,21 +4811,21 @@
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="41"/>
-      <c r="C93" s="110"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="126"/>
       <c r="D93" s="6"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="6"/>
-      <c r="H93" s="40" t="s">
+      <c r="H93" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
@@ -4861,21 +4834,21 @@
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="41"/>
-      <c r="C94" s="110"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="126"/>
       <c r="D94" s="6"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="67" t="s">
+      <c r="H94" s="43"/>
+      <c r="I94" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="J94" s="41"/>
+      <c r="J94" s="43"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
@@ -4884,21 +4857,21 @@
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="41"/>
-      <c r="C95" s="110"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="126"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="40" t="s">
+      <c r="H95" s="43"/>
+      <c r="I95" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="J95" s="41"/>
+      <c r="J95" s="43"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
@@ -4907,21 +4880,21 @@
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="110"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="126"/>
       <c r="D96" s="6"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="40" t="s">
+      <c r="H96" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
@@ -4930,21 +4903,21 @@
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="41"/>
-      <c r="C97" s="110"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="126"/>
       <c r="D97" s="6"/>
-      <c r="E97" s="89"/>
+      <c r="E97" s="92"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="40" t="s">
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="J97" s="41"/>
+      <c r="J97" s="43"/>
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
@@ -4953,21 +4926,21 @@
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="41"/>
-      <c r="C98" s="110"/>
-      <c r="D98" s="41"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="126"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="6"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="41"/>
+      <c r="G98" s="43"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="40" t="s">
+      <c r="I98" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="J98" s="41"/>
+      <c r="J98" s="43"/>
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -4976,19 +4949,19 @@
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A99" s="68" t="s">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="41"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="41"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="6"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="41"/>
+      <c r="G99" s="43"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="40" t="s">
+      <c r="I99" s="50"/>
+      <c r="J99" s="42" t="s">
         <v>104</v>
       </c>
       <c r="K99" s="9"/>
@@ -4999,19 +4972,19 @@
       <c r="P99" s="14"/>
       <c r="Q99" s="14"/>
     </row>
-    <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="69" t="s">
+    <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="41"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="6"/>
       <c r="F100" s="1"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="98"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="40" t="s">
+      <c r="H100" s="101"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="42" t="s">
         <v>132</v>
       </c>
       <c r="K100" s="9"/>
@@ -5022,152 +4995,160 @@
       <c r="P100" s="14"/>
       <c r="Q100" s="14"/>
     </row>
-    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="44" t="s">
+    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="110"/>
-      <c r="D101" s="115" t="s">
+      <c r="B101" s="49"/>
+      <c r="C101" s="126"/>
+      <c r="D101" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="116"/>
-      <c r="F101" s="117"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="133"/>
       <c r="G101" s="1"/>
-      <c r="J101" s="70"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="46"/>
-      <c r="M101" s="46"/>
+      <c r="J101" s="73"/>
+      <c r="K101" s="49"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="49"/>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14"/>
       <c r="Q101" s="14"/>
     </row>
-    <row r="102" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="110"/>
-      <c r="D102" s="91" t="s">
+      <c r="B102" s="74"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="E102" s="91" t="s">
+      <c r="E102" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F102" s="72"/>
-      <c r="G102" s="90"/>
-      <c r="H102" s="99"/>
-      <c r="I102" s="72"/>
-      <c r="J102" s="71"/>
-      <c r="K102" s="47"/>
-      <c r="L102" s="47"/>
-      <c r="M102" s="71"/>
-      <c r="N102" s="73"/>
-      <c r="O102" s="73"/>
-      <c r="P102" s="73"/>
-      <c r="Q102" s="73"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="102"/>
+      <c r="I102" s="75"/>
+      <c r="J102" s="74"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="74"/>
+      <c r="N102" s="76"/>
+      <c r="O102" s="76"/>
+      <c r="P102" s="76"/>
+      <c r="Q102" s="76"/>
       <c r="S102" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="71"/>
-      <c r="C103" s="110"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="F103" s="93" t="s">
+      <c r="B103" s="74"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="G103" s="90"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="72"/>
-      <c r="J103" s="71"/>
-      <c r="K103" s="47"/>
-      <c r="L103" s="47"/>
-      <c r="M103" s="71"/>
-      <c r="N103" s="73"/>
-      <c r="O103" s="73"/>
-      <c r="P103" s="73"/>
-      <c r="Q103" s="73"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="75"/>
+      <c r="J103" s="74"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="74"/>
+      <c r="N103" s="76"/>
+      <c r="O103" s="76"/>
+      <c r="P103" s="76"/>
+      <c r="Q103" s="76"/>
       <c r="S103" s="8"/>
     </row>
-    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="71"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="72"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="93" t="s">
+      <c r="B104" s="74"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="G104" s="90"/>
-      <c r="H104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="47"/>
-      <c r="L104" s="47"/>
-      <c r="M104" s="71"/>
-      <c r="N104" s="73"/>
-      <c r="O104" s="73"/>
-      <c r="P104" s="73"/>
-      <c r="Q104" s="73"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="74"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="50"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="76"/>
+      <c r="O104" s="76"/>
+      <c r="P104" s="76"/>
+      <c r="Q104" s="76"/>
       <c r="S104" s="8"/>
     </row>
-    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="71"/>
-      <c r="C105" s="110"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="91" t="s">
+      <c r="B105" s="74"/>
+      <c r="C105" s="126"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="G105" s="90"/>
-      <c r="H105" s="72"/>
-      <c r="I105" s="72"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="47"/>
-      <c r="L105" s="47"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="73"/>
-      <c r="O105" s="73"/>
-      <c r="P105" s="73"/>
-      <c r="Q105" s="73"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="76"/>
+      <c r="O105" s="76"/>
+      <c r="P105" s="76"/>
+      <c r="Q105" s="76"/>
       <c r="S105" s="8"/>
     </row>
-    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="71"/>
-      <c r="C106" s="110"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="93" t="s">
+      <c r="B106" s="74"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="G106" s="90"/>
-      <c r="H106" s="72"/>
-      <c r="I106" s="72"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="47"/>
-      <c r="L106" s="47"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="73"/>
-      <c r="O106" s="73"/>
-      <c r="P106" s="73"/>
-      <c r="Q106" s="73"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+      <c r="J106" s="74"/>
+      <c r="K106" s="50"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="74"/>
+      <c r="N106" s="76"/>
+      <c r="O106" s="76"/>
+      <c r="P106" s="76"/>
+      <c r="Q106" s="76"/>
       <c r="S106" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C44:C64"/>
+    <mergeCell ref="C65:C87"/>
+    <mergeCell ref="C88:C106"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="D101:F101"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -5177,14 +5158,6 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C65:C87"/>
-    <mergeCell ref="C88:C106"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="D101:F101"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="134">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ペレップ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>チョゴーン</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -195,10 +191,6 @@
   </si>
   <si>
     <t>ゲームスタート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アイドリング</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -748,20 +740,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>なめる右</t>
-    <rPh sb="3" eb="4">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>なめる左</t>
-    <rPh sb="3" eb="4">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>弱パンチ　左右</t>
     <rPh sb="0" eb="1">
       <t>ジャク</t>
@@ -789,13 +767,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>爆発</t>
-    <rPh sb="0" eb="2">
-      <t>バクハツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>必殺技(継続)　炎</t>
     <rPh sb="0" eb="3">
       <t>ヒッサツワザ</t>
@@ -879,13 +850,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>18時間</t>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>自作タスクシステム</t>
     <rPh sb="0" eb="2">
       <t>ジサク</t>
@@ -983,6 +947,13 @@
   <si>
     <t>7時間</t>
     <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12時間</t>
+    <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1112,7 +1083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1200,18 +1171,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1520,7 +1479,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,11 +1504,8 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,22 +1659,13 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,22 +1683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,9 +1711,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1805,25 +1746,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="20" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1832,16 +1770,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1850,24 +1788,69 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,61 +1887,24 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="60% - アクセント 2" xfId="4" builtinId="36"/>
-    <cellStyle name="60% - アクセント 3" xfId="8" builtinId="40"/>
     <cellStyle name="60% - アクセント 5" xfId="6" builtinId="48"/>
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
     <cellStyle name="アクセント 2" xfId="2" builtinId="33"/>
@@ -1986,13 +1932,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>408070</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>61111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>455950</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>81734</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2051,13 +1997,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>244796</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>108811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>408416</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>156434</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -2506,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U106"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2524,7 +2470,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s" ph="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="10">
         <v>42803</v>
@@ -2581,7 +2527,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="9"/>
@@ -2599,7 +2545,7 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2608,7 +2554,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2626,7 +2572,7 @@
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
@@ -2635,7 +2581,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -2659,19 +2605,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
+      <c r="C5" s="116" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="118"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2683,18 +2629,18 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>76</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2714,7 +2660,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2722,13 +2668,13 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2743,7 +2689,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2755,13 +2701,13 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -2769,12 +2715,12 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="15"/>
       <c r="S8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2783,16 +2729,16 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2801,13 +2747,13 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="97" t="s">
-        <v>137</v>
+      <c r="S9" s="91" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2816,7 +2762,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="21"/>
       <c r="H10" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="9"/>
@@ -2841,7 +2787,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2857,7 +2803,7 @@
     </row>
     <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2866,7 +2812,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2882,18 +2828,18 @@
     </row>
     <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="87" t="s">
-        <v>71</v>
+        <v>121</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="82" t="s">
+        <v>69</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="80"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2907,13 +2853,13 @@
     </row>
     <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="81"/>
+      <c r="C14" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="76"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2932,12 +2878,12 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="88" t="s">
-        <v>128</v>
+      <c r="C15" s="79"/>
+      <c r="D15" s="83" t="s">
+        <v>122</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
@@ -2957,12 +2903,12 @@
     </row>
     <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="79" t="s">
-        <v>128</v>
+      <c r="C16" s="77"/>
+      <c r="D16" s="74" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
@@ -2982,13 +2928,13 @@
     </row>
     <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="83"/>
+      <c r="C17" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="78"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3010,10 +2956,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="80"/>
+      <c r="C18" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="75"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -3032,19 +2978,19 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="117"/>
+      <c r="C19" s="124" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3060,10 +3006,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="119"/>
+      <c r="C20" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="128"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3087,10 +3033,10 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3114,10 +3060,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="110"/>
+      <c r="E22" s="119" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="119"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3142,7 +3088,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="35"/>
       <c r="G23" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="9"/>
@@ -3168,10 +3114,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="113" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24" s="114"/>
+      <c r="I24" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="123"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3194,7 +3140,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="78"/>
+      <c r="L25" s="73"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3205,7 +3151,7 @@
     </row>
     <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3218,7 +3164,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="21"/>
       <c r="L26" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
@@ -3243,7 +3189,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="14"/>
@@ -3268,7 +3214,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="14"/>
@@ -3293,7 +3239,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="14"/>
@@ -3318,7 +3264,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="14"/>
@@ -3330,7 +3276,7 @@
     </row>
     <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3340,10 +3286,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="K31" s="112"/>
+      <c r="J31" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="121"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3355,7 +3301,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3366,7 +3312,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="9"/>
@@ -3380,7 +3326,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3392,7 +3338,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -3416,7 +3362,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="19"/>
@@ -3430,7 +3376,7 @@
     </row>
     <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3443,7 +3389,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="21"/>
       <c r="L35" s="32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
@@ -3468,7 +3414,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="14"/>
@@ -3493,7 +3439,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="14"/>
@@ -3600,7 +3546,7 @@
     </row>
     <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s" ph="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="11">
         <v>42803</v>
@@ -3653,18 +3599,18 @@
     </row>
     <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="122" t="s">
-        <v>115</v>
+      <c r="C44" s="103" t="s">
+        <v>110</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="127"/>
+      <c r="F44" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="108"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3678,14 +3624,14 @@
     </row>
     <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="123"/>
+      <c r="C45" s="104"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="90" t="s">
-        <v>104</v>
+      <c r="F45" s="84" t="s">
+        <v>102</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
@@ -3701,14 +3647,14 @@
     </row>
     <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="123"/>
+      <c r="C46" s="104"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="90" t="s">
-        <v>121</v>
+      <c r="F46" s="84" t="s">
+        <v>116</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
@@ -3724,15 +3670,15 @@
     </row>
     <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="123"/>
+      <c r="C47" s="104"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="95" t="s">
-        <v>104</v>
+      <c r="G47" s="89" t="s">
+        <v>102</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
@@ -3750,15 +3696,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="49"/>
-      <c r="C48" s="123"/>
+      <c r="C48" s="104"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="127" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
+      <c r="G48" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -3770,18 +3716,18 @@
     </row>
     <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" s="49"/>
-      <c r="C49" s="123"/>
+      <c r="C49" s="104"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" s="40" t="s">
-        <v>118</v>
+      <c r="G49" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="100" t="s">
+        <v>113</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
@@ -3795,16 +3741,16 @@
     </row>
     <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B50" s="49"/>
-      <c r="C50" s="123"/>
+      <c r="C50" s="104"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="43"/>
-      <c r="H50" s="40" t="s">
-        <v>71</v>
+      <c r="H50" s="100" t="s">
+        <v>69</v>
       </c>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
@@ -3818,17 +3764,17 @@
     </row>
     <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" s="49"/>
-      <c r="C51" s="123"/>
+      <c r="C51" s="104"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="43"/>
       <c r="H51" s="49"/>
-      <c r="I51" s="40" t="s">
-        <v>71</v>
+      <c r="I51" s="100" t="s">
+        <v>69</v>
       </c>
       <c r="J51" s="49"/>
       <c r="K51" s="49"/>
@@ -3841,19 +3787,18 @@
     </row>
     <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B52" s="49"/>
-      <c r="C52" s="123"/>
+      <c r="C52" s="104"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="43"/>
       <c r="H52" s="49"/>
-      <c r="I52" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52" s="49"/>
+      <c r="J52" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="K52" s="49"/>
       <c r="L52" s="49"/>
       <c r="M52" s="49"/>
@@ -3864,17 +3809,17 @@
     </row>
     <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B53" s="49"/>
-      <c r="C53" s="123"/>
+      <c r="C53" s="104"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="49"/>
-      <c r="I53" s="89" t="s">
-        <v>104</v>
+      <c r="I53" s="99" t="s">
+        <v>102</v>
       </c>
       <c r="J53" s="49"/>
       <c r="K53" s="49"/>
@@ -3890,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="52"/>
-      <c r="C54" s="123"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="9"/>
@@ -3898,7 +3843,7 @@
       <c r="H54" s="49"/>
       <c r="I54" s="1"/>
       <c r="J54" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
@@ -3908,19 +3853,19 @@
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
       <c r="S54" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T54" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="U54" s="106"/>
+        <v>32</v>
+      </c>
+      <c r="T54" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="U54" s="115"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="52"/>
-      <c r="C55" s="123"/>
+      <c r="C55" s="104"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="9"/>
@@ -3928,7 +3873,7 @@
       <c r="H55" s="49"/>
       <c r="I55" s="1"/>
       <c r="J55" s="40" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
@@ -3938,19 +3883,19 @@
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
       <c r="S55" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T55" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="U55" s="106"/>
+        <v>33</v>
+      </c>
+      <c r="T55" s="115" t="s">
+        <v>100</v>
+      </c>
+      <c r="U55" s="115"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56" s="49"/>
-      <c r="C56" s="123"/>
+      <c r="C56" s="104"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="9"/>
@@ -3958,7 +3903,7 @@
       <c r="H56" s="49"/>
       <c r="I56" s="1"/>
       <c r="J56" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K56" s="49"/>
       <c r="L56" s="49"/>
@@ -3968,213 +3913,215 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
       <c r="S56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T56" s="106"/>
-      <c r="U56" s="106"/>
-    </row>
-    <row r="57" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-    </row>
-    <row r="58" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="T56" s="115"/>
+      <c r="U56" s="115"/>
+    </row>
+    <row r="57" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="43"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="43"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="43"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="43"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="43"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="49"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-    </row>
-    <row r="59" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-    </row>
-    <row r="60" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="L60" s="43"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-    </row>
-    <row r="61" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="L61" s="43"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-    </row>
-    <row r="62" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="120" t="s">
-        <v>92</v>
-      </c>
-      <c r="M62" s="49"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-    </row>
-    <row r="63" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="49"/>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="49"/>
       <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="121"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="49"/>
       <c r="M63" s="49"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-    </row>
-    <row r="64" spans="1:21" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>111</v>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="58" t="s">
+        <v>60</v>
       </c>
       <c r="B64" s="49"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="49"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="84" t="s">
+        <v>69</v>
+      </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="49"/>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-    </row>
-    <row r="65" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="49"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
@@ -4182,466 +4129,471 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F66" s="43"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="43"/>
+      <c r="F66" s="6"/>
       <c r="G66" s="9"/>
-      <c r="H66" s="43"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
       <c r="K66" s="43"/>
-      <c r="L66" s="9"/>
+      <c r="L66" s="43"/>
       <c r="M66" s="9"/>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="43"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
+    <row r="67" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="49"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="H67" s="93"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" s="43"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="43"/>
+      <c r="A68" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="49"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="100" t="s">
+        <v>113</v>
+      </c>
       <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
+      <c r="J68" s="49"/>
       <c r="K68" s="43"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
+      <c r="L68" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="M68" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="60"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="60"/>
+      <c r="Q68" s="60"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="43"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
+      <c r="A69" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="49"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="49"/>
       <c r="J69" s="43"/>
       <c r="K69" s="43"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" s="53"/>
+      <c r="O69" s="60"/>
+      <c r="P69" s="60"/>
+      <c r="Q69" s="60"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="123"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="F70" s="43"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
+      <c r="A70" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="49"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="100" t="s">
+        <v>69</v>
+      </c>
       <c r="J70" s="43"/>
       <c r="K70" s="43"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
-        <v>1</v>
+      <c r="L70" s="43"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="60"/>
+      <c r="P70" s="60"/>
+      <c r="Q70" s="60"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="59" t="s">
-        <v>92</v>
-      </c>
+      <c r="C71" s="104"/>
+      <c r="D71" s="49"/>
       <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="48"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
-        <v>62</v>
+      <c r="F71" s="1"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="53"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="B72" s="49"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="90" t="s">
-        <v>71</v>
-      </c>
+      <c r="C72" s="104"/>
+      <c r="D72" s="49"/>
       <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="9"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="43"/>
       <c r="H72" s="52"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="61" t="s">
-        <v>63</v>
+      <c r="I72" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="53"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="60"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="B73" s="49"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="90" t="s">
-        <v>71</v>
-      </c>
+      <c r="C73" s="104"/>
+      <c r="D73" s="49"/>
       <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="52"/>
       <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>110</v>
+      <c r="J73" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="53"/>
+      <c r="O73" s="53"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="63"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
       <c r="M74" s="9"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="H75" s="99"/>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="62" t="s">
-        <v>118</v>
-      </c>
+      <c r="A76" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
       <c r="I76" s="43"/>
-      <c r="J76" s="49"/>
+      <c r="J76" s="1"/>
       <c r="K76" s="43"/>
-      <c r="L76" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="M76" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N76" s="64"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="64"/>
-      <c r="Q76" s="64"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="1"/>
+      <c r="A77" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="89" t="s">
+        <v>69</v>
+      </c>
       <c r="G77" s="43"/>
-      <c r="H77" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="I77" s="49"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="50"/>
       <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="43"/>
-      <c r="M77" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="N77" s="56"/>
-      <c r="O77" s="64"/>
-      <c r="P77" s="64"/>
-      <c r="Q77" s="64"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="49"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="1"/>
+      <c r="A78" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
       <c r="G78" s="43"/>
-      <c r="H78" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="J78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="61" t="s">
+        <v>102</v>
+      </c>
       <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="52"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="64"/>
-      <c r="P78" s="64"/>
-      <c r="Q78" s="64"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="49"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="1"/>
+      <c r="A79" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="89" t="s">
+        <v>69</v>
+      </c>
       <c r="G79" s="43"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="J79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="1"/>
       <c r="K79" s="43"/>
       <c r="L79" s="43"/>
-      <c r="M79" s="52"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="64"/>
-      <c r="P79" s="64"/>
-      <c r="Q79" s="64"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="14"/>
+    </row>
+    <row r="80" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="43"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="J80" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="K80" s="1"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="66"/>
-      <c r="Q80" s="64"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
+      <c r="G80" s="109" t="s">
+        <v>124</v>
+      </c>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="111"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="52"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="K81" s="1"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="66"/>
-      <c r="Q81" s="67"/>
-    </row>
-    <row r="82" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="98"/>
-      <c r="H82" s="98"/>
-      <c r="I82" s="104"/>
-      <c r="J82" s="105"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
+      <c r="G81" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="H81" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="I81" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="J81" s="129"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="107"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
       <c r="M82" s="9"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="96" t="s">
-        <v>71</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="107"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
       <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="6"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="130" t="s">
+        <v>102</v>
+      </c>
       <c r="K83" s="43"/>
-      <c r="L83" s="1"/>
+      <c r="L83" s="43"/>
       <c r="M83" s="9"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="123"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="96" t="s">
-        <v>71</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
       <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="129"/>
       <c r="K84" s="43"/>
-      <c r="L84" s="68"/>
+      <c r="L84" s="66" t="s">
+        <v>90</v>
+      </c>
       <c r="M84" s="9"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="123"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="50"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B85" s="43"/>
+      <c r="C85" s="107"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="130" t="s">
+        <v>102</v>
+      </c>
+      <c r="K85" s="43"/>
       <c r="L85" s="43"/>
       <c r="M85" s="9"/>
       <c r="N85" s="14"/>
@@ -4649,45 +4601,45 @@
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="123"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="65" t="s">
-        <v>104</v>
-      </c>
-      <c r="K86" s="43"/>
-      <c r="L86" s="68"/>
+        <v>29</v>
+      </c>
+      <c r="B86" s="43"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="L86" s="43"/>
       <c r="M86" s="9"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B87" s="9"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="43"/>
+        <v>30</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="129"/>
+      <c r="K87" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="L87" s="43"/>
       <c r="M87" s="9"/>
       <c r="N87" s="14"/>
@@ -4695,460 +4647,269 @@
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="43"/>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="107"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="128" t="s">
-        <v>130</v>
-      </c>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
-      <c r="J88" s="130"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="130" t="s">
+        <v>126</v>
+      </c>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="51"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="126"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="43"/>
+      <c r="C89" s="107"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="86"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="103" t="s">
-        <v>131</v>
-      </c>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="129"/>
+      <c r="K89" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="L89" s="43"/>
       <c r="M89" s="9"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="126"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="1"/>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="6"/>
       <c r="F90" s="1"/>
       <c r="G90" s="43"/>
-      <c r="H90" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="L90" s="43"/>
       <c r="M90" s="9"/>
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="126"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="1"/>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="43"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="6"/>
       <c r="F91" s="1"/>
       <c r="G91" s="43"/>
-      <c r="H91" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="42" t="s">
+        <v>102</v>
+      </c>
       <c r="M91" s="9"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="126"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="1"/>
+    <row r="92" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="6"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="42" t="s">
+        <v>126</v>
+      </c>
       <c r="M92" s="9"/>
       <c r="N92" s="14"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="126"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
+    <row r="93" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="49"/>
+      <c r="C93" s="107"/>
+      <c r="D93" s="112" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="113"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="131"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="126"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="J94" s="43"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="126"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J95" s="43"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B96" s="43"/>
-      <c r="C96" s="126"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" s="43"/>
-      <c r="C97" s="126"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J97" s="43"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="43"/>
-      <c r="C98" s="126"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="J98" s="43"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="126"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="14"/>
-    </row>
-    <row r="100" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="126"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="101"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="14"/>
-    </row>
-    <row r="101" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="126"/>
-      <c r="D101" s="131" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="132"/>
-      <c r="F101" s="133"/>
-      <c r="G101" s="1"/>
-      <c r="J101" s="73"/>
-      <c r="K101" s="49"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="49"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
-      <c r="Q101" s="14"/>
-    </row>
-    <row r="102" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="24" t="s">
+    <row r="94" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B94" s="69"/>
+      <c r="C94" s="107"/>
+      <c r="D94" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="70"/>
+      <c r="G94" s="87"/>
+      <c r="H94" s="95"/>
+      <c r="I94" s="70"/>
+      <c r="J94" s="69"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="69"/>
+      <c r="N94" s="71"/>
+      <c r="O94" s="71"/>
+      <c r="P94" s="71"/>
+      <c r="Q94" s="71"/>
+      <c r="S94" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="74"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="E102" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F102" s="75"/>
-      <c r="G102" s="93"/>
-      <c r="H102" s="102"/>
-      <c r="I102" s="75"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="76"/>
-      <c r="O102" s="76"/>
-      <c r="P102" s="76"/>
-      <c r="Q102" s="76"/>
-      <c r="S102" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="74"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="75"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="G103" s="93"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="75"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="76"/>
-      <c r="O103" s="76"/>
-      <c r="P103" s="76"/>
-      <c r="Q103" s="76"/>
-      <c r="S103" s="8"/>
-    </row>
-    <row r="104" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" s="74"/>
-      <c r="C104" s="126"/>
-      <c r="D104" s="75"/>
-      <c r="E104" s="75"/>
-      <c r="F104" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="G104" s="93"/>
-      <c r="H104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="50"/>
-      <c r="L104" s="50"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="76"/>
-      <c r="O104" s="76"/>
-      <c r="P104" s="76"/>
-      <c r="Q104" s="76"/>
-      <c r="S104" s="8"/>
-    </row>
-    <row r="105" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="24" t="s">
+      <c r="B95" s="69"/>
+      <c r="C95" s="107"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="G95" s="87"/>
+      <c r="H95" s="95"/>
+      <c r="I95" s="70"/>
+      <c r="J95" s="69"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="71"/>
+      <c r="O95" s="71"/>
+      <c r="P95" s="71"/>
+      <c r="Q95" s="71"/>
+      <c r="S95" s="8"/>
+    </row>
+    <row r="96" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B105" s="74"/>
-      <c r="C105" s="126"/>
-      <c r="D105" s="75"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="G105" s="93"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="76"/>
-      <c r="O105" s="76"/>
-      <c r="P105" s="76"/>
-      <c r="Q105" s="76"/>
-      <c r="S105" s="8"/>
-    </row>
-    <row r="106" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B106" s="74"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="75"/>
-      <c r="E106" s="75"/>
-      <c r="F106" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="G106" s="93"/>
-      <c r="H106" s="75"/>
-      <c r="I106" s="75"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="50"/>
-      <c r="L106" s="50"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="76"/>
-      <c r="O106" s="76"/>
-      <c r="P106" s="76"/>
-      <c r="Q106" s="76"/>
-      <c r="S106" s="8"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="107"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96" s="87"/>
+      <c r="H96" s="69"/>
+      <c r="J96" s="69"/>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="71"/>
+      <c r="O96" s="71"/>
+      <c r="P96" s="71"/>
+      <c r="Q96" s="71"/>
+      <c r="S96" s="8"/>
+    </row>
+    <row r="97" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="69"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="70"/>
+      <c r="F97" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="G97" s="87"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="70"/>
+      <c r="J97" s="69"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="69"/>
+      <c r="N97" s="71"/>
+      <c r="O97" s="71"/>
+      <c r="P97" s="71"/>
+      <c r="Q97" s="71"/>
+      <c r="S97" s="8"/>
+    </row>
+    <row r="98" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="69"/>
+      <c r="C98" s="107"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" s="87"/>
+      <c r="H98" s="70"/>
+      <c r="I98" s="70"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="69"/>
+      <c r="N98" s="71"/>
+      <c r="O98" s="71"/>
+      <c r="P98" s="71"/>
+      <c r="Q98" s="71"/>
+      <c r="S98" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C44:C64"/>
-    <mergeCell ref="C65:C87"/>
-    <mergeCell ref="C88:C106"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="D101:F101"/>
+  <mergeCells count="16">
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -5158,6 +4919,13 @@
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C44:C56"/>
+    <mergeCell ref="C57:C79"/>
+    <mergeCell ref="C80:C98"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="D93:F93"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1505,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,6 +1815,60 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,57 +1903,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2454,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80:J80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2605,19 +2608,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2981,16 +2984,16 @@
         <v>98</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="126"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="118"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3006,10 +3009,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3060,10 +3063,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="119"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3114,10 +3117,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="122" t="s">
+      <c r="I24" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="123"/>
+      <c r="J24" s="115"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3286,10 +3289,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="120" t="s">
+      <c r="J31" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="121"/>
+      <c r="K31" s="113"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3602,15 +3605,15 @@
         <v>47</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="121" t="s">
         <v>110</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="108" t="s">
+      <c r="F44" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="108"/>
+      <c r="G44" s="126"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
@@ -3627,7 +3630,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="104"/>
+      <c r="C45" s="122"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
       <c r="F45" s="84" t="s">
@@ -3650,7 +3653,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="104"/>
+      <c r="C46" s="122"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
       <c r="F46" s="84" t="s">
@@ -3673,7 +3676,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="104"/>
+      <c r="C47" s="122"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3696,15 +3699,15 @@
         <v>19</v>
       </c>
       <c r="B48" s="49"/>
-      <c r="C48" s="104"/>
+      <c r="C48" s="122"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="108" t="s">
+      <c r="G48" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="126"/>
       <c r="J48" s="49"/>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -3719,7 +3722,7 @@
         <v>38</v>
       </c>
       <c r="B49" s="49"/>
-      <c r="C49" s="104"/>
+      <c r="C49" s="122"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3744,7 +3747,7 @@
         <v>39</v>
       </c>
       <c r="B50" s="49"/>
-      <c r="C50" s="104"/>
+      <c r="C50" s="122"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3767,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="B51" s="49"/>
-      <c r="C51" s="104"/>
+      <c r="C51" s="122"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3790,7 +3793,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="49"/>
-      <c r="C52" s="104"/>
+      <c r="C52" s="122"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3812,7 +3815,7 @@
         <v>128</v>
       </c>
       <c r="B53" s="49"/>
-      <c r="C53" s="104"/>
+      <c r="C53" s="122"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3835,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="52"/>
-      <c r="C54" s="104"/>
+      <c r="C54" s="122"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="9"/>
@@ -3855,24 +3858,24 @@
       <c r="S54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T54" s="115" t="s">
+      <c r="T54" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="U54" s="115"/>
+      <c r="U54" s="107"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="52"/>
-      <c r="C55" s="104"/>
+      <c r="C55" s="122"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="9"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="40" t="s">
+      <c r="J55" s="103" t="s">
         <v>88</v>
       </c>
       <c r="K55" s="49"/>
@@ -3885,24 +3888,24 @@
       <c r="S55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T55" s="115" t="s">
+      <c r="T55" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="U55" s="115"/>
+      <c r="U55" s="107"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="49"/>
-      <c r="C56" s="104"/>
+      <c r="C56" s="122"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="9"/>
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="40" t="s">
+      <c r="J56" s="103" t="s">
         <v>69</v>
       </c>
       <c r="K56" s="49"/>
@@ -3915,15 +3918,15 @@
       <c r="S56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="115"/>
-      <c r="U56" s="115"/>
+      <c r="T56" s="107"/>
+      <c r="U56" s="107"/>
     </row>
     <row r="57" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="103" t="s">
+      <c r="C57" s="121" t="s">
         <v>111</v>
       </c>
       <c r="D57" s="9"/>
@@ -3948,7 +3951,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="104"/>
+      <c r="C58" s="122"/>
       <c r="D58" s="9"/>
       <c r="E58" s="84" t="s">
         <v>69</v>
@@ -3971,7 +3974,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="104"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="9"/>
       <c r="E59" s="84" t="s">
         <v>69</v>
@@ -3994,7 +3997,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="104"/>
+      <c r="C60" s="122"/>
       <c r="D60" s="9"/>
       <c r="E60" s="84" t="s">
         <v>69</v>
@@ -4017,7 +4020,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="104"/>
+      <c r="C61" s="122"/>
       <c r="D61" s="9"/>
       <c r="E61" s="84" t="s">
         <v>69</v>
@@ -4040,7 +4043,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="104"/>
+      <c r="C62" s="122"/>
       <c r="D62" s="43"/>
       <c r="E62" s="84" t="s">
         <v>69</v>
@@ -4063,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="49"/>
-      <c r="C63" s="104"/>
+      <c r="C63" s="122"/>
       <c r="D63" s="56" t="s">
         <v>90</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="49"/>
-      <c r="C64" s="104"/>
+      <c r="C64" s="122"/>
       <c r="D64" s="84" t="s">
         <v>69</v>
       </c>
@@ -4109,7 +4112,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="49"/>
-      <c r="C65" s="104"/>
+      <c r="C65" s="122"/>
       <c r="D65" s="84" t="s">
         <v>69</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>106</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="104"/>
+      <c r="C66" s="122"/>
       <c r="D66" s="85" t="s">
         <v>69</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="49"/>
-      <c r="C67" s="104"/>
+      <c r="C67" s="122"/>
       <c r="D67" s="49"/>
       <c r="E67" s="49"/>
       <c r="F67" s="1"/>
@@ -4178,7 +4181,7 @@
         <v>38</v>
       </c>
       <c r="B68" s="49"/>
-      <c r="C68" s="104"/>
+      <c r="C68" s="122"/>
       <c r="D68" s="49"/>
       <c r="E68" s="49"/>
       <c r="F68" s="1"/>
@@ -4207,7 +4210,7 @@
         <v>39</v>
       </c>
       <c r="B69" s="49"/>
-      <c r="C69" s="104"/>
+      <c r="C69" s="122"/>
       <c r="D69" s="49"/>
       <c r="E69" s="49"/>
       <c r="F69" s="1"/>
@@ -4232,7 +4235,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="49"/>
-      <c r="C70" s="104"/>
+      <c r="C70" s="122"/>
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="1"/>
@@ -4254,7 +4257,7 @@
         <v>64</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="104"/>
+      <c r="C71" s="122"/>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
       <c r="F71" s="1"/>
@@ -4277,7 +4280,7 @@
         <v>104</v>
       </c>
       <c r="B72" s="49"/>
-      <c r="C72" s="104"/>
+      <c r="C72" s="122"/>
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
       <c r="F72" s="1"/>
@@ -4302,7 +4305,7 @@
         <v>105</v>
       </c>
       <c r="B73" s="49"/>
-      <c r="C73" s="104"/>
+      <c r="C73" s="122"/>
       <c r="D73" s="49"/>
       <c r="E73" s="49"/>
       <c r="F73" s="1"/>
@@ -4325,7 +4328,7 @@
         <v>36</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="104"/>
+      <c r="C74" s="122"/>
       <c r="D74" s="9"/>
       <c r="E74" s="6"/>
       <c r="F74" s="92" t="s">
@@ -4348,7 +4351,7 @@
         <v>43</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="104"/>
+      <c r="C75" s="122"/>
       <c r="D75" s="9"/>
       <c r="E75" s="43"/>
       <c r="F75" s="90" t="s">
@@ -4371,7 +4374,7 @@
         <v>46</v>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="104"/>
+      <c r="C76" s="122"/>
       <c r="D76" s="9"/>
       <c r="E76" s="43"/>
       <c r="F76" s="90" t="s">
@@ -4394,7 +4397,7 @@
         <v>51</v>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="104"/>
+      <c r="C77" s="122"/>
       <c r="D77" s="9"/>
       <c r="E77" s="43"/>
       <c r="F77" s="89" t="s">
@@ -4417,7 +4420,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="104"/>
+      <c r="C78" s="122"/>
       <c r="D78" s="9"/>
       <c r="E78" s="43"/>
       <c r="F78" s="43"/>
@@ -4440,7 +4443,7 @@
         <v>53</v>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="105"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="9"/>
       <c r="E79" s="43"/>
       <c r="F79" s="89" t="s">
@@ -4463,17 +4466,17 @@
         <v>10</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="106" t="s">
+      <c r="C80" s="124" t="s">
         <v>112</v>
       </c>
       <c r="D80" s="43"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="109" t="s">
+      <c r="G80" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="H80" s="110"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="111"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="128"/>
+      <c r="J80" s="129"/>
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
@@ -4487,7 +4490,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="107"/>
+      <c r="C81" s="125"/>
       <c r="D81" s="6"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4500,7 +4503,7 @@
       <c r="I81" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="J81" s="129"/>
+      <c r="J81" s="104"/>
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
@@ -4514,14 +4517,14 @@
         <v>26</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="107"/>
+      <c r="C82" s="125"/>
       <c r="D82" s="6"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="43"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="130" t="s">
+      <c r="J82" s="105" t="s">
         <v>102</v>
       </c>
       <c r="K82" s="43"/>
@@ -4537,14 +4540,14 @@
         <v>27</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="107"/>
+      <c r="C83" s="125"/>
       <c r="D83" s="6"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="43"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="130" t="s">
+      <c r="J83" s="105" t="s">
         <v>102</v>
       </c>
       <c r="K83" s="43"/>
@@ -4560,14 +4563,14 @@
         <v>35</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="107"/>
+      <c r="C84" s="125"/>
       <c r="D84" s="6"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="43"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="129"/>
+      <c r="J84" s="104"/>
       <c r="K84" s="43"/>
       <c r="L84" s="66" t="s">
         <v>90</v>
@@ -4583,14 +4586,14 @@
         <v>28</v>
       </c>
       <c r="B85" s="43"/>
-      <c r="C85" s="107"/>
+      <c r="C85" s="125"/>
       <c r="D85" s="6"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="6"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="130" t="s">
+      <c r="J85" s="105" t="s">
         <v>102</v>
       </c>
       <c r="K85" s="43"/>
@@ -4606,14 +4609,14 @@
         <v>29</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="107"/>
+      <c r="C86" s="125"/>
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="6"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="129"/>
+      <c r="J86" s="104"/>
       <c r="K86" s="66" t="s">
         <v>102</v>
       </c>
@@ -4629,14 +4632,14 @@
         <v>30</v>
       </c>
       <c r="B87" s="43"/>
-      <c r="C87" s="107"/>
+      <c r="C87" s="125"/>
       <c r="D87" s="6"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="6"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="129"/>
+      <c r="J87" s="104"/>
       <c r="K87" s="42" t="s">
         <v>126</v>
       </c>
@@ -4652,14 +4655,14 @@
         <v>31</v>
       </c>
       <c r="B88" s="43"/>
-      <c r="C88" s="107"/>
+      <c r="C88" s="125"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="6"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="130" t="s">
+      <c r="J88" s="105" t="s">
         <v>126</v>
       </c>
       <c r="K88" s="43"/>
@@ -4675,14 +4678,14 @@
         <v>17</v>
       </c>
       <c r="B89" s="43"/>
-      <c r="C89" s="107"/>
+      <c r="C89" s="125"/>
       <c r="D89" s="6"/>
       <c r="E89" s="86"/>
       <c r="F89" s="1"/>
       <c r="G89" s="43"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="129"/>
+      <c r="J89" s="104"/>
       <c r="K89" s="42" t="s">
         <v>126</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>107</v>
       </c>
       <c r="B90" s="43"/>
-      <c r="C90" s="107"/>
+      <c r="C90" s="125"/>
       <c r="D90" s="43"/>
       <c r="E90" s="6"/>
       <c r="F90" s="1"/>
@@ -4721,7 +4724,7 @@
         <v>109</v>
       </c>
       <c r="B91" s="43"/>
-      <c r="C91" s="107"/>
+      <c r="C91" s="125"/>
       <c r="D91" s="43"/>
       <c r="E91" s="6"/>
       <c r="F91" s="1"/>
@@ -4744,7 +4747,7 @@
         <v>108</v>
       </c>
       <c r="B92" s="43"/>
-      <c r="C92" s="107"/>
+      <c r="C92" s="125"/>
       <c r="D92" s="43"/>
       <c r="E92" s="6"/>
       <c r="F92" s="1"/>
@@ -4767,16 +4770,16 @@
         <v>18</v>
       </c>
       <c r="B93" s="49"/>
-      <c r="C93" s="107"/>
-      <c r="D93" s="112" t="s">
+      <c r="C93" s="125"/>
+      <c r="D93" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="E93" s="113"/>
-      <c r="F93" s="114"/>
+      <c r="E93" s="131"/>
+      <c r="F93" s="132"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="131"/>
+      <c r="J93" s="106"/>
       <c r="K93" s="49"/>
       <c r="L93" s="49"/>
       <c r="M93" s="49"/>
@@ -4790,7 +4793,7 @@
         <v>65</v>
       </c>
       <c r="B94" s="69"/>
-      <c r="C94" s="107"/>
+      <c r="C94" s="125"/>
       <c r="D94" s="88" t="s">
         <v>84</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>67</v>
       </c>
       <c r="B95" s="69"/>
-      <c r="C95" s="107"/>
+      <c r="C95" s="125"/>
       <c r="D95" s="70"/>
       <c r="E95" s="70"/>
       <c r="F95" s="90" t="s">
@@ -4842,7 +4845,7 @@
         <v>66</v>
       </c>
       <c r="B96" s="69"/>
-      <c r="C96" s="107"/>
+      <c r="C96" s="125"/>
       <c r="D96" s="70"/>
       <c r="E96" s="70"/>
       <c r="F96" s="90" t="s">
@@ -4865,7 +4868,7 @@
         <v>64</v>
       </c>
       <c r="B97" s="69"/>
-      <c r="C97" s="107"/>
+      <c r="C97" s="125"/>
       <c r="D97" s="70"/>
       <c r="E97" s="70"/>
       <c r="F97" s="88" t="s">
@@ -4889,7 +4892,7 @@
         <v>128</v>
       </c>
       <c r="B98" s="69"/>
-      <c r="C98" s="107"/>
+      <c r="C98" s="125"/>
       <c r="D98" s="70"/>
       <c r="E98" s="70"/>
       <c r="F98" s="90" t="s">
@@ -4910,6 +4913,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C57:C79"/>
+    <mergeCell ref="C80:C98"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="D93:F93"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -4920,12 +4929,6 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C44:C56"/>
-    <mergeCell ref="C57:C79"/>
-    <mergeCell ref="C80:C98"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="D93:F93"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -274,16 +274,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一時間</t>
-    <rPh sb="0" eb="1">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>パーツ作り</t>
     <rPh sb="3" eb="4">
       <t>ツク</t>
@@ -309,16 +299,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>五時間</t>
-    <rPh sb="0" eb="1">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エネミーHP（ゲージ）</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -440,16 +420,6 @@
   </si>
   <si>
     <t>ゲームオーバー（ロゴ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>六時間</t>
-    <rPh sb="0" eb="1">
-      <t>ロク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ジカン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -954,6 +924,20 @@
   <si>
     <t>12時間</t>
     <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3時間</t>
+    <rPh sb="1" eb="3">
       <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1083,7 +1067,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,6 +1171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -1505,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,9 +1688,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,6 +1814,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1869,40 +1892,70 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2457,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2526,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s" ph="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="10">
         <v>42803</v>
@@ -2530,7 +2583,7 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="9"/>
@@ -2557,7 +2610,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2584,7 +2637,7 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -2608,19 +2661,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="108" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="110"/>
+      <c r="C5" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="121"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -2632,18 +2685,18 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2663,7 +2716,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2671,13 +2724,13 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>73</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>76</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2692,7 +2745,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2704,13 +2757,13 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
@@ -2718,12 +2771,12 @@
       <c r="Q8" s="14"/>
       <c r="R8" s="15"/>
       <c r="S8" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2732,16 +2785,16 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -2750,13 +2803,13 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="91" t="s">
-        <v>131</v>
+      <c r="S9" s="90" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2765,7 +2818,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="21"/>
       <c r="H10" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="9"/>
@@ -2790,7 +2843,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -2815,7 +2868,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2831,18 +2884,18 @@
     </row>
     <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="82" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="81" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="75"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2856,13 +2909,13 @@
     </row>
     <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="76"/>
+      <c r="C14" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="75"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2881,12 +2934,12 @@
     </row>
     <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="83" t="s">
-        <v>122</v>
+      <c r="C15" s="78"/>
+      <c r="D15" s="82" t="s">
+        <v>119</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="9"/>
@@ -2906,12 +2959,12 @@
     </row>
     <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="73" t="s">
         <v>119</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="74" t="s">
-        <v>122</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
@@ -2931,13 +2984,13 @@
     </row>
     <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="78"/>
+      <c r="C17" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="77"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2959,10 +3012,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="75"/>
+      <c r="C18" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="74"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -2981,19 +3034,19 @@
     </row>
     <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
+      <c r="C19" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3009,10 +3062,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="120"/>
+      <c r="C20" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="131"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3036,10 +3089,10 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3063,10 +3116,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="111" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="111"/>
+      <c r="E22" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="122"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3091,7 +3144,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="35"/>
       <c r="G23" s="45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="9"/>
@@ -3117,10 +3170,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="114" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="115"/>
+      <c r="I24" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="126"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3143,7 +3196,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="73"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3154,7 +3207,7 @@
     </row>
     <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3167,7 +3220,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="21"/>
       <c r="L26" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="14"/>
@@ -3192,7 +3245,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="14"/>
@@ -3217,7 +3270,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="14"/>
@@ -3242,7 +3295,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="14"/>
@@ -3267,7 +3320,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="14"/>
@@ -3279,7 +3332,7 @@
     </row>
     <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3289,10 +3342,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="K31" s="113"/>
+      <c r="J31" s="123" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="124"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3304,7 +3357,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3315,7 +3368,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K32" s="17"/>
       <c r="L32" s="9"/>
@@ -3329,7 +3382,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -3341,7 +3394,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
@@ -3365,7 +3418,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="19"/>
@@ -3379,7 +3432,7 @@
     </row>
     <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3392,7 +3445,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="21"/>
       <c r="L35" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M35" s="13"/>
       <c r="N35" s="14"/>
@@ -3417,7 +3470,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="14"/>
@@ -3442,7 +3495,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="14"/>
@@ -3549,7 +3602,7 @@
     </row>
     <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="46" t="s" ph="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="11">
         <v>42803</v>
@@ -3602,24 +3655,24 @@
     </row>
     <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="121" t="s">
-        <v>110</v>
+      <c r="C44" s="106" t="s">
+        <v>107</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="126" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="126"/>
+      <c r="F44" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="111"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="132"/>
+      <c r="M44" s="132"/>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
@@ -3627,22 +3680,24 @@
     </row>
     <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="122"/>
+      <c r="C45" s="107"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
-      <c r="F45" s="84" t="s">
-        <v>102</v>
+      <c r="F45" s="83" t="s">
+        <v>99</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
       <c r="J45" s="49"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="153" t="s">
+        <v>131</v>
+      </c>
+      <c r="M45" s="132"/>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -3650,22 +3705,22 @@
     </row>
     <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="122"/>
+      <c r="C46" s="107"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="84" t="s">
-        <v>116</v>
+      <c r="F46" s="83" t="s">
+        <v>113</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
       <c r="J46" s="43"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="151"/>
+      <c r="M46" s="132"/>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -3673,22 +3728,22 @@
     </row>
     <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="122"/>
+      <c r="C47" s="107"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="89" t="s">
-        <v>102</v>
+      <c r="G47" s="88" t="s">
+        <v>99</v>
       </c>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
       <c r="J47" s="50"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="132"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
@@ -3699,19 +3754,19 @@
         <v>19</v>
       </c>
       <c r="B48" s="49"/>
-      <c r="C48" s="122"/>
+      <c r="C48" s="107"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="126" t="s">
-        <v>117</v>
-      </c>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
+      <c r="G48" s="111" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
       <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
       <c r="N48" s="51"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
@@ -3719,24 +3774,26 @@
     </row>
     <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="49"/>
-      <c r="C49" s="122"/>
+      <c r="C49" s="107"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="100" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="100" t="s">
+      <c r="G49" s="99" t="s">
         <v>113</v>
+      </c>
+      <c r="H49" s="99" t="s">
+        <v>110</v>
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
+      <c r="K49" s="153" t="s">
+        <v>131</v>
+      </c>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
       <c r="N49" s="51"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
@@ -3744,22 +3801,22 @@
     </row>
     <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="49"/>
-      <c r="C50" s="122"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="43"/>
-      <c r="H50" s="100" t="s">
-        <v>69</v>
+      <c r="H50" s="99" t="s">
+        <v>66</v>
       </c>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
       <c r="N50" s="51"/>
       <c r="O50" s="51"/>
       <c r="P50" s="51"/>
@@ -3767,22 +3824,22 @@
     </row>
     <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="49"/>
-      <c r="C51" s="122"/>
+      <c r="C51" s="107"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="43"/>
       <c r="H51" s="49"/>
-      <c r="I51" s="100" t="s">
-        <v>69</v>
+      <c r="I51" s="99" t="s">
+        <v>66</v>
       </c>
       <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
       <c r="N51" s="51"/>
       <c r="O51" s="51"/>
       <c r="P51" s="51"/>
@@ -3790,21 +3847,21 @@
     </row>
     <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="49"/>
-      <c r="C52" s="122"/>
+      <c r="C52" s="107"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="43"/>
       <c r="H52" s="49"/>
       <c r="J52" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="K52" s="151"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
       <c r="N52" s="51"/>
       <c r="O52" s="51"/>
       <c r="P52" s="51"/>
@@ -3812,22 +3869,22 @@
     </row>
     <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B53" s="49"/>
-      <c r="C53" s="122"/>
+      <c r="C53" s="107"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="43"/>
       <c r="H53" s="49"/>
-      <c r="I53" s="99" t="s">
-        <v>102</v>
+      <c r="I53" s="98" t="s">
+        <v>99</v>
       </c>
       <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="133"/>
+      <c r="M53" s="133"/>
       <c r="N53" s="51"/>
       <c r="O53" s="51"/>
       <c r="P53" s="51"/>
@@ -3838,7 +3895,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="52"/>
-      <c r="C54" s="122"/>
+      <c r="C54" s="107"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="9"/>
@@ -3846,11 +3903,11 @@
       <c r="H54" s="49"/>
       <c r="I54" s="1"/>
       <c r="J54" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
+        <v>87</v>
+      </c>
+      <c r="K54" s="133"/>
+      <c r="L54" s="133"/>
+      <c r="M54" s="133"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
@@ -3858,29 +3915,31 @@
       <c r="S54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T54" s="107" t="s">
-        <v>45</v>
-      </c>
-      <c r="U54" s="107"/>
+      <c r="T54" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="U54" s="118"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="52"/>
-      <c r="C55" s="122"/>
+      <c r="C55" s="107"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="9"/>
       <c r="G55" s="49"/>
       <c r="H55" s="49"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
+      <c r="J55" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="133"/>
+      <c r="L55" s="133"/>
+      <c r="M55" s="150" t="s">
+        <v>131</v>
+      </c>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
@@ -3888,29 +3947,29 @@
       <c r="S55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T55" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="U55" s="107"/>
+      <c r="T55" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="U55" s="118"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="49"/>
-      <c r="C56" s="122"/>
+      <c r="C56" s="107"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="9"/>
       <c r="G56" s="49"/>
       <c r="H56" s="49"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
+      <c r="J56" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="133"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="152"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3918,29 +3977,29 @@
       <c r="S56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="107"/>
-      <c r="U56" s="107"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
     </row>
     <row r="57" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="121" t="s">
-        <v>111</v>
+      <c r="C57" s="106" t="s">
+        <v>108</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="55"/>
       <c r="H57" s="43"/>
       <c r="I57" s="43"/>
       <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
@@ -3948,22 +4007,24 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="122"/>
+      <c r="C58" s="107"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="84" t="s">
-        <v>69</v>
+      <c r="E58" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="9"/>
       <c r="H58" s="43"/>
       <c r="I58" s="43"/>
       <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
+      <c r="K58" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
@@ -3971,22 +4032,22 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="122"/>
+      <c r="C59" s="107"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="84" t="s">
-        <v>69</v>
+      <c r="E59" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="9"/>
       <c r="H59" s="43"/>
       <c r="I59" s="43"/>
       <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
+      <c r="K59" s="141"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
@@ -3994,22 +4055,22 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="122"/>
+      <c r="C60" s="107"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="84" t="s">
-        <v>69</v>
+      <c r="E60" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="9"/>
       <c r="H60" s="43"/>
       <c r="I60" s="43"/>
       <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
+      <c r="K60" s="141"/>
+      <c r="L60" s="132"/>
+      <c r="M60" s="132"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
@@ -4017,22 +4078,22 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="122"/>
+      <c r="C61" s="107"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="84" t="s">
-        <v>69</v>
+      <c r="E61" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="9"/>
       <c r="H61" s="43"/>
       <c r="I61" s="43"/>
       <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="132"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
@@ -4040,22 +4101,22 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="122"/>
+      <c r="C62" s="107"/>
       <c r="D62" s="43"/>
-      <c r="E62" s="84" t="s">
-        <v>69</v>
+      <c r="E62" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="9"/>
       <c r="H62" s="43"/>
       <c r="I62" s="43"/>
       <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
@@ -4066,9 +4127,9 @@
         <v>1</v>
       </c>
       <c r="B63" s="49"/>
-      <c r="C63" s="122"/>
+      <c r="C63" s="107"/>
       <c r="D63" s="56" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49"/>
@@ -4076,9 +4137,9 @@
       <c r="H63" s="57"/>
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="133"/>
+      <c r="M63" s="133"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
@@ -4086,12 +4147,12 @@
     </row>
     <row r="64" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B64" s="49"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="84" t="s">
-        <v>69</v>
+      <c r="C64" s="107"/>
+      <c r="D64" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49"/>
@@ -4099,9 +4160,11 @@
       <c r="H64" s="52"/>
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="144" t="s">
+        <v>131</v>
+      </c>
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
@@ -4109,12 +4172,12 @@
     </row>
     <row r="65" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B65" s="49"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="84" t="s">
-        <v>69</v>
+      <c r="C65" s="107"/>
+      <c r="D65" s="83" t="s">
+        <v>66</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49"/>
@@ -4122,9 +4185,9 @@
       <c r="H65" s="9"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
+      <c r="K65" s="132"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="145"/>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
@@ -4132,12 +4195,12 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="85" t="s">
-        <v>69</v>
+      <c r="C66" s="107"/>
+      <c r="D66" s="84" t="s">
+        <v>66</v>
       </c>
       <c r="E66" s="43"/>
       <c r="F66" s="6"/>
@@ -4145,9 +4208,9 @@
       <c r="H66" s="9"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="9"/>
+      <c r="K66" s="132"/>
+      <c r="L66" s="132"/>
+      <c r="M66" s="146"/>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
@@ -4158,19 +4221,19 @@
         <v>20</v>
       </c>
       <c r="B67" s="49"/>
-      <c r="C67" s="122"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="49"/>
       <c r="E67" s="49"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="H67" s="93"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="93"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
+      <c r="G67" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="135"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
       <c r="N67" s="59"/>
       <c r="O67" s="59"/>
       <c r="P67" s="59"/>
@@ -4178,28 +4241,26 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="49"/>
-      <c r="C68" s="122"/>
+      <c r="C68" s="107"/>
       <c r="D68" s="49"/>
       <c r="E68" s="49"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="H68" s="100" t="s">
-        <v>113</v>
+      <c r="G68" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>110</v>
       </c>
       <c r="I68" s="43"/>
       <c r="J68" s="49"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="M68" s="49" t="s">
-        <v>42</v>
-      </c>
+      <c r="K68" s="132"/>
+      <c r="L68" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="M68" s="133"/>
       <c r="N68" s="60"/>
       <c r="O68" s="53"/>
       <c r="P68" s="60"/>
@@ -4207,24 +4268,22 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="49"/>
-      <c r="C69" s="122"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="49"/>
       <c r="E69" s="49"/>
       <c r="F69" s="1"/>
       <c r="G69" s="43"/>
-      <c r="H69" s="100" t="s">
-        <v>69</v>
+      <c r="H69" s="99" t="s">
+        <v>66</v>
       </c>
       <c r="I69" s="49"/>
       <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="49" t="s">
-        <v>37</v>
-      </c>
+      <c r="K69" s="132"/>
+      <c r="L69" s="148"/>
+      <c r="M69" s="133"/>
       <c r="N69" s="53"/>
       <c r="O69" s="60"/>
       <c r="P69" s="60"/>
@@ -4232,21 +4291,21 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B70" s="49"/>
-      <c r="C70" s="122"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="1"/>
       <c r="G70" s="43"/>
-      <c r="H70" s="100" t="s">
-        <v>69</v>
+      <c r="H70" s="99" t="s">
+        <v>66</v>
       </c>
       <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="52"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="148"/>
+      <c r="M70" s="136"/>
       <c r="N70" s="53"/>
       <c r="O70" s="60"/>
       <c r="P70" s="60"/>
@@ -4254,22 +4313,22 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="122"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
       <c r="F71" s="1"/>
       <c r="G71" s="43"/>
       <c r="H71" s="52"/>
-      <c r="I71" s="100" t="s">
-        <v>90</v>
+      <c r="I71" s="99" t="s">
+        <v>87</v>
       </c>
       <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="52"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="148"/>
+      <c r="M71" s="136"/>
       <c r="N71" s="53"/>
       <c r="O71" s="60"/>
       <c r="P71" s="60"/>
@@ -4277,24 +4336,24 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B72" s="49"/>
-      <c r="C72" s="122"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
       <c r="F72" s="1"/>
       <c r="G72" s="43"/>
       <c r="H72" s="52"/>
-      <c r="I72" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="J72" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="52"/>
+      <c r="I72" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="J72" s="100" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72" s="137"/>
+      <c r="L72" s="148"/>
+      <c r="M72" s="136"/>
       <c r="N72" s="53"/>
       <c r="O72" s="53"/>
       <c r="P72" s="62"/>
@@ -4302,10 +4361,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B73" s="49"/>
-      <c r="C73" s="122"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="49"/>
       <c r="E73" s="49"/>
       <c r="F73" s="1"/>
@@ -4313,11 +4372,11 @@
       <c r="H73" s="52"/>
       <c r="I73" s="49"/>
       <c r="J73" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="K73" s="1"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="52"/>
+        <v>112</v>
+      </c>
+      <c r="K73" s="137"/>
+      <c r="L73" s="149"/>
+      <c r="M73" s="136"/>
       <c r="N73" s="53"/>
       <c r="O73" s="53"/>
       <c r="P73" s="62"/>
@@ -4328,19 +4387,19 @@
         <v>36</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="122"/>
+      <c r="C74" s="107"/>
       <c r="D74" s="9"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" s="92"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="98"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="9"/>
+      <c r="F74" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="137"/>
+      <c r="L74" s="137"/>
+      <c r="M74" s="132"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
@@ -4348,22 +4407,24 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="122"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="9"/>
       <c r="E75" s="43"/>
-      <c r="F75" s="90" t="s">
-        <v>69</v>
+      <c r="F75" s="89" t="s">
+        <v>66</v>
       </c>
       <c r="G75" s="43"/>
       <c r="H75" s="43"/>
       <c r="I75" s="43"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="9"/>
+      <c r="K75" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="L75" s="137"/>
+      <c r="M75" s="132"/>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
@@ -4371,22 +4432,22 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="122"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="9"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="90" t="s">
-        <v>69</v>
+      <c r="F76" s="89" t="s">
+        <v>66</v>
       </c>
       <c r="G76" s="43"/>
       <c r="H76" s="43"/>
       <c r="I76" s="43"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="9"/>
+      <c r="K76" s="142"/>
+      <c r="L76" s="138"/>
+      <c r="M76" s="132"/>
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
@@ -4394,22 +4455,24 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="122"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="9"/>
       <c r="E77" s="43"/>
-      <c r="F77" s="89" t="s">
-        <v>69</v>
+      <c r="F77" s="88" t="s">
+        <v>66</v>
       </c>
       <c r="G77" s="43"/>
       <c r="H77" s="43"/>
       <c r="I77" s="50"/>
       <c r="J77" s="43"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="9"/>
+      <c r="K77" s="137"/>
+      <c r="L77" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="M77" s="132"/>
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
@@ -4417,10 +4480,10 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="122"/>
+      <c r="C78" s="107"/>
       <c r="D78" s="9"/>
       <c r="E78" s="43"/>
       <c r="F78" s="43"/>
@@ -4428,11 +4491,13 @@
       <c r="H78" s="43"/>
       <c r="I78" s="50"/>
       <c r="J78" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="K78" s="43"/>
-      <c r="L78" s="64"/>
-      <c r="M78" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="K78" s="132"/>
+      <c r="L78" s="138"/>
+      <c r="M78" s="143" t="s">
+        <v>132</v>
+      </c>
       <c r="N78" s="14"/>
       <c r="O78" s="14"/>
       <c r="P78" s="14"/>
@@ -4440,22 +4505,22 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="123"/>
+      <c r="C79" s="108"/>
       <c r="D79" s="9"/>
       <c r="E79" s="43"/>
-      <c r="F79" s="89" t="s">
-        <v>69</v>
+      <c r="F79" s="88" t="s">
+        <v>66</v>
       </c>
       <c r="G79" s="43"/>
       <c r="H79" s="43"/>
       <c r="I79" s="43"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="9"/>
+      <c r="K79" s="132"/>
+      <c r="L79" s="132"/>
+      <c r="M79" s="142"/>
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
@@ -4466,47 +4531,47 @@
         <v>10</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="124" t="s">
-        <v>112</v>
+      <c r="C80" s="109" t="s">
+        <v>109</v>
       </c>
       <c r="D80" s="43"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="127" t="s">
-        <v>124</v>
-      </c>
-      <c r="H80" s="128"/>
-      <c r="I80" s="128"/>
-      <c r="J80" s="129"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
+      <c r="G80" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="132"/>
+      <c r="L80" s="132"/>
+      <c r="M80" s="132"/>
       <c r="N80" s="51"/>
       <c r="O80" s="51"/>
       <c r="P80" s="51"/>
       <c r="Q80" s="51"/>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="65" t="s">
-        <v>38</v>
+      <c r="A81" s="64" t="s">
+        <v>37</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="125"/>
+      <c r="C81" s="110"/>
       <c r="D81" s="6"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="H81" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="I81" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="J81" s="104"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
+      <c r="G81" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="H81" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="I81" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="J81" s="103"/>
+      <c r="K81" s="132"/>
+      <c r="L81" s="132"/>
+      <c r="M81" s="132"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
@@ -4517,19 +4582,19 @@
         <v>26</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="125"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="6"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="43"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="9"/>
+      <c r="J82" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="K82" s="132"/>
+      <c r="L82" s="132"/>
+      <c r="M82" s="132"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
@@ -4540,19 +4605,19 @@
         <v>27</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="125"/>
+      <c r="C83" s="110"/>
       <c r="D83" s="6"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="43"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="9"/>
+      <c r="J83" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="K83" s="132"/>
+      <c r="L83" s="132"/>
+      <c r="M83" s="132"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
@@ -4563,19 +4628,19 @@
         <v>35</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="125"/>
+      <c r="C84" s="110"/>
       <c r="D84" s="6"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="43"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="104"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="M84" s="9"/>
+      <c r="J84" s="103"/>
+      <c r="K84" s="132"/>
+      <c r="L84" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M84" s="132"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
@@ -4586,19 +4651,19 @@
         <v>28</v>
       </c>
       <c r="B85" s="43"/>
-      <c r="C85" s="125"/>
+      <c r="C85" s="110"/>
       <c r="D85" s="6"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="6"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="9"/>
+      <c r="J85" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="K85" s="132"/>
+      <c r="L85" s="132"/>
+      <c r="M85" s="132"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
@@ -4609,19 +4674,19 @@
         <v>29</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="125"/>
+      <c r="C86" s="110"/>
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="6"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="104"/>
-      <c r="K86" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="L86" s="43"/>
-      <c r="M86" s="9"/>
+      <c r="J86" s="103"/>
+      <c r="K86" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="L86" s="132"/>
+      <c r="M86" s="132"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
@@ -4632,19 +4697,19 @@
         <v>30</v>
       </c>
       <c r="B87" s="43"/>
-      <c r="C87" s="125"/>
+      <c r="C87" s="110"/>
       <c r="D87" s="6"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="6"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="104"/>
+      <c r="J87" s="103"/>
       <c r="K87" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="L87" s="43"/>
-      <c r="M87" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="L87" s="132"/>
+      <c r="M87" s="132"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
@@ -4655,19 +4720,19 @@
         <v>31</v>
       </c>
       <c r="B88" s="43"/>
-      <c r="C88" s="125"/>
+      <c r="C88" s="110"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="6"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="105" t="s">
-        <v>126</v>
-      </c>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="9"/>
+      <c r="J88" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="K88" s="132"/>
+      <c r="L88" s="132"/>
+      <c r="M88" s="132"/>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
@@ -4678,19 +4743,19 @@
         <v>17</v>
       </c>
       <c r="B89" s="43"/>
-      <c r="C89" s="125"/>
+      <c r="C89" s="110"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="86"/>
+      <c r="E89" s="85"/>
       <c r="F89" s="1"/>
       <c r="G89" s="43"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="104"/>
+      <c r="J89" s="103"/>
       <c r="K89" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="L89" s="43"/>
-      <c r="M89" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="L89" s="132"/>
+      <c r="M89" s="132"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
@@ -4698,10 +4763,10 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B90" s="43"/>
-      <c r="C90" s="125"/>
+      <c r="C90" s="110"/>
       <c r="D90" s="43"/>
       <c r="E90" s="6"/>
       <c r="F90" s="1"/>
@@ -4710,21 +4775,21 @@
       <c r="I90" s="1"/>
       <c r="J90" s="13"/>
       <c r="K90" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="L90" s="43"/>
-      <c r="M90" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="L90" s="132"/>
+      <c r="M90" s="132"/>
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="67" t="s">
-        <v>109</v>
+      <c r="A91" s="66" t="s">
+        <v>106</v>
       </c>
       <c r="B91" s="43"/>
-      <c r="C91" s="125"/>
+      <c r="C91" s="110"/>
       <c r="D91" s="43"/>
       <c r="E91" s="6"/>
       <c r="F91" s="1"/>
@@ -4732,34 +4797,34 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="50"/>
+      <c r="K91" s="139"/>
       <c r="L91" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="M91" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="M91" s="132"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
     <row r="92" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="68" t="s">
-        <v>108</v>
+      <c r="A92" s="67" t="s">
+        <v>105</v>
       </c>
       <c r="B92" s="43"/>
-      <c r="C92" s="125"/>
+      <c r="C92" s="110"/>
       <c r="D92" s="43"/>
       <c r="E92" s="6"/>
       <c r="F92" s="1"/>
       <c r="G92" s="6"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="43"/>
+      <c r="J92" s="93"/>
+      <c r="K92" s="132"/>
       <c r="L92" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="M92" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="M92" s="132"/>
       <c r="N92" s="14"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
@@ -4770,19 +4835,19 @@
         <v>18</v>
       </c>
       <c r="B93" s="49"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="130" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="131"/>
-      <c r="F93" s="132"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="E93" s="116"/>
+      <c r="F93" s="117"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="106"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="133"/>
+      <c r="L93" s="133"/>
+      <c r="M93" s="133"/>
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
@@ -4790,135 +4855,134 @@
     </row>
     <row r="94" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B94" s="69"/>
-      <c r="C94" s="125"/>
-      <c r="D94" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="E94" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="F94" s="70"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="95"/>
-      <c r="I94" s="70"/>
-      <c r="J94" s="69"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="69"/>
-      <c r="N94" s="71"/>
-      <c r="O94" s="71"/>
-      <c r="P94" s="71"/>
-      <c r="Q94" s="71"/>
+        <v>62</v>
+      </c>
+      <c r="B94" s="68"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="69"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="94"/>
+      <c r="I94" s="69"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="139"/>
+      <c r="L94" s="139"/>
+      <c r="M94" s="140"/>
+      <c r="N94" s="70"/>
+      <c r="O94" s="70"/>
+      <c r="P94" s="70"/>
+      <c r="Q94" s="70"/>
       <c r="S94" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B95" s="69"/>
-      <c r="C95" s="125"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" s="87"/>
-      <c r="H95" s="95"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="69"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="69"/>
-      <c r="N95" s="71"/>
-      <c r="O95" s="71"/>
-      <c r="P95" s="71"/>
-      <c r="Q95" s="71"/>
+        <v>64</v>
+      </c>
+      <c r="B95" s="68"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="69"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" s="86"/>
+      <c r="H95" s="94"/>
+      <c r="I95" s="69"/>
+      <c r="J95" s="68"/>
+      <c r="K95" s="139"/>
+      <c r="L95" s="139"/>
+      <c r="M95" s="140"/>
+      <c r="N95" s="70"/>
+      <c r="O95" s="70"/>
+      <c r="P95" s="70"/>
+      <c r="Q95" s="70"/>
       <c r="S95" s="8"/>
     </row>
     <row r="96" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="69"/>
-      <c r="C96" s="125"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="G96" s="87"/>
-      <c r="H96" s="69"/>
-      <c r="J96" s="69"/>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="71"/>
-      <c r="O96" s="71"/>
-      <c r="P96" s="71"/>
-      <c r="Q96" s="71"/>
+        <v>63</v>
+      </c>
+      <c r="B96" s="68"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="69"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="G96" s="86"/>
+      <c r="H96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="139"/>
+      <c r="L96" s="139"/>
+      <c r="M96" s="140"/>
+      <c r="N96" s="70"/>
+      <c r="O96" s="70"/>
+      <c r="P96" s="70"/>
+      <c r="Q96" s="70"/>
       <c r="S96" s="8"/>
     </row>
     <row r="97" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="69"/>
-      <c r="C97" s="125"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="G97" s="87"/>
-      <c r="H97" s="70"/>
-      <c r="I97" s="70"/>
-      <c r="J97" s="69"/>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="69"/>
-      <c r="N97" s="71"/>
-      <c r="O97" s="71"/>
-      <c r="P97" s="71"/>
-      <c r="Q97" s="71"/>
+        <v>61</v>
+      </c>
+      <c r="B97" s="68"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="69"/>
+      <c r="E97" s="69"/>
+      <c r="F97" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" s="86"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="69"/>
+      <c r="J97" s="68"/>
+      <c r="K97" s="139"/>
+      <c r="L97" s="139"/>
+      <c r="M97" s="140"/>
+      <c r="N97" s="70"/>
+      <c r="O97" s="70"/>
+      <c r="P97" s="70"/>
+      <c r="Q97" s="70"/>
       <c r="S97" s="8"/>
     </row>
     <row r="98" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="69"/>
-      <c r="C98" s="125"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="G98" s="87"/>
-      <c r="H98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="69"/>
-      <c r="N98" s="71"/>
-      <c r="O98" s="71"/>
-      <c r="P98" s="71"/>
-      <c r="Q98" s="71"/>
+        <v>125</v>
+      </c>
+      <c r="B98" s="68"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="86"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="139"/>
+      <c r="L98" s="139"/>
+      <c r="M98" s="140"/>
+      <c r="N98" s="70"/>
+      <c r="O98" s="70"/>
+      <c r="P98" s="70"/>
+      <c r="Q98" s="70"/>
       <c r="S98" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C57:C79"/>
-    <mergeCell ref="C80:C98"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="D93:F93"/>
+  <mergeCells count="24">
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="L68:L73"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="M78:M79"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -4929,6 +4993,15 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C44:C56"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="C57:C79"/>
+    <mergeCell ref="C80:C98"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="D93:F93"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1814,84 +1814,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1919,15 +1841,15 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,16 +1868,94 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2661,19 +2661,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="127"/>
       <c r="N5" s="22"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
@@ -3037,16 +3037,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="135"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3062,10 +3062,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3116,10 +3116,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="122" t="s">
+      <c r="E22" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="122"/>
+      <c r="F22" s="128"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3170,10 +3170,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="125" t="s">
+      <c r="I24" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="126"/>
+      <c r="J24" s="132"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3342,10 +3342,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="123" t="s">
+      <c r="J31" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="124"/>
+      <c r="K31" s="130"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3658,21 +3658,21 @@
         <v>45</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="106" t="s">
+      <c r="C44" s="138" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="111" t="s">
+      <c r="F44" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="G44" s="111"/>
+      <c r="G44" s="147"/>
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
@@ -3683,7 +3683,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="107"/>
+      <c r="C45" s="139"/>
       <c r="D45" s="9"/>
       <c r="E45" s="43"/>
       <c r="F45" s="83" t="s">
@@ -3693,11 +3693,11 @@
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
       <c r="J45" s="49"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="153" t="s">
+      <c r="K45" s="106"/>
+      <c r="L45" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="M45" s="132"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
@@ -3708,7 +3708,7 @@
         <v>48</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="107"/>
+      <c r="C46" s="139"/>
       <c r="D46" s="9"/>
       <c r="E46" s="43"/>
       <c r="F46" s="83" t="s">
@@ -3718,9 +3718,9 @@
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
       <c r="J46" s="43"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="151"/>
-      <c r="M46" s="132"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="106"/>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -3731,7 +3731,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="107"/>
+      <c r="C47" s="139"/>
       <c r="D47" s="9"/>
       <c r="E47" s="43"/>
       <c r="F47" s="43"/>
@@ -3741,9 +3741,9 @@
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
       <c r="J47" s="50"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="132"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="106"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
@@ -3754,19 +3754,19 @@
         <v>19</v>
       </c>
       <c r="B48" s="49"/>
-      <c r="C48" s="107"/>
+      <c r="C48" s="139"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="111" t="s">
+      <c r="G48" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
       <c r="J48" s="49"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="133"/>
-      <c r="M48" s="133"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
       <c r="N48" s="51"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
@@ -3777,7 +3777,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="49"/>
-      <c r="C49" s="107"/>
+      <c r="C49" s="139"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3789,11 +3789,11 @@
       </c>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
-      <c r="K49" s="153" t="s">
+      <c r="K49" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="L49" s="133"/>
-      <c r="M49" s="133"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
       <c r="N49" s="51"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
@@ -3804,7 +3804,7 @@
         <v>38</v>
       </c>
       <c r="B50" s="49"/>
-      <c r="C50" s="107"/>
+      <c r="C50" s="139"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3814,9 +3814,9 @@
       </c>
       <c r="I50" s="49"/>
       <c r="J50" s="49"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="107"/>
       <c r="N50" s="51"/>
       <c r="O50" s="51"/>
       <c r="P50" s="51"/>
@@ -3827,7 +3827,7 @@
         <v>39</v>
       </c>
       <c r="B51" s="49"/>
-      <c r="C51" s="107"/>
+      <c r="C51" s="139"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3837,9 +3837,9 @@
         <v>66</v>
       </c>
       <c r="J51" s="49"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
+      <c r="K51" s="141"/>
+      <c r="L51" s="107"/>
+      <c r="M51" s="107"/>
       <c r="N51" s="51"/>
       <c r="O51" s="51"/>
       <c r="P51" s="51"/>
@@ -3850,7 +3850,7 @@
         <v>40</v>
       </c>
       <c r="B52" s="49"/>
-      <c r="C52" s="107"/>
+      <c r="C52" s="139"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3859,9 +3859,9 @@
       <c r="J52" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K52" s="151"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="107"/>
+      <c r="M52" s="107"/>
       <c r="N52" s="51"/>
       <c r="O52" s="51"/>
       <c r="P52" s="51"/>
@@ -3872,7 +3872,7 @@
         <v>125</v>
       </c>
       <c r="B53" s="49"/>
-      <c r="C53" s="107"/>
+      <c r="C53" s="139"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3882,9 +3882,9 @@
         <v>99</v>
       </c>
       <c r="J53" s="49"/>
-      <c r="K53" s="152"/>
-      <c r="L53" s="133"/>
-      <c r="M53" s="133"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
       <c r="N53" s="51"/>
       <c r="O53" s="51"/>
       <c r="P53" s="51"/>
@@ -3895,7 +3895,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="52"/>
-      <c r="C54" s="107"/>
+      <c r="C54" s="139"/>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
       <c r="F54" s="9"/>
@@ -3905,9 +3905,9 @@
       <c r="J54" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="K54" s="133"/>
-      <c r="L54" s="133"/>
-      <c r="M54" s="133"/>
+      <c r="K54" s="107"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="107"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
@@ -3915,17 +3915,17 @@
       <c r="S54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T54" s="118" t="s">
+      <c r="T54" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="U54" s="118"/>
+      <c r="U54" s="124"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="52"/>
-      <c r="C55" s="107"/>
+      <c r="C55" s="139"/>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
       <c r="F55" s="9"/>
@@ -3935,9 +3935,9 @@
       <c r="J55" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="133"/>
-      <c r="L55" s="133"/>
-      <c r="M55" s="150" t="s">
+      <c r="K55" s="107"/>
+      <c r="L55" s="107"/>
+      <c r="M55" s="143" t="s">
         <v>131</v>
       </c>
       <c r="N55" s="14"/>
@@ -3947,17 +3947,17 @@
       <c r="S55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="T55" s="118" t="s">
+      <c r="T55" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="U55" s="118"/>
+      <c r="U55" s="124"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B56" s="49"/>
-      <c r="C56" s="107"/>
+      <c r="C56" s="139"/>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="9"/>
@@ -3967,9 +3967,9 @@
       <c r="J56" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="K56" s="133"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="152"/>
+      <c r="K56" s="107"/>
+      <c r="L56" s="107"/>
+      <c r="M56" s="142"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3977,15 +3977,15 @@
       <c r="S56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
+      <c r="T56" s="124"/>
+      <c r="U56" s="124"/>
     </row>
     <row r="57" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="138" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="9"/>
@@ -3997,9 +3997,9 @@
       <c r="H57" s="43"/>
       <c r="I57" s="43"/>
       <c r="J57" s="43"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="106"/>
+      <c r="M57" s="106"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
@@ -4010,7 +4010,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="107"/>
+      <c r="C58" s="139"/>
       <c r="D58" s="9"/>
       <c r="E58" s="83" t="s">
         <v>66</v>
@@ -4020,11 +4020,11 @@
       <c r="H58" s="43"/>
       <c r="I58" s="43"/>
       <c r="J58" s="43"/>
-      <c r="K58" s="143" t="s">
+      <c r="K58" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
+      <c r="L58" s="106"/>
+      <c r="M58" s="106"/>
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
@@ -4035,7 +4035,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="107"/>
+      <c r="C59" s="139"/>
       <c r="D59" s="9"/>
       <c r="E59" s="83" t="s">
         <v>66</v>
@@ -4045,9 +4045,9 @@
       <c r="H59" s="43"/>
       <c r="I59" s="43"/>
       <c r="J59" s="43"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="132"/>
-      <c r="M59" s="132"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="106"/>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
@@ -4058,7 +4058,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="107"/>
+      <c r="C60" s="139"/>
       <c r="D60" s="9"/>
       <c r="E60" s="83" t="s">
         <v>66</v>
@@ -4068,9 +4068,9 @@
       <c r="H60" s="43"/>
       <c r="I60" s="43"/>
       <c r="J60" s="43"/>
-      <c r="K60" s="141"/>
-      <c r="L60" s="132"/>
-      <c r="M60" s="132"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="106"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
@@ -4081,7 +4081,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="107"/>
+      <c r="C61" s="139"/>
       <c r="D61" s="9"/>
       <c r="E61" s="83" t="s">
         <v>66</v>
@@ -4091,9 +4091,9 @@
       <c r="H61" s="43"/>
       <c r="I61" s="43"/>
       <c r="J61" s="43"/>
-      <c r="K61" s="141"/>
-      <c r="L61" s="132"/>
-      <c r="M61" s="132"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="106"/>
+      <c r="M61" s="106"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
@@ -4104,7 +4104,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="107"/>
+      <c r="C62" s="139"/>
       <c r="D62" s="43"/>
       <c r="E62" s="83" t="s">
         <v>66</v>
@@ -4114,9 +4114,9 @@
       <c r="H62" s="43"/>
       <c r="I62" s="43"/>
       <c r="J62" s="43"/>
-      <c r="K62" s="142"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="49"/>
-      <c r="C63" s="107"/>
+      <c r="C63" s="139"/>
       <c r="D63" s="56" t="s">
         <v>87</v>
       </c>
@@ -4137,9 +4137,9 @@
       <c r="H63" s="57"/>
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="133"/>
-      <c r="M63" s="133"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
@@ -4150,7 +4150,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="49"/>
-      <c r="C64" s="107"/>
+      <c r="C64" s="139"/>
       <c r="D64" s="83" t="s">
         <v>66</v>
       </c>
@@ -4160,9 +4160,9 @@
       <c r="H64" s="52"/>
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="133"/>
-      <c r="M64" s="144" t="s">
+      <c r="K64" s="107"/>
+      <c r="L64" s="107"/>
+      <c r="M64" s="118" t="s">
         <v>131</v>
       </c>
       <c r="N64" s="14"/>
@@ -4175,7 +4175,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="49"/>
-      <c r="C65" s="107"/>
+      <c r="C65" s="139"/>
       <c r="D65" s="83" t="s">
         <v>66</v>
       </c>
@@ -4185,9 +4185,9 @@
       <c r="H65" s="9"/>
       <c r="I65" s="49"/>
       <c r="J65" s="49"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="145"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="119"/>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
@@ -4198,7 +4198,7 @@
         <v>103</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="107"/>
+      <c r="C66" s="139"/>
       <c r="D66" s="84" t="s">
         <v>66</v>
       </c>
@@ -4208,9 +4208,9 @@
       <c r="H66" s="9"/>
       <c r="I66" s="43"/>
       <c r="J66" s="43"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="146"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="120"/>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
@@ -4221,7 +4221,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="49"/>
-      <c r="C67" s="107"/>
+      <c r="C67" s="139"/>
       <c r="D67" s="49"/>
       <c r="E67" s="49"/>
       <c r="F67" s="1"/>
@@ -4231,9 +4231,9 @@
       <c r="H67" s="92"/>
       <c r="I67" s="92"/>
       <c r="J67" s="92"/>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
+      <c r="K67" s="109"/>
+      <c r="L67" s="109"/>
+      <c r="M67" s="109"/>
       <c r="N67" s="59"/>
       <c r="O67" s="59"/>
       <c r="P67" s="59"/>
@@ -4244,7 +4244,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="49"/>
-      <c r="C68" s="107"/>
+      <c r="C68" s="139"/>
       <c r="D68" s="49"/>
       <c r="E68" s="49"/>
       <c r="F68" s="1"/>
@@ -4256,11 +4256,11 @@
       </c>
       <c r="I68" s="43"/>
       <c r="J68" s="49"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="147" t="s">
+      <c r="K68" s="106"/>
+      <c r="L68" s="121" t="s">
         <v>131</v>
       </c>
-      <c r="M68" s="133"/>
+      <c r="M68" s="107"/>
       <c r="N68" s="60"/>
       <c r="O68" s="53"/>
       <c r="P68" s="60"/>
@@ -4271,7 +4271,7 @@
         <v>38</v>
       </c>
       <c r="B69" s="49"/>
-      <c r="C69" s="107"/>
+      <c r="C69" s="139"/>
       <c r="D69" s="49"/>
       <c r="E69" s="49"/>
       <c r="F69" s="1"/>
@@ -4281,9 +4281,9 @@
       </c>
       <c r="I69" s="49"/>
       <c r="J69" s="43"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="148"/>
-      <c r="M69" s="133"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="122"/>
+      <c r="M69" s="107"/>
       <c r="N69" s="53"/>
       <c r="O69" s="60"/>
       <c r="P69" s="60"/>
@@ -4294,7 +4294,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="49"/>
-      <c r="C70" s="107"/>
+      <c r="C70" s="139"/>
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="1"/>
@@ -4303,9 +4303,9 @@
         <v>66</v>
       </c>
       <c r="J70" s="43"/>
-      <c r="K70" s="132"/>
-      <c r="L70" s="148"/>
-      <c r="M70" s="136"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="110"/>
       <c r="N70" s="53"/>
       <c r="O70" s="60"/>
       <c r="P70" s="60"/>
@@ -4316,7 +4316,7 @@
         <v>61</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="107"/>
+      <c r="C71" s="139"/>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
       <c r="F71" s="1"/>
@@ -4326,9 +4326,9 @@
         <v>87</v>
       </c>
       <c r="J71" s="43"/>
-      <c r="K71" s="132"/>
-      <c r="L71" s="148"/>
-      <c r="M71" s="136"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="122"/>
+      <c r="M71" s="110"/>
       <c r="N71" s="53"/>
       <c r="O71" s="60"/>
       <c r="P71" s="60"/>
@@ -4339,7 +4339,7 @@
         <v>101</v>
       </c>
       <c r="B72" s="49"/>
-      <c r="C72" s="107"/>
+      <c r="C72" s="139"/>
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
       <c r="F72" s="1"/>
@@ -4351,9 +4351,9 @@
       <c r="J72" s="100" t="s">
         <v>129</v>
       </c>
-      <c r="K72" s="137"/>
-      <c r="L72" s="148"/>
-      <c r="M72" s="136"/>
+      <c r="K72" s="111"/>
+      <c r="L72" s="122"/>
+      <c r="M72" s="110"/>
       <c r="N72" s="53"/>
       <c r="O72" s="53"/>
       <c r="P72" s="62"/>
@@ -4364,7 +4364,7 @@
         <v>102</v>
       </c>
       <c r="B73" s="49"/>
-      <c r="C73" s="107"/>
+      <c r="C73" s="139"/>
       <c r="D73" s="49"/>
       <c r="E73" s="49"/>
       <c r="F73" s="1"/>
@@ -4374,9 +4374,9 @@
       <c r="J73" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="K73" s="137"/>
-      <c r="L73" s="149"/>
-      <c r="M73" s="136"/>
+      <c r="K73" s="111"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="110"/>
       <c r="N73" s="53"/>
       <c r="O73" s="53"/>
       <c r="P73" s="62"/>
@@ -4387,7 +4387,7 @@
         <v>36</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="107"/>
+      <c r="C74" s="139"/>
       <c r="D74" s="9"/>
       <c r="E74" s="6"/>
       <c r="F74" s="91" t="s">
@@ -4397,9 +4397,9 @@
       <c r="H74" s="91"/>
       <c r="I74" s="96"/>
       <c r="J74" s="97"/>
-      <c r="K74" s="137"/>
-      <c r="L74" s="137"/>
-      <c r="M74" s="132"/>
+      <c r="K74" s="111"/>
+      <c r="L74" s="111"/>
+      <c r="M74" s="106"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
@@ -4410,7 +4410,7 @@
         <v>41</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="107"/>
+      <c r="C75" s="139"/>
       <c r="D75" s="9"/>
       <c r="E75" s="43"/>
       <c r="F75" s="89" t="s">
@@ -4420,11 +4420,11 @@
       <c r="H75" s="43"/>
       <c r="I75" s="43"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="143" t="s">
+      <c r="K75" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="L75" s="137"/>
-      <c r="M75" s="132"/>
+      <c r="L75" s="111"/>
+      <c r="M75" s="106"/>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
@@ -4435,7 +4435,7 @@
         <v>44</v>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="107"/>
+      <c r="C76" s="139"/>
       <c r="D76" s="9"/>
       <c r="E76" s="43"/>
       <c r="F76" s="89" t="s">
@@ -4445,9 +4445,9 @@
       <c r="H76" s="43"/>
       <c r="I76" s="43"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="142"/>
-      <c r="L76" s="138"/>
-      <c r="M76" s="132"/>
+      <c r="K76" s="117"/>
+      <c r="L76" s="112"/>
+      <c r="M76" s="106"/>
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
@@ -4458,7 +4458,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="107"/>
+      <c r="C77" s="139"/>
       <c r="D77" s="9"/>
       <c r="E77" s="43"/>
       <c r="F77" s="88" t="s">
@@ -4468,11 +4468,11 @@
       <c r="H77" s="43"/>
       <c r="I77" s="50"/>
       <c r="J77" s="43"/>
-      <c r="K77" s="137"/>
+      <c r="K77" s="111"/>
       <c r="L77" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="M77" s="132"/>
+      <c r="M77" s="106"/>
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
@@ -4483,7 +4483,7 @@
         <v>50</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="107"/>
+      <c r="C78" s="139"/>
       <c r="D78" s="9"/>
       <c r="E78" s="43"/>
       <c r="F78" s="43"/>
@@ -4493,9 +4493,9 @@
       <c r="J78" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="K78" s="132"/>
-      <c r="L78" s="138"/>
-      <c r="M78" s="143" t="s">
+      <c r="K78" s="106"/>
+      <c r="L78" s="112"/>
+      <c r="M78" s="115" t="s">
         <v>132</v>
       </c>
       <c r="N78" s="14"/>
@@ -4508,7 +4508,7 @@
         <v>51</v>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="108"/>
+      <c r="C79" s="144"/>
       <c r="D79" s="9"/>
       <c r="E79" s="43"/>
       <c r="F79" s="88" t="s">
@@ -4518,9 +4518,9 @@
       <c r="H79" s="43"/>
       <c r="I79" s="43"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="132"/>
-      <c r="L79" s="132"/>
-      <c r="M79" s="142"/>
+      <c r="K79" s="106"/>
+      <c r="L79" s="106"/>
+      <c r="M79" s="117"/>
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
@@ -4531,20 +4531,20 @@
         <v>10</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="109" t="s">
+      <c r="C80" s="145" t="s">
         <v>109</v>
       </c>
       <c r="D80" s="43"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="112" t="s">
+      <c r="G80" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="H80" s="113"/>
-      <c r="I80" s="113"/>
-      <c r="J80" s="114"/>
-      <c r="K80" s="132"/>
-      <c r="L80" s="132"/>
-      <c r="M80" s="132"/>
+      <c r="H80" s="149"/>
+      <c r="I80" s="149"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="106"/>
+      <c r="L80" s="106"/>
+      <c r="M80" s="106"/>
       <c r="N80" s="51"/>
       <c r="O80" s="51"/>
       <c r="P80" s="51"/>
@@ -4555,7 +4555,7 @@
         <v>37</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="110"/>
+      <c r="C81" s="146"/>
       <c r="D81" s="6"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -4569,9 +4569,9 @@
         <v>130</v>
       </c>
       <c r="J81" s="103"/>
-      <c r="K81" s="132"/>
-      <c r="L81" s="132"/>
-      <c r="M81" s="132"/>
+      <c r="K81" s="106"/>
+      <c r="L81" s="106"/>
+      <c r="M81" s="106"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
@@ -4582,7 +4582,7 @@
         <v>26</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="110"/>
+      <c r="C82" s="146"/>
       <c r="D82" s="6"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -4592,9 +4592,9 @@
       <c r="J82" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="K82" s="132"/>
-      <c r="L82" s="132"/>
-      <c r="M82" s="132"/>
+      <c r="K82" s="106"/>
+      <c r="L82" s="106"/>
+      <c r="M82" s="106"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
@@ -4605,7 +4605,7 @@
         <v>27</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="110"/>
+      <c r="C83" s="146"/>
       <c r="D83" s="6"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -4615,9 +4615,9 @@
       <c r="J83" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="K83" s="132"/>
-      <c r="L83" s="132"/>
-      <c r="M83" s="132"/>
+      <c r="K83" s="106"/>
+      <c r="L83" s="106"/>
+      <c r="M83" s="106"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
@@ -4628,7 +4628,7 @@
         <v>35</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="110"/>
+      <c r="C84" s="146"/>
       <c r="D84" s="6"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -4636,11 +4636,11 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="103"/>
-      <c r="K84" s="132"/>
+      <c r="K84" s="106"/>
       <c r="L84" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="132"/>
+      <c r="M84" s="106"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
@@ -4651,7 +4651,7 @@
         <v>28</v>
       </c>
       <c r="B85" s="43"/>
-      <c r="C85" s="110"/>
+      <c r="C85" s="146"/>
       <c r="D85" s="6"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -4661,9 +4661,9 @@
       <c r="J85" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="K85" s="132"/>
-      <c r="L85" s="132"/>
-      <c r="M85" s="132"/>
+      <c r="K85" s="106"/>
+      <c r="L85" s="106"/>
+      <c r="M85" s="106"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
@@ -4674,7 +4674,7 @@
         <v>29</v>
       </c>
       <c r="B86" s="43"/>
-      <c r="C86" s="110"/>
+      <c r="C86" s="146"/>
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -4685,8 +4685,8 @@
       <c r="K86" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="L86" s="132"/>
-      <c r="M86" s="132"/>
+      <c r="L86" s="106"/>
+      <c r="M86" s="106"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
@@ -4697,7 +4697,7 @@
         <v>30</v>
       </c>
       <c r="B87" s="43"/>
-      <c r="C87" s="110"/>
+      <c r="C87" s="146"/>
       <c r="D87" s="6"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4708,8 +4708,8 @@
       <c r="K87" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="L87" s="132"/>
-      <c r="M87" s="132"/>
+      <c r="L87" s="106"/>
+      <c r="M87" s="106"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
@@ -4720,7 +4720,7 @@
         <v>31</v>
       </c>
       <c r="B88" s="43"/>
-      <c r="C88" s="110"/>
+      <c r="C88" s="146"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -4730,9 +4730,9 @@
       <c r="J88" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="K88" s="132"/>
-      <c r="L88" s="132"/>
-      <c r="M88" s="132"/>
+      <c r="K88" s="106"/>
+      <c r="L88" s="106"/>
+      <c r="M88" s="106"/>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
@@ -4743,7 +4743,7 @@
         <v>17</v>
       </c>
       <c r="B89" s="43"/>
-      <c r="C89" s="110"/>
+      <c r="C89" s="146"/>
       <c r="D89" s="6"/>
       <c r="E89" s="85"/>
       <c r="F89" s="1"/>
@@ -4754,8 +4754,8 @@
       <c r="K89" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="L89" s="132"/>
-      <c r="M89" s="132"/>
+      <c r="L89" s="106"/>
+      <c r="M89" s="106"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
@@ -4766,7 +4766,7 @@
         <v>104</v>
       </c>
       <c r="B90" s="43"/>
-      <c r="C90" s="110"/>
+      <c r="C90" s="146"/>
       <c r="D90" s="43"/>
       <c r="E90" s="6"/>
       <c r="F90" s="1"/>
@@ -4777,8 +4777,8 @@
       <c r="K90" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="L90" s="132"/>
-      <c r="M90" s="132"/>
+      <c r="L90" s="106"/>
+      <c r="M90" s="106"/>
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
@@ -4789,7 +4789,7 @@
         <v>106</v>
       </c>
       <c r="B91" s="43"/>
-      <c r="C91" s="110"/>
+      <c r="C91" s="146"/>
       <c r="D91" s="43"/>
       <c r="E91" s="6"/>
       <c r="F91" s="1"/>
@@ -4797,11 +4797,11 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="139"/>
+      <c r="K91" s="113"/>
       <c r="L91" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="M91" s="132"/>
+      <c r="M91" s="106"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
@@ -4812,7 +4812,7 @@
         <v>105</v>
       </c>
       <c r="B92" s="43"/>
-      <c r="C92" s="110"/>
+      <c r="C92" s="146"/>
       <c r="D92" s="43"/>
       <c r="E92" s="6"/>
       <c r="F92" s="1"/>
@@ -4820,11 +4820,11 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="93"/>
-      <c r="K92" s="132"/>
+      <c r="K92" s="106"/>
       <c r="L92" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="M92" s="132"/>
+      <c r="M92" s="106"/>
       <c r="N92" s="14"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
@@ -4835,19 +4835,19 @@
         <v>18</v>
       </c>
       <c r="B93" s="49"/>
-      <c r="C93" s="110"/>
-      <c r="D93" s="115" t="s">
+      <c r="C93" s="146"/>
+      <c r="D93" s="151" t="s">
         <v>127</v>
       </c>
-      <c r="E93" s="116"/>
-      <c r="F93" s="117"/>
+      <c r="E93" s="152"/>
+      <c r="F93" s="153"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="105"/>
-      <c r="K93" s="133"/>
-      <c r="L93" s="133"/>
-      <c r="M93" s="133"/>
+      <c r="K93" s="107"/>
+      <c r="L93" s="107"/>
+      <c r="M93" s="107"/>
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
@@ -4858,7 +4858,7 @@
         <v>62</v>
       </c>
       <c r="B94" s="68"/>
-      <c r="C94" s="110"/>
+      <c r="C94" s="146"/>
       <c r="D94" s="87" t="s">
         <v>81</v>
       </c>
@@ -4870,9 +4870,9 @@
       <c r="H94" s="94"/>
       <c r="I94" s="69"/>
       <c r="J94" s="68"/>
-      <c r="K94" s="139"/>
-      <c r="L94" s="139"/>
-      <c r="M94" s="140"/>
+      <c r="K94" s="113"/>
+      <c r="L94" s="113"/>
+      <c r="M94" s="114"/>
       <c r="N94" s="70"/>
       <c r="O94" s="70"/>
       <c r="P94" s="70"/>
@@ -4886,7 +4886,7 @@
         <v>64</v>
       </c>
       <c r="B95" s="68"/>
-      <c r="C95" s="110"/>
+      <c r="C95" s="146"/>
       <c r="D95" s="69"/>
       <c r="E95" s="69"/>
       <c r="F95" s="89" t="s">
@@ -4896,9 +4896,9 @@
       <c r="H95" s="94"/>
       <c r="I95" s="69"/>
       <c r="J95" s="68"/>
-      <c r="K95" s="139"/>
-      <c r="L95" s="139"/>
-      <c r="M95" s="140"/>
+      <c r="K95" s="113"/>
+      <c r="L95" s="113"/>
+      <c r="M95" s="114"/>
       <c r="N95" s="70"/>
       <c r="O95" s="70"/>
       <c r="P95" s="70"/>
@@ -4910,7 +4910,7 @@
         <v>63</v>
       </c>
       <c r="B96" s="68"/>
-      <c r="C96" s="110"/>
+      <c r="C96" s="146"/>
       <c r="D96" s="69"/>
       <c r="E96" s="69"/>
       <c r="F96" s="89" t="s">
@@ -4919,9 +4919,9 @@
       <c r="G96" s="86"/>
       <c r="H96" s="68"/>
       <c r="J96" s="68"/>
-      <c r="K96" s="139"/>
-      <c r="L96" s="139"/>
-      <c r="M96" s="140"/>
+      <c r="K96" s="113"/>
+      <c r="L96" s="113"/>
+      <c r="M96" s="114"/>
       <c r="N96" s="70"/>
       <c r="O96" s="70"/>
       <c r="P96" s="70"/>
@@ -4933,7 +4933,7 @@
         <v>61</v>
       </c>
       <c r="B97" s="68"/>
-      <c r="C97" s="110"/>
+      <c r="C97" s="146"/>
       <c r="D97" s="69"/>
       <c r="E97" s="69"/>
       <c r="F97" s="87" t="s">
@@ -4943,9 +4943,9 @@
       <c r="H97" s="69"/>
       <c r="I97" s="69"/>
       <c r="J97" s="68"/>
-      <c r="K97" s="139"/>
-      <c r="L97" s="139"/>
-      <c r="M97" s="140"/>
+      <c r="K97" s="113"/>
+      <c r="L97" s="113"/>
+      <c r="M97" s="114"/>
       <c r="N97" s="70"/>
       <c r="O97" s="70"/>
       <c r="P97" s="70"/>
@@ -4957,7 +4957,7 @@
         <v>125</v>
       </c>
       <c r="B98" s="68"/>
-      <c r="C98" s="110"/>
+      <c r="C98" s="146"/>
       <c r="D98" s="69"/>
       <c r="E98" s="69"/>
       <c r="F98" s="89" t="s">
@@ -4967,9 +4967,9 @@
       <c r="H98" s="69"/>
       <c r="I98" s="69"/>
       <c r="J98" s="68"/>
-      <c r="K98" s="139"/>
-      <c r="L98" s="139"/>
-      <c r="M98" s="140"/>
+      <c r="K98" s="113"/>
+      <c r="L98" s="113"/>
+      <c r="M98" s="114"/>
       <c r="N98" s="70"/>
       <c r="O98" s="70"/>
       <c r="P98" s="70"/>
@@ -4978,11 +4978,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="L68:L73"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="C57:C79"/>
+    <mergeCell ref="C80:C98"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="D93:F93"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -4996,12 +4997,11 @@
     <mergeCell ref="K49:K53"/>
     <mergeCell ref="L45:L47"/>
     <mergeCell ref="M55:M56"/>
-    <mergeCell ref="C57:C79"/>
-    <mergeCell ref="C80:C98"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="L68:L73"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="M78:M79"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/福山/ドキュメント/ガントチャート完成.xlsx
+++ b/福山/ドキュメント/ガントチャート完成.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kemon\Desktop\zeen\GameProject\福山\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomi-\Desktop\GameProject\福山\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
   <si>
     <t>ゲームクリア</t>
     <phoneticPr fontId="2"/>
@@ -942,11 +942,18 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>廃止になったもの</t>
+    <rPh sb="0" eb="2">
+      <t>ハイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1495,7 +1502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1607,12 +1614,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="13" fillId="15" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,9 +1630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1841,6 +1839,81 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1868,94 +1941,43 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2004,7 +2026,7 @@
             <xdr14:cNvPr id="3" name="インク 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D03F9A7D-0791-49EB-AFC2-E010EFE58AD8}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2069,7 +2091,7 @@
             <xdr14:cNvPr id="5" name="インク 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A43C629-EDC1-4C13-AAB9-686EB1E837F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2148,7 +2170,7 @@
         </emma:interpretation>
       </emma:emma>
     </inkml:annotationXML>
-    <inkml:trace contextRef="#ctx0" brushRef="#br0">50952 45509 9472,'0'19'0,"0"37"64,0-36 32,0 17 32,0 1 64,0-1-96,0 1 0,0 19-32,0 0-64,0-19 96,0 0-64,0 18-32,0 1-64,0-20 32,0 21 160,0-2 64,0-18 64,0 18 64,0-18-96,0 0-64,0 0-64,0-19-96,0 0 32,0-1 32,0 2-32,0-2-32,0 2 32,0-2 32,0-18-32,0 19-32,0 0-64,0 0 32,0 0 32,0-19 0,0 19 0,0 0 64,0-1-32,0-18-32,0 20 32,0-2-32,0 2-96,0-20 64,0 18 32,0 1 0,0-19 0,0 19 64,0-19-96,0 19-64,0-19 128,0 19 32,0-19 0,0 18 32,0-18-128,0 20 0,0-20 32,-94 0 0,94 0 0,0 18 64,0-18-32,0 0-32,0 20-64,0-20 32,0 0 96,0 18 32,0-18-192,-19 0-288,19 0-32,0 0-768,0 0-320,0-18-928,-19-2-672,19-18 1376</inkml:trace>
+    <inkml:trace contextRef="#ctx0" brushRef="#br0">50952 45509 9472,'0'21'0,"0"39"64,0-38 32,0 18 32,0 1 64,0-2-96,0 3 0,0 19-32,0 1-64,0-21 96,0 0-64,0 19-32,0 2-64,0-22 32,0 22 160,0-1 64,0-20 64,0 19 64,0-19-96,0 0-64,0 0-64,0-20-96,0-1 32,0 0 32,0 1-32,0-1-32,0 1 32,0-1 32,0-20-32,0 20-32,0 1-64,0-1 32,0 1 32,0-21 0,0 20 0,0 1 64,0-2-32,0-19-32,0 22 32,0-3-32,0 3-96,0-22 64,0 19 32,0 2 0,0-21 0,0 20 64,0-20-96,0 21-64,0-21 128,0 20 32,0-20 0,0 20 32,0-20-128,0 21 0,0-21 32,-94 0 0,94 0 0,0 20 64,0-20-32,0 0-32,0 21-64,0-21 32,0 0 96,0 20 32,0-20-192,-19 0-288,19 0-32,0 0-768,0 0-320,0-20-928,-19-1-672,19-20 1376</inkml:trace>
   </inkml:traceGroup>
 </inkml:ink>
 </file>
@@ -2225,8 +2247,8 @@
               </emma:one-of>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0">6994 45754 8576,'-76'0'3232,"76"0"-1728,19 0-1760</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1610">7316 45641 2304,'-38'0'864,"76"0"-448,-38 0-704,0 0 128,0 38-736,0-38-288</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">6988 45762 8576,'-73'0'3232,"73"0"-1728,18 0-1760</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1610">7297 45641 2304,'-36'0'864,"72"0"-448,-36 0-704,0 0 128,0 41-736,0-41-288</inkml:trace>
         </inkml:traceGroup>
         <inkml:traceGroup>
           <inkml:annotationXML>
@@ -2236,8 +2258,8 @@
               </emma:interpretation>
             </emma:emma>
           </inkml:annotationXML>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">7070 46321 1536,'-38'0'608,"38"0"-320,0 0-128,0 0 192,0 0 0,0 0 32,0 0 224,0 0 64</inkml:trace>
-          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266">7032 46340 5664,'0'19'288,"0"18"-128,0-17-128,0 18-32,-19-20 0,19 1 64,0 19-32,-19-19-32,19 19 224,-19-20 96,19 20 32,-18 0 32,-1 0-64,19 0 32,-19 0-192,19 0-32,-19-1 64,19-18-384,0 19-96,-19-20 320,19 20 192,0-18-64,-19-2-96,19-18-32,0 19-32,0 0-96,0-19 0,0 0-160,0 19-64,0-19 64,0 0 96,0 0-64,0 19 64,0-19 96,0 0 32,0 0-64,0 18 64,-19-18-192,19 0 0,0 20-2368</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1875">7061 46372 1536,'-37'0'608,"37"0"-320,0 0-128,0 0 192,0 0 0,0 0 32,0 0 224,0 0 64</inkml:trace>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2266">7024 46392 5664,'0'21'288,"0"19"-128,0-19-128,0 20-32,-18-22 0,18 2 64,0 20-32,-18-21-32,18 21 224,-18-22 96,18 22 32,-18 0 32,0 0-64,18 0 32,-18-1-192,18 1-32,-18-1 64,18-20-384,0 21-96,-19-21 320,19 21 192,0-20-64,-18-2-96,18-19-32,0 21-32,0-1-96,0-20 0,0 0-160,0 21-64,0-21 64,0 0 96,0 0-64,0 20 64,0-20 96,0 0 32,0 0-64,0 19 64,-18-19-192,18 0 0,0 22-2368</inkml:trace>
         </inkml:traceGroup>
       </inkml:traceGroup>
     </inkml:traceGroup>
@@ -2510,21 +2532,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75:K76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35:L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s" ph="1">
         <v>98</v>
       </c>
@@ -2534,10 +2556,10 @@
       <c r="C1" s="10">
         <v>42804</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="37">
         <v>42805</v>
       </c>
-      <c r="E1" s="39">
+      <c r="E1" s="37">
         <v>42806</v>
       </c>
       <c r="F1" s="11">
@@ -2555,13 +2577,13 @@
       <c r="J1" s="11">
         <v>42811</v>
       </c>
-      <c r="K1" s="39">
+      <c r="K1" s="37">
         <v>42812</v>
       </c>
-      <c r="L1" s="39">
+      <c r="L1" s="37">
         <v>42813</v>
       </c>
-      <c r="M1" s="39">
+      <c r="M1" s="37">
         <v>42814</v>
       </c>
       <c r="N1" s="11">
@@ -2577,12 +2599,12 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>65</v>
       </c>
       <c r="D2" s="13"/>
@@ -2604,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +2653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +2678,7 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
         <v>72</v>
       </c>
@@ -2743,7 +2765,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
         <v>74</v>
       </c>
@@ -2774,7 +2796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>92</v>
       </c>
@@ -2803,11 +2825,11 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="15"/>
-      <c r="S9" s="90" t="s">
+      <c r="S9" s="87" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>93</v>
       </c>
@@ -2830,9 +2852,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="153" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
@@ -2857,7 +2881,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
@@ -2882,12 +2906,12 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="78" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="13"/>
@@ -2895,7 +2919,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="74"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -2907,15 +2931,15 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B14" s="21"/>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2932,13 +2956,13 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="82" t="s">
+      <c r="C15" s="75"/>
+      <c r="D15" s="79" t="s">
         <v>119</v>
       </c>
       <c r="E15" s="13"/>
@@ -2957,13 +2981,13 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="70" t="s">
         <v>119</v>
       </c>
       <c r="E16" s="13"/>
@@ -2982,15 +3006,15 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>115</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="77"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3007,15 +3031,15 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -3032,21 +3056,21 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="135"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="130"/>
       <c r="K19" s="17"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3057,15 +3081,15 @@
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="35"/>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -3082,16 +3106,16 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="80" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="9"/>
@@ -3109,17 +3133,17 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="146" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="128"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -3134,7 +3158,7 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>16</v>
       </c>
@@ -3143,10 +3167,10 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="35"/>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="45"/>
+      <c r="H23" s="147"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -3159,7 +3183,7 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
@@ -3170,10 +3194,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="132"/>
+      <c r="J24" s="149"/>
       <c r="K24" s="9"/>
       <c r="L24" s="19"/>
       <c r="M24" s="9"/>
@@ -3184,7 +3208,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3193,10 +3217,10 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="35"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="155"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="72"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="13"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
@@ -3205,7 +3229,7 @@
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>96</v>
       </c>
@@ -3219,7 +3243,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="150" t="s">
         <v>85</v>
       </c>
       <c r="M26" s="13"/>
@@ -3230,7 +3254,7 @@
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>8</v>
       </c>
@@ -3244,7 +3268,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="33" t="s">
+      <c r="L27" s="151" t="s">
         <v>66</v>
       </c>
       <c r="M27" s="9"/>
@@ -3255,7 +3279,7 @@
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
@@ -3269,7 +3293,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="152" t="s">
         <v>66</v>
       </c>
       <c r="M28" s="9"/>
@@ -3280,7 +3304,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>7</v>
       </c>
@@ -3294,7 +3318,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="152" t="s">
         <v>86</v>
       </c>
       <c r="M29" s="9"/>
@@ -3305,7 +3329,7 @@
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3343,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="152" t="s">
         <v>87</v>
       </c>
       <c r="M30" s="9"/>
@@ -3330,7 +3354,7 @@
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>88</v>
       </c>
@@ -3342,10 +3366,10 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="129" t="s">
+      <c r="J31" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="K31" s="130"/>
+      <c r="K31" s="157"/>
       <c r="L31" s="13"/>
       <c r="M31" s="9"/>
       <c r="N31" s="14"/>
@@ -3355,7 +3379,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>89</v>
       </c>
@@ -3367,7 +3391,7 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="158" t="s">
         <v>99</v>
       </c>
       <c r="K32" s="17"/>
@@ -3380,7 +3404,7 @@
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>90</v>
       </c>
@@ -3393,7 +3417,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="80" t="s">
         <v>81</v>
       </c>
       <c r="L33" s="9"/>
@@ -3405,7 +3429,7 @@
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
@@ -3417,7 +3441,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="36" t="s">
+      <c r="J34" s="80" t="s">
         <v>99</v>
       </c>
       <c r="K34" s="9"/>
@@ -3430,7 +3454,7 @@
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>91</v>
       </c>
@@ -3455,7 +3479,7 @@
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -3480,7 +3504,7 @@
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -3505,7 +3529,7 @@
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -3524,7 +3548,7 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
@@ -3543,7 +3567,7 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
@@ -3562,7 +3586,7 @@
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -3581,7 +3605,7 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -3600,8 +3624,8 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s" ph="1">
+    <row r="43" spans="1:19" ht="21" x14ac:dyDescent="0.15">
+      <c r="A43" s="43" t="s" ph="1">
         <v>52</v>
       </c>
       <c r="B43" s="11">
@@ -3610,10 +3634,10 @@
       <c r="C43" s="11">
         <v>42804</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="37">
         <v>42805</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="37">
         <v>42806</v>
       </c>
       <c r="F43" s="11">
@@ -3631,13 +3655,13 @@
       <c r="J43" s="11">
         <v>42811</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="37">
         <v>42812</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="37">
         <v>42813</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="37">
         <v>42814</v>
       </c>
       <c r="N43" s="11">
@@ -3653,261 +3677,261 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+    <row r="44" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="44" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="138" t="s">
+      <c r="C44" s="112" t="s">
         <v>107</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="147" t="s">
+      <c r="E44" s="41"/>
+      <c r="F44" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="G44" s="147"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="106"/>
-      <c r="L44" s="106"/>
-      <c r="M44" s="106"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="139"/>
+      <c r="C45" s="113"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="83" t="s">
+      <c r="E45" s="41"/>
+      <c r="F45" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="140" t="s">
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="M45" s="106"/>
+      <c r="M45" s="103"/>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="139"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="83" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="106"/>
-      <c r="L46" s="141"/>
-      <c r="M46" s="106"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="134"/>
+      <c r="M46" s="103"/>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="139"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="88" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="142"/>
-      <c r="M47" s="106"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="103"/>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+    <row r="48" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="139"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="147" t="s">
+      <c r="G48" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="107"/>
-      <c r="N48" s="51"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="48"/>
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="139"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="99" t="s">
+      <c r="G49" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="H49" s="99" t="s">
+      <c r="H49" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="140" t="s">
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="L49" s="107"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="51"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="48"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="139"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="99" t="s">
+      <c r="G50" s="41"/>
+      <c r="H50" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="141"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="107"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="51"/>
-      <c r="P50" s="51"/>
-      <c r="Q50" s="51"/>
-    </row>
-    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+    </row>
+    <row r="51" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="139"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="113"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="99" t="s">
+      <c r="G51" s="41"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="J51" s="49"/>
-      <c r="K51" s="141"/>
-      <c r="L51" s="107"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-    </row>
-    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="46"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="104"/>
+      <c r="M51" s="104"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="139"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="113"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="49"/>
-      <c r="J52" s="40" t="s">
+      <c r="G52" s="41"/>
+      <c r="H52" s="46"/>
+      <c r="J52" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="K52" s="141"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="51"/>
-      <c r="O52" s="51"/>
-      <c r="P52" s="51"/>
-      <c r="Q52" s="51"/>
-    </row>
-    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="134"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="104"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+    </row>
+    <row r="53" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="139"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="113"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="98" t="s">
+      <c r="G53" s="41"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="142"/>
-      <c r="L53" s="107"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
-    </row>
-    <row r="54" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
+      <c r="J53" s="46"/>
+      <c r="K53" s="135"/>
+      <c r="L53" s="104"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+    </row>
+    <row r="54" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A54" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="41" t="s">
+      <c r="J54" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="K54" s="107"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="107"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="104"/>
+      <c r="M54" s="104"/>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
@@ -3920,24 +3944,24 @@
       </c>
       <c r="U54" s="124"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="102" t="s">
+      <c r="J55" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="K55" s="107"/>
-      <c r="L55" s="107"/>
-      <c r="M55" s="143" t="s">
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="136" t="s">
         <v>131</v>
       </c>
       <c r="N55" s="14"/>
@@ -3952,24 +3976,24 @@
       </c>
       <c r="U55" s="124"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="102" t="s">
+      <c r="J56" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="K56" s="107"/>
-      <c r="L56" s="107"/>
-      <c r="M56" s="142"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="135"/>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3980,189 +4004,189 @@
       <c r="T56" s="124"/>
       <c r="U56" s="124"/>
     </row>
-    <row r="57" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A57" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="138" t="s">
+      <c r="C57" s="112" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="54" t="s">
+      <c r="E57" s="51" t="s">
         <v>110</v>
       </c>
       <c r="F57" s="9"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="106"/>
-      <c r="M57" s="106"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="103"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="139"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F58" s="43"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="115" t="s">
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="L58" s="106"/>
-      <c r="M58" s="106"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="103"/>
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="139"/>
+      <c r="C59" s="113"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="83" t="s">
+      <c r="E59" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="43"/>
+      <c r="F59" s="41"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="106"/>
-      <c r="M59" s="106"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="138"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="103"/>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="139"/>
+      <c r="C60" s="113"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="83" t="s">
+      <c r="E60" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="43"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="106"/>
-      <c r="M60" s="106"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="103"/>
+      <c r="M60" s="103"/>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="139"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="83" t="s">
+      <c r="E61" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F61" s="43"/>
+      <c r="F61" s="41"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="106"/>
-      <c r="M61" s="106"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="138"/>
+      <c r="L61" s="103"/>
+      <c r="M61" s="103"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="139"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="83" t="s">
+      <c r="C62" s="113"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="F62" s="43"/>
+      <c r="F62" s="41"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="117"/>
-      <c r="L62" s="106"/>
-      <c r="M62" s="106"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
     </row>
-    <row r="63" spans="1:21" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A63" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="139"/>
-      <c r="D63" s="56" t="s">
+      <c r="B63" s="46"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="108"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="105"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
     </row>
-    <row r="64" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
+    <row r="64" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="83" t="s">
+      <c r="B64" s="46"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="107"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="118" t="s">
+      <c r="H64" s="49"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="140" t="s">
         <v>131</v>
       </c>
       <c r="N64" s="14"/>
@@ -4170,332 +4194,332 @@
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
     </row>
-    <row r="65" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
+    <row r="65" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="139"/>
-      <c r="D65" s="83" t="s">
+      <c r="B65" s="46"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="106"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="119"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="141"/>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="14"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="139"/>
-      <c r="D66" s="84" t="s">
+      <c r="C66" s="113"/>
+      <c r="D66" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="43"/>
+      <c r="E66" s="41"/>
       <c r="F66" s="6"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="106"/>
-      <c r="L66" s="106"/>
-      <c r="M66" s="120"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="103"/>
+      <c r="M66" s="142"/>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
     </row>
-    <row r="67" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+    <row r="67" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="139"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="92" t="s">
+      <c r="G67" s="89" t="s">
         <v>111</v>
       </c>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="106"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="56"/>
+      <c r="P67" s="56"/>
+      <c r="Q67" s="56"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="113"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="101" t="s">
+      <c r="G68" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="H68" s="99" t="s">
+      <c r="H68" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="I68" s="43"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="106"/>
-      <c r="L68" s="121" t="s">
+      <c r="I68" s="41"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="103"/>
+      <c r="L68" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="M68" s="107"/>
-      <c r="N68" s="60"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="60"/>
-      <c r="Q68" s="60"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M68" s="104"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="99" t="s">
+      <c r="G69" s="41"/>
+      <c r="H69" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="I69" s="49"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="106"/>
-      <c r="L69" s="122"/>
-      <c r="M69" s="107"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="60"/>
-      <c r="Q69" s="60"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I69" s="46"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="139"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="99" t="s">
+      <c r="G70" s="41"/>
+      <c r="H70" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="122"/>
-      <c r="M70" s="110"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="60"/>
-      <c r="P70" s="60"/>
-      <c r="Q70" s="60"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J70" s="41"/>
+      <c r="K70" s="103"/>
+      <c r="L70" s="144"/>
+      <c r="M70" s="107"/>
+      <c r="N70" s="50"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B71" s="49"/>
-      <c r="C71" s="139"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="99" t="s">
+      <c r="G71" s="41"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="J71" s="43"/>
-      <c r="K71" s="106"/>
-      <c r="L71" s="122"/>
-      <c r="M71" s="110"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J71" s="41"/>
+      <c r="K71" s="103"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="107"/>
+      <c r="N71" s="50"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="49"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="113"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="99" t="s">
+      <c r="G72" s="41"/>
+      <c r="H72" s="49"/>
+      <c r="I72" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="J72" s="100" t="s">
+      <c r="J72" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="K72" s="111"/>
-      <c r="L72" s="122"/>
-      <c r="M72" s="110"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="60"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K72" s="108"/>
+      <c r="L72" s="144"/>
+      <c r="M72" s="107"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="57"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="49"/>
-      <c r="C73" s="139"/>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="113"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="61" t="s">
+      <c r="G73" s="41"/>
+      <c r="H73" s="49"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="K73" s="111"/>
-      <c r="L73" s="123"/>
-      <c r="M73" s="110"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="63"/>
-    </row>
-    <row r="74" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="108"/>
+      <c r="L73" s="145"/>
+      <c r="M73" s="107"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="50"/>
+      <c r="P73" s="59"/>
+      <c r="Q73" s="60"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="29" t="s">
         <v>36</v>
       </c>
       <c r="B74" s="9"/>
-      <c r="C74" s="139"/>
+      <c r="C74" s="113"/>
       <c r="D74" s="9"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="91" t="s">
+      <c r="F74" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="106"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="93"/>
+      <c r="J74" s="94"/>
+      <c r="K74" s="108"/>
+      <c r="L74" s="108"/>
+      <c r="M74" s="103"/>
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
       <c r="P74" s="14"/>
       <c r="Q74" s="14"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="139"/>
+      <c r="C75" s="113"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="89" t="s">
+      <c r="E75" s="41"/>
+      <c r="F75" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="115" t="s">
+      <c r="K75" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="L75" s="111"/>
-      <c r="M75" s="106"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="103"/>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B76" s="9"/>
-      <c r="C76" s="139"/>
+      <c r="C76" s="113"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="89" t="s">
+      <c r="E76" s="41"/>
+      <c r="F76" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="112"/>
-      <c r="M76" s="106"/>
+      <c r="K76" s="139"/>
+      <c r="L76" s="109"/>
+      <c r="M76" s="103"/>
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B77" s="9"/>
-      <c r="C77" s="139"/>
+      <c r="C77" s="113"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="88" t="s">
+      <c r="E77" s="41"/>
+      <c r="F77" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="61" t="s">
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="M77" s="106"/>
+      <c r="M77" s="103"/>
       <c r="N77" s="14"/>
       <c r="O77" s="14"/>
       <c r="P77" s="14"/>
       <c r="Q77" s="14"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B78" s="9"/>
-      <c r="C78" s="139"/>
+      <c r="C78" s="113"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="61" t="s">
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="47"/>
+      <c r="J78" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="K78" s="106"/>
-      <c r="L78" s="112"/>
-      <c r="M78" s="115" t="s">
+      <c r="K78" s="103"/>
+      <c r="L78" s="109"/>
+      <c r="M78" s="137" t="s">
         <v>132</v>
       </c>
       <c r="N78" s="14"/>
@@ -4503,487 +4527,486 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B79" s="9"/>
-      <c r="C79" s="144"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="88" t="s">
+      <c r="E79" s="41"/>
+      <c r="F79" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
       <c r="J79" s="1"/>
-      <c r="K79" s="106"/>
-      <c r="L79" s="106"/>
-      <c r="M79" s="117"/>
+      <c r="K79" s="103"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="139"/>
       <c r="N79" s="14"/>
       <c r="O79" s="14"/>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
     </row>
-    <row r="80" spans="1:17" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A80" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="145" t="s">
+      <c r="C80" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="43"/>
+      <c r="D80" s="41"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="148" t="s">
+      <c r="G80" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="H80" s="149"/>
-      <c r="I80" s="149"/>
-      <c r="J80" s="150"/>
-      <c r="K80" s="106"/>
-      <c r="L80" s="106"/>
-      <c r="M80" s="106"/>
-      <c r="N80" s="51"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="51"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="64" t="s">
+      <c r="H80" s="119"/>
+      <c r="I80" s="119"/>
+      <c r="J80" s="120"/>
+      <c r="K80" s="103"/>
+      <c r="L80" s="103"/>
+      <c r="M80" s="103"/>
+      <c r="N80" s="48"/>
+      <c r="O80" s="48"/>
+      <c r="P80" s="48"/>
+      <c r="Q80" s="48"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A81" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="146"/>
+      <c r="C81" s="116"/>
       <c r="D81" s="6"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="95" t="s">
+      <c r="G81" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="H81" s="100" t="s">
+      <c r="H81" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="I81" s="100" t="s">
+      <c r="I81" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="J81" s="103"/>
-      <c r="K81" s="106"/>
-      <c r="L81" s="106"/>
-      <c r="M81" s="106"/>
+      <c r="J81" s="100"/>
+      <c r="K81" s="103"/>
+      <c r="L81" s="103"/>
+      <c r="M81" s="103"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
       <c r="P81" s="14"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="146"/>
+      <c r="C82" s="116"/>
       <c r="D82" s="6"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="43"/>
+      <c r="G82" s="41"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="104" t="s">
+      <c r="J82" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="K82" s="106"/>
-      <c r="L82" s="106"/>
-      <c r="M82" s="106"/>
+      <c r="K82" s="103"/>
+      <c r="L82" s="103"/>
+      <c r="M82" s="103"/>
       <c r="N82" s="14"/>
       <c r="O82" s="14"/>
       <c r="P82" s="14"/>
       <c r="Q82" s="14"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="146"/>
+      <c r="C83" s="116"/>
       <c r="D83" s="6"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="43"/>
+      <c r="G83" s="41"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="104" t="s">
+      <c r="J83" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="K83" s="106"/>
-      <c r="L83" s="106"/>
-      <c r="M83" s="106"/>
+      <c r="K83" s="103"/>
+      <c r="L83" s="103"/>
+      <c r="M83" s="103"/>
       <c r="N83" s="14"/>
       <c r="O83" s="14"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="146"/>
+      <c r="C84" s="116"/>
       <c r="D84" s="6"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="43"/>
+      <c r="G84" s="41"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="103"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="65" t="s">
+      <c r="J84" s="100"/>
+      <c r="K84" s="103"/>
+      <c r="L84" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="M84" s="106"/>
+      <c r="M84" s="103"/>
       <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="146"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="116"/>
       <c r="D85" s="6"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="6"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="104" t="s">
+      <c r="J85" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="K85" s="106"/>
-      <c r="L85" s="106"/>
-      <c r="M85" s="106"/>
+      <c r="K85" s="103"/>
+      <c r="L85" s="103"/>
+      <c r="M85" s="103"/>
       <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="146"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="116"/>
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="6"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="103"/>
-      <c r="K86" s="65" t="s">
+      <c r="J86" s="100"/>
+      <c r="K86" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="L86" s="106"/>
-      <c r="M86" s="106"/>
+      <c r="L86" s="103"/>
+      <c r="M86" s="103"/>
       <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="146"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="116"/>
       <c r="D87" s="6"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="6"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="103"/>
-      <c r="K87" s="42" t="s">
+      <c r="J87" s="100"/>
+      <c r="K87" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="L87" s="106"/>
-      <c r="M87" s="106"/>
+      <c r="L87" s="103"/>
+      <c r="M87" s="103"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="146"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="116"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="6"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="104" t="s">
+      <c r="J88" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="K88" s="106"/>
-      <c r="L88" s="106"/>
-      <c r="M88" s="106"/>
+      <c r="K88" s="103"/>
+      <c r="L88" s="103"/>
+      <c r="M88" s="103"/>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B89" s="43"/>
-      <c r="C89" s="146"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="116"/>
       <c r="D89" s="6"/>
-      <c r="E89" s="85"/>
+      <c r="E89" s="82"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="43"/>
+      <c r="G89" s="41"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="103"/>
-      <c r="K89" s="42" t="s">
+      <c r="J89" s="100"/>
+      <c r="K89" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="L89" s="106"/>
-      <c r="M89" s="106"/>
+      <c r="L89" s="103"/>
+      <c r="M89" s="103"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="146"/>
-      <c r="D90" s="43"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="41"/>
       <c r="E90" s="6"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="43"/>
+      <c r="G90" s="41"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="13"/>
-      <c r="K90" s="42" t="s">
+      <c r="K90" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="L90" s="106"/>
-      <c r="M90" s="106"/>
+      <c r="L90" s="103"/>
+      <c r="M90" s="103"/>
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="66" t="s">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A91" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="146"/>
-      <c r="D91" s="43"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="6"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="43"/>
+      <c r="G91" s="41"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="13"/>
-      <c r="K91" s="113"/>
-      <c r="L91" s="42" t="s">
+      <c r="K91" s="110"/>
+      <c r="L91" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="M91" s="106"/>
+      <c r="M91" s="103"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
     </row>
-    <row r="92" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="67" t="s">
+    <row r="92" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="146"/>
-      <c r="D92" s="43"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="41"/>
       <c r="E92" s="6"/>
       <c r="F92" s="1"/>
       <c r="G92" s="6"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="93"/>
-      <c r="K92" s="106"/>
-      <c r="L92" s="42" t="s">
+      <c r="J92" s="90"/>
+      <c r="K92" s="103"/>
+      <c r="L92" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="M92" s="106"/>
+      <c r="M92" s="103"/>
       <c r="N92" s="14"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
     </row>
-    <row r="93" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="47" t="s">
+    <row r="93" spans="1:19" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="146"/>
-      <c r="D93" s="151" t="s">
+      <c r="B93" s="46"/>
+      <c r="C93" s="116"/>
+      <c r="D93" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="E93" s="152"/>
-      <c r="F93" s="153"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="123"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="107"/>
-      <c r="L93" s="107"/>
-      <c r="M93" s="107"/>
+      <c r="J93" s="102"/>
+      <c r="K93" s="104"/>
+      <c r="L93" s="104"/>
+      <c r="M93" s="104"/>
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
     </row>
-    <row r="94" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B94" s="68"/>
-      <c r="C94" s="146"/>
-      <c r="D94" s="87" t="s">
+      <c r="B94" s="65"/>
+      <c r="C94" s="116"/>
+      <c r="D94" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="E94" s="87" t="s">
+      <c r="E94" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="F94" s="69"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="94"/>
-      <c r="I94" s="69"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="113"/>
-      <c r="L94" s="113"/>
-      <c r="M94" s="114"/>
-      <c r="N94" s="70"/>
-      <c r="O94" s="70"/>
-      <c r="P94" s="70"/>
-      <c r="Q94" s="70"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="91"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="110"/>
+      <c r="L94" s="110"/>
+      <c r="M94" s="111"/>
+      <c r="N94" s="67"/>
+      <c r="O94" s="67"/>
+      <c r="P94" s="67"/>
+      <c r="Q94" s="67"/>
       <c r="S94" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B95" s="68"/>
-      <c r="C95" s="146"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="89" t="s">
+      <c r="B95" s="65"/>
+      <c r="C95" s="116"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="G95" s="86"/>
-      <c r="H95" s="94"/>
-      <c r="I95" s="69"/>
-      <c r="J95" s="68"/>
-      <c r="K95" s="113"/>
-      <c r="L95" s="113"/>
-      <c r="M95" s="114"/>
-      <c r="N95" s="70"/>
-      <c r="O95" s="70"/>
-      <c r="P95" s="70"/>
-      <c r="Q95" s="70"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="91"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="110"/>
+      <c r="L95" s="110"/>
+      <c r="M95" s="111"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="67"/>
       <c r="S95" s="8"/>
     </row>
-    <row r="96" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B96" s="68"/>
-      <c r="C96" s="146"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="89" t="s">
+      <c r="B96" s="65"/>
+      <c r="C96" s="116"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="G96" s="86"/>
-      <c r="H96" s="68"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="113"/>
-      <c r="L96" s="113"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="70"/>
-      <c r="O96" s="70"/>
-      <c r="P96" s="70"/>
-      <c r="Q96" s="70"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="110"/>
+      <c r="L96" s="110"/>
+      <c r="M96" s="111"/>
+      <c r="N96" s="67"/>
+      <c r="O96" s="67"/>
+      <c r="P96" s="67"/>
+      <c r="Q96" s="67"/>
       <c r="S96" s="8"/>
     </row>
-    <row r="97" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B97" s="68"/>
-      <c r="C97" s="146"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="87" t="s">
+      <c r="B97" s="65"/>
+      <c r="C97" s="116"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="G97" s="86"/>
-      <c r="H97" s="69"/>
-      <c r="I97" s="69"/>
-      <c r="J97" s="68"/>
-      <c r="K97" s="113"/>
-      <c r="L97" s="113"/>
-      <c r="M97" s="114"/>
-      <c r="N97" s="70"/>
-      <c r="O97" s="70"/>
-      <c r="P97" s="70"/>
-      <c r="Q97" s="70"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="110"/>
+      <c r="L97" s="110"/>
+      <c r="M97" s="111"/>
+      <c r="N97" s="67"/>
+      <c r="O97" s="67"/>
+      <c r="P97" s="67"/>
+      <c r="Q97" s="67"/>
       <c r="S97" s="8"/>
     </row>
-    <row r="98" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="68"/>
-      <c r="C98" s="146"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="89" t="s">
+      <c r="B98" s="65"/>
+      <c r="C98" s="116"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="G98" s="86"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="113"/>
-      <c r="L98" s="113"/>
-      <c r="M98" s="114"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
-      <c r="Q98" s="70"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="110"/>
+      <c r="L98" s="110"/>
+      <c r="M98" s="111"/>
+      <c r="N98" s="67"/>
+      <c r="O98" s="67"/>
+      <c r="P98" s="67"/>
+      <c r="Q98" s="67"/>
       <c r="S98" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C57:C79"/>
-    <mergeCell ref="C80:C98"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="M64:M66"/>
+    <mergeCell ref="L68:L73"/>
+    <mergeCell ref="K75:K76"/>
+    <mergeCell ref="M78:M79"/>
     <mergeCell ref="T54:U54"/>
     <mergeCell ref="T55:U55"/>
     <mergeCell ref="T56:U56"/>
@@ -4997,11 +5020,12 @@
     <mergeCell ref="K49:K53"/>
     <mergeCell ref="L45:L47"/>
     <mergeCell ref="M55:M56"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="M64:M66"/>
-    <mergeCell ref="L68:L73"/>
-    <mergeCell ref="K75:K76"/>
-    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="C57:C79"/>
+    <mergeCell ref="C80:C98"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="D93:F93"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
